--- a/项目管理/进度计划/Demo-里程碑3/Demo-里程碑3-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑3/Demo-里程碑3-周版本.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19580" tabRatio="500"/>
+    <workbookView xWindow="220" yWindow="460" windowWidth="30120" windowHeight="19580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="20150701" sheetId="16" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="429">
   <si>
     <t>下次双周会内容</t>
     <rPh sb="0" eb="1">
@@ -838,10 +838,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>转方向问题解释-7月2日</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>策划设计文档中，文字限制按英文字符出，中英文以及其他语言换算策划了解其他游戏做法</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1138,6 +1134,789 @@
   </si>
   <si>
     <t>Day6</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期到D3</t>
+    <rPh sb="0" eb="1">
+      <t>yan'qi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dao</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期到D6</t>
+    <rPh sb="0" eb="1">
+      <t>yan'qi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dao</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存管理和打包处理</t>
+    <rPh sb="0" eb="1">
+      <t>nei'cun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan'li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>he</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>da'bao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chu'li</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <rPh sb="0" eb="1">
+      <t>qu'xiao</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>QA本周输出</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要一周</t>
+    <rPh sb="0" eb="1">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'zhou</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
+    <rPh sb="0" eb="1">
+      <t>bi'xu</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>帅帅</t>
+    <rPh sb="0" eb="1">
+      <t>shuai'shuai</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署外网服务器</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-590</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-589</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>今晚</t>
+    <rPh sb="0" eb="1">
+      <t>jin'wan</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程碑3总结广播</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>三方</t>
+    <rPh sb="0" eb="1">
+      <t>san'fang</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>转方向问题解释</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <rPh sb="0" eb="1">
+      <t>yi'wan'cheng</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局-弱点相关</t>
+    <rPh sb="0" eb="1">
+      <t>dui'ju</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ruo'dian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiang'g</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局-对局-副本/对局/进程/模式关系</t>
+    <rPh sb="0" eb="1">
+      <t>dui'ju</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本层逻辑，对局掉落表现，对局间承接关系表现，对局胜利</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>切进程状态变化逻辑</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-594</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本、对局关系调整；对局掉落表现</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-595</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能弱点搜索问题-部位变化，弱点刷新规则</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-596</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-597</t>
+  </si>
+  <si>
+    <t>宠物界面文档</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-598</t>
+  </si>
+  <si>
+    <t>对局镜头UI调整</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-599</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择界面UI评审（副本信息，阵容选择）（Day1完成）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-600</t>
+  </si>
+  <si>
+    <t>宠物界面UI评审（Day2完成）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>小星</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>day3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-601</t>
+  </si>
+  <si>
+    <t>对局镜头评审</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>xw</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-599</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审</t>
+    <rPh sb="0" eb="1">
+      <t>ping'shen</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招逻辑调整（ver0.2反馈）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-604</t>
+  </si>
+  <si>
+    <t>对局镜头UI如果有意外，将阻碍提交</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局UI调整，集火UI，换怪调整（ver0.2反馈）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-603</t>
+  </si>
+  <si>
+    <t>照妖镜UI调整（ver0.2反馈）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能逻辑</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-481</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局-转向，轴锁定，attach</t>
+    <rPh sb="0" eb="1">
+      <t>dui'ju</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhuan'xiang</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-616</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定豆豆世界观选怪物部分工作完成后需要大概半天左右</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景设计*2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局改动列表（V0.2反馈）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-623</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>xw、雪姬、小星</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔灵召唤测试报告</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-602</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-555</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-620</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>xw</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>day2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-605</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画配置说明</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>day3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-608</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物设计*10</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>day5</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划验收</t>
+    <rPh sb="0" eb="1">
+      <t>ce'hua</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yan'shou</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交QA</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画模块功能添加（相机运动，所有动画序列变sequence，加入延迟时间， 声音）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择-副本信息UI</t>
+    <rPh sb="0" eb="1">
+      <t>f'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xin'xi</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>师叔</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-624</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择-选择阵容ui</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-625</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本切对局过度</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-626</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本配置表拆表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-627</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端自主任务</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存优化，缓存后，动态添加组件子节点做法确认</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-628</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>HockeyApp IOS无反应查看</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-518</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本重置次数</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>小珍</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>day2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-566</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-606 MG-607</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-609 MG-610</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-618 MG-619</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2对局修改内容文档分析</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-611 MG-612</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局新需求测试用例设计</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-613</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择测试用例设计</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-615</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局新需求测试用例走读</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-614</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择测试用例走读</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-617</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择测试用例走读后修改</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局测试用例走读后修改</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物界面测试用例设计-宠物列表</t>
+    <rPh sb="11" eb="12">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>lie'biao</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-621</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-578</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>HockeyApp协助</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔灵召唤体验报告</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-622</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui第六版</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙帆</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-572</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界观</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆豆</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-573</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景原画</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色原画</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>day3上午</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局-v0.2其他调整</t>
+    <rPh sb="0" eb="1">
+      <t>dui'ju</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qi't</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tiao'zheng</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本入口（Day1达到三方前）</t>
+    <rPh sb="0" eb="1">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ru'kou</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>day3下午</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物界面（Day3达到三方前）</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'm</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>day4上午</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广播里程碑3总结</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局镜头、UI调整评审</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择界面-UI评审</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物界面-UI评审</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>待排期</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>木木</t>
+    <rPh sb="0" eb="1">
+      <t>mu'mu</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言版本程序规划（编码规范增加不能在代码中有文字）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>day5</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月15日</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI适配方法变更-文档回归待排期</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>xw</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局动画震屏功能需要的话调试，预计0.5D，W3排期</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>day1站会讨论一下：D6达到三方前</t>
+    <rPh sb="13" eb="14">
+      <t>da'dao</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>san'fang'qian</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <rPh sb="0" eb="1">
+      <t>wei'wan'cheng</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划设计待定</t>
+    <rPh sb="0" eb="1">
+      <t>ce'hua</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>she'ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dai'ding</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物界面-宠物包裹界面</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物界面-玩家宠物背包分页签</t>
+  </si>
+  <si>
+    <t>day6</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-629</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-630</t>
+  </si>
+  <si>
+    <t>预估时间不足</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增副本开启条件相关配置</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOS阻碍</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本开始数据结构配置表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-592</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-631</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>小珍</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'zhen</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>U3d熟悉</t>
+    <rPh sb="3" eb="4">
+      <t>shu'xi</t>
+    </rPh>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2046,7 +2825,18 @@
     <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="62">
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2169,12 +2959,281 @@
     </dxf>
     <dxf>
       <font>
-        <color indexed="60"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2742,10 +3801,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:R103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="G42" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
@@ -2837,10 +3899,14 @@
         <v>156</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="29"/>
+        <v>197</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>421</v>
+      </c>
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
       <c r="L3" s="29"/>
@@ -2863,14 +3929,18 @@
         <v>156</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="H4" s="31"/>
+        <v>197</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
+      <c r="M4" s="29" t="s">
+        <v>268</v>
+      </c>
       <c r="N4" s="29"/>
     </row>
     <row r="5" spans="1:14" ht="17" x14ac:dyDescent="0.25">
@@ -2889,14 +3959,18 @@
         <v>156</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="H5" s="31"/>
+        <v>196</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="I5" s="29"/>
       <c r="J5" s="29"/>
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
+      <c r="M5" s="29" t="s">
+        <v>268</v>
+      </c>
       <c r="N5" s="29"/>
     </row>
     <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.25">
@@ -2915,14 +3989,18 @@
         <v>156</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="H6" s="31"/>
+        <v>196</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
+      <c r="M6" s="29" t="s">
+        <v>268</v>
+      </c>
       <c r="N6" s="29"/>
     </row>
     <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.25">
@@ -2959,12 +4037,17 @@
         <v>149</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+        <v>197</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>270</v>
+      </c>
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
       <c r="N8" s="29"/>
@@ -2985,11 +4068,14 @@
         <v>149</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
+        <v>197</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>268</v>
+      </c>
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
@@ -3011,11 +4097,14 @@
         <v>149</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
+        <v>196</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>268</v>
+      </c>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
@@ -3037,11 +4126,14 @@
         <v>149</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
+        <v>196</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>268</v>
+      </c>
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
@@ -3054,7 +4146,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>126</v>
@@ -3063,9 +4155,11 @@
         <v>122</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="H12" s="31"/>
+        <v>198</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
@@ -3089,9 +4183,11 @@
         <v>122</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="H13" s="31"/>
+        <v>199</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
@@ -3106,7 +4202,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>146</v>
@@ -3115,14 +4211,18 @@
         <v>128</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="H14" s="31"/>
+        <v>200</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="I14" s="29"/>
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
       <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
+      <c r="M14" s="29" t="s">
+        <v>282</v>
+      </c>
       <c r="N14" s="29"/>
     </row>
     <row r="15" spans="1:14" ht="17" x14ac:dyDescent="0.25">
@@ -3132,7 +4232,7 @@
         <v>16</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>129</v>
@@ -3141,14 +4241,18 @@
         <v>128</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="H15" s="31"/>
+        <v>204</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="I15" s="29"/>
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
       <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
+      <c r="M15" s="29" t="s">
+        <v>282</v>
+      </c>
       <c r="N15" s="29"/>
     </row>
     <row r="16" spans="1:14" ht="34" x14ac:dyDescent="0.25">
@@ -3165,9 +4269,11 @@
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="H16" s="31"/>
+        <v>205</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
@@ -3175,7 +4281,7 @@
       <c r="M16" s="29"/>
       <c r="N16" s="29"/>
     </row>
-    <row r="17" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="28"/>
       <c r="F17" s="31"/>
@@ -3188,7 +4294,7 @@
       <c r="M17" s="29"/>
       <c r="N17" s="29"/>
     </row>
-    <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="28" t="s">
         <v>123</v>
@@ -3197,48 +4303,56 @@
         <v>16</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E18" s="28" t="s">
         <v>121</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="H18" s="31"/>
+        <v>251</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
+      <c r="K18" s="29" t="s">
+        <v>268</v>
+      </c>
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
       <c r="N18" s="29"/>
     </row>
-    <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
       <c r="C19" s="27" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E19" s="28" t="s">
         <v>120</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="H19" s="31"/>
+        <v>208</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="I19" s="29"/>
       <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
+      <c r="K19" s="29" t="s">
+        <v>268</v>
+      </c>
       <c r="L19" s="29"/>
       <c r="M19" s="29"/>
       <c r="N19" s="29"/>
     </row>
-    <row r="20" spans="1:14" ht="34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="34" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="C20" s="27" t="s">
         <v>16</v>
@@ -3250,20 +4364,26 @@
         <v>121</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="H20" s="31"/>
+        <v>209</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
       <c r="N20" s="29"/>
-    </row>
-    <row r="21" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+    </row>
+    <row r="21" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
       <c r="B21" s="28"/>
       <c r="C21" s="25" t="s">
@@ -3276,20 +4396,26 @@
         <v>120</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="H21" s="31"/>
+        <v>210</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
       <c r="L21" s="29"/>
       <c r="M21" s="29"/>
       <c r="N21" s="29"/>
-    </row>
-    <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+    </row>
+    <row r="22" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="27"/>
       <c r="C22" s="25"/>
@@ -3297,14 +4423,18 @@
       <c r="E22" s="31"/>
       <c r="F22" s="31"/>
       <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
+      <c r="I22" s="29"/>
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
       <c r="L22" s="29"/>
       <c r="M22" s="29"/>
       <c r="N22" s="29"/>
-    </row>
-    <row r="23" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+    </row>
+    <row r="23" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>23</v>
       </c>
@@ -3317,8 +4447,12 @@
       <c r="L23" s="29"/>
       <c r="M23" s="29"/>
       <c r="N23" s="29"/>
-    </row>
-    <row r="24" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+    </row>
+    <row r="24" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>64</v>
       </c>
@@ -3332,19 +4466,34 @@
         <v>141</v>
       </c>
       <c r="F24" s="31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+    </row>
+    <row r="25" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="C25" s="8" t="s">
         <v>162</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E25" s="27" t="s">
         <v>142</v>
@@ -3353,38 +4502,50 @@
         <v>122</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="H25" s="31"/>
+        <v>213</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>18</v>
+      </c>
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
       <c r="K25" s="29"/>
       <c r="L25" s="29"/>
       <c r="M25" s="29"/>
       <c r="N25" s="29"/>
-    </row>
-    <row r="26" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+    </row>
+    <row r="26" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
       <c r="C26" s="30" t="s">
         <v>140</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>144</v>
       </c>
       <c r="F26" s="31"/>
       <c r="G26" s="19"/>
-      <c r="H26" s="31"/>
+      <c r="H26" s="31" t="s">
+        <v>18</v>
+      </c>
       <c r="I26" s="29"/>
       <c r="J26" s="29"/>
       <c r="K26" s="29"/>
       <c r="L26" s="29"/>
       <c r="M26" s="29"/>
       <c r="N26" s="29"/>
-    </row>
-    <row r="27" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+    </row>
+    <row r="27" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="7"/>
       <c r="C27" s="8" t="s">
@@ -3398,15 +4559,21 @@
       </c>
       <c r="F27" s="31"/>
       <c r="G27" s="19"/>
-      <c r="H27" s="31"/>
+      <c r="H27" s="31" t="s">
+        <v>18</v>
+      </c>
       <c r="I27" s="29"/>
       <c r="J27" s="29"/>
       <c r="K27" s="29"/>
       <c r="L27" s="29"/>
       <c r="M27" s="29"/>
       <c r="N27" s="29"/>
-    </row>
-    <row r="28" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+    </row>
+    <row r="28" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="F28" s="31"/>
       <c r="G28" s="19"/>
@@ -3417,8 +4584,12 @@
       <c r="L28" s="29"/>
       <c r="M28" s="29"/>
       <c r="N28" s="29"/>
-    </row>
-    <row r="29" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+    </row>
+    <row r="29" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>24</v>
       </c>
@@ -3435,17 +4606,25 @@
         <v>148</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="H29" s="31"/>
-      <c r="I29" s="29"/>
+        <v>242</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="29" t="s">
+        <v>268</v>
+      </c>
       <c r="J29" s="29"/>
       <c r="K29" s="29"/>
       <c r="L29" s="29"/>
       <c r="M29" s="29"/>
       <c r="N29" s="29"/>
-    </row>
-    <row r="30" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+    </row>
+    <row r="30" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
       <c r="C30" s="8" t="s">
         <v>16</v>
@@ -3460,23 +4639,31 @@
         <v>152</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="H30" s="31"/>
+        <v>243</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
       <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
+      <c r="L30" s="29" t="s">
+        <v>268</v>
+      </c>
       <c r="M30" s="29"/>
       <c r="N30" s="29"/>
-    </row>
-    <row r="31" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+    </row>
+    <row r="31" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A31" s="32"/>
       <c r="C31" s="30" t="s">
         <v>158</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E31" s="30" t="s">
         <v>153</v>
@@ -3485,24 +4672,31 @@
         <v>149</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="H31" s="31"/>
+        <v>221</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
+      <c r="J31" s="29" t="s">
+        <v>268</v>
+      </c>
       <c r="L31" s="29"/>
       <c r="M31" s="29"/>
       <c r="N31" s="29"/>
-    </row>
-    <row r="32" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+    </row>
+    <row r="32" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A32" s="32"/>
       <c r="B32" s="7"/>
       <c r="C32" s="30" t="s">
         <v>158</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E32" s="30" t="s">
         <v>154</v>
@@ -3511,296 +4705,387 @@
         <v>149</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="H32" s="31"/>
+        <v>222</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
+      <c r="J32" s="29" t="s">
+        <v>273</v>
+      </c>
       <c r="K32" s="29"/>
       <c r="L32" s="29"/>
       <c r="M32" s="29"/>
       <c r="N32" s="29"/>
-    </row>
-    <row r="33" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+    </row>
+    <row r="33" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A33" s="32"/>
       <c r="B33" s="7"/>
       <c r="C33" s="30" t="s">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>218</v>
+        <v>271</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>144</v>
+        <v>272</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="H33" s="31"/>
+        <v>281</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="I33" s="29"/>
       <c r="J33" s="29"/>
       <c r="K33" s="29"/>
       <c r="L33" s="29"/>
       <c r="M33" s="29"/>
       <c r="N33" s="29"/>
-    </row>
-    <row r="34" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+    </row>
+    <row r="34" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A34" s="32"/>
       <c r="B34" s="7"/>
       <c r="C34" s="30" t="s">
         <v>139</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F34" s="31" t="s">
-        <v>257</v>
+        <v>155</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="H34" s="31"/>
+        <v>244</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="I34" s="29"/>
       <c r="J34" s="29"/>
       <c r="K34" s="29"/>
       <c r="L34" s="29"/>
       <c r="M34" s="29"/>
       <c r="N34" s="29"/>
-    </row>
-    <row r="35" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+    </row>
+    <row r="35" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" s="32"/>
       <c r="B35" s="7"/>
       <c r="C35" s="30" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>219</v>
+        <v>145</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="F35" s="31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="H35" s="31"/>
-      <c r="I35" s="29"/>
+        <v>223</v>
+      </c>
+      <c r="H35" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="I35" s="20" t="s">
+        <v>422</v>
+      </c>
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
       <c r="L35" s="29"/>
       <c r="M35" s="29"/>
       <c r="N35" s="29"/>
-    </row>
-    <row r="36" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="C36" s="8" t="s">
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+    </row>
+    <row r="36" spans="1:18" ht="17" x14ac:dyDescent="0.25">
+      <c r="A36" s="32"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="D36" s="30" t="s">
-        <v>165</v>
+      <c r="D36" s="31" t="s">
+        <v>218</v>
       </c>
       <c r="E36" s="30" t="s">
         <v>154</v>
       </c>
       <c r="F36" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="G36" s="27"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="29"/>
+        <v>256</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="H36" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="I36" s="20" t="s">
+        <v>423</v>
+      </c>
       <c r="J36" s="29"/>
       <c r="K36" s="29"/>
       <c r="L36" s="29"/>
       <c r="M36" s="29"/>
       <c r="N36" s="29"/>
-    </row>
-    <row r="37" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+    </row>
+    <row r="37" spans="1:18" ht="17" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
       <c r="C37" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D37" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="F37" s="31"/>
-      <c r="G37" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="H37" s="31"/>
-      <c r="I37" s="29"/>
+        <v>158</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="G37" s="27"/>
+      <c r="H37" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="29" t="s">
+        <v>268</v>
+      </c>
       <c r="J37" s="29"/>
       <c r="K37" s="29"/>
       <c r="L37" s="29"/>
       <c r="M37" s="29"/>
       <c r="N37" s="29"/>
-    </row>
-    <row r="38" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+    </row>
+    <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="C38" s="8" t="s">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>135</v>
+        <v>219</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="F38" s="31" t="s">
-        <v>196</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="F38" s="31"/>
       <c r="G38" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="H38" s="31"/>
+        <v>246</v>
+      </c>
+      <c r="H38" s="31" t="s">
+        <v>18</v>
+      </c>
       <c r="I38" s="29"/>
       <c r="J38" s="29"/>
       <c r="K38" s="29"/>
       <c r="L38" s="29"/>
       <c r="M38" s="29"/>
       <c r="N38" s="29"/>
-    </row>
-    <row r="39" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+    </row>
+    <row r="39" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
-      <c r="B39" s="27"/>
+      <c r="B39" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="C39" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E39" s="27" t="s">
         <v>143</v>
       </c>
       <c r="F39" s="31" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="H39" s="31"/>
-      <c r="I39" s="29"/>
+        <v>247</v>
+      </c>
+      <c r="H39" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="20" t="s">
+        <v>422</v>
+      </c>
       <c r="J39" s="29"/>
       <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
+      <c r="L39" s="29" t="s">
+        <v>283</v>
+      </c>
       <c r="M39" s="29"/>
       <c r="N39" s="29"/>
-    </row>
-    <row r="40" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+    </row>
+    <row r="40" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="27"/>
       <c r="C40" s="8" t="s">
-        <v>195</v>
+        <v>16</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>221</v>
+        <v>136</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>194</v>
+        <v>143</v>
       </c>
       <c r="F40" s="31" t="s">
-        <v>259</v>
+        <v>152</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="H40" s="31"/>
+        <v>248</v>
+      </c>
+      <c r="H40" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="I40" s="29"/>
       <c r="J40" s="29"/>
       <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
+      <c r="L40" s="29" t="s">
+        <v>283</v>
+      </c>
       <c r="M40" s="29"/>
       <c r="N40" s="29"/>
-    </row>
-    <row r="41" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="29"/>
+    </row>
+    <row r="41" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="27"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="31"/>
+      <c r="C41" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>424</v>
+      </c>
       <c r="E41" s="27"/>
       <c r="F41" s="31"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="31"/>
+      <c r="G41" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="H41" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="I41" s="29"/>
       <c r="J41" s="29"/>
       <c r="K41" s="29"/>
       <c r="L41" s="29"/>
       <c r="M41" s="29"/>
       <c r="N41" s="29"/>
-    </row>
-    <row r="42" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A42" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42" s="8"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="31"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+    </row>
+    <row r="42" spans="1:18" ht="17" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="F42" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="G42" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="H42" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="I42" s="29"/>
       <c r="J42" s="29"/>
       <c r="K42" s="29"/>
       <c r="L42" s="29"/>
       <c r="M42" s="29"/>
       <c r="N42" s="29"/>
-    </row>
-    <row r="43" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+    </row>
+    <row r="43" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
-      <c r="B43" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>16</v>
+      <c r="B43" s="27"/>
+      <c r="C43" s="8" t="s">
+        <v>277</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>115</v>
+        <v>279</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>278</v>
       </c>
       <c r="F43" s="31" t="s">
-        <v>159</v>
+        <v>263</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="H43" s="31"/>
-      <c r="I43" s="29"/>
+        <v>280</v>
+      </c>
+      <c r="H43" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
+      <c r="K43" s="29" t="s">
+        <v>268</v>
+      </c>
       <c r="L43" s="29"/>
       <c r="M43" s="29"/>
       <c r="N43" s="29"/>
-    </row>
-    <row r="44" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="F44" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="G44" s="27" t="s">
-        <v>233</v>
-      </c>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+    </row>
+    <row r="44" spans="1:18" ht="17" x14ac:dyDescent="0.25">
+      <c r="A44" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="27"/>
       <c r="H44" s="31"/>
       <c r="I44" s="29"/>
       <c r="J44" s="29"/>
@@ -3808,317 +5093,415 @@
       <c r="L44" s="29"/>
       <c r="M44" s="29"/>
       <c r="N44" s="29"/>
-    </row>
-    <row r="45" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+    </row>
+    <row r="45" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
-      <c r="B45" s="27"/>
+      <c r="B45" s="27" t="s">
+        <v>173</v>
+      </c>
       <c r="C45" s="25" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>115</v>
       </c>
       <c r="F45" s="31" t="s">
-        <v>257</v>
+        <v>159</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="H45" s="31"/>
+        <v>231</v>
+      </c>
+      <c r="H45" s="31" t="s">
+        <v>268</v>
+      </c>
       <c r="I45" s="29"/>
       <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
+      <c r="K45" s="29" t="s">
+        <v>268</v>
+      </c>
       <c r="L45" s="29"/>
       <c r="M45" s="29"/>
       <c r="N45" s="29"/>
-    </row>
-    <row r="46" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+    </row>
+    <row r="46" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
-      <c r="B46" s="27" t="s">
-        <v>174</v>
-      </c>
+      <c r="B46" s="27"/>
       <c r="C46" s="25" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="F46" s="31" t="s">
-        <v>260</v>
+        <v>151</v>
       </c>
       <c r="G46" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="H46" s="31"/>
+        <v>232</v>
+      </c>
+      <c r="H46" s="31" t="s">
+        <v>268</v>
+      </c>
       <c r="I46" s="29"/>
       <c r="J46" s="29"/>
       <c r="K46" s="29"/>
       <c r="L46" s="29"/>
       <c r="M46" s="29"/>
       <c r="N46" s="29"/>
-    </row>
-    <row r="47" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A47" s="32"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
+    </row>
+    <row r="47" spans="1:18" ht="17" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" s="27"/>
       <c r="C47" s="25" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F47" s="31" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G47" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="H47" s="31"/>
+        <v>233</v>
+      </c>
+      <c r="H47" s="31" t="s">
+        <v>268</v>
+      </c>
       <c r="I47" s="29"/>
       <c r="J47" s="29"/>
       <c r="K47" s="29"/>
       <c r="L47" s="29"/>
       <c r="M47" s="29"/>
       <c r="N47" s="29"/>
-    </row>
-    <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
+    </row>
+    <row r="48" spans="1:18" ht="17" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="27" t="s">
+        <v>174</v>
+      </c>
       <c r="C48" s="25" t="s">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="F48" s="31" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G48" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="H48" s="31"/>
+        <v>238</v>
+      </c>
+      <c r="H48" s="31" t="s">
+        <v>268</v>
+      </c>
       <c r="I48" s="29"/>
       <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
+      <c r="K48" s="29" t="s">
+        <v>274</v>
+      </c>
       <c r="L48" s="29"/>
       <c r="M48" s="29"/>
       <c r="N48" s="29"/>
-    </row>
-    <row r="49" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="27" t="s">
-        <v>21</v>
-      </c>
+      <c r="O48" s="29"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="29"/>
+    </row>
+    <row r="49" spans="1:18" ht="17" x14ac:dyDescent="0.25">
+      <c r="A49" s="32"/>
       <c r="C49" s="25" t="s">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F49" s="31" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="H49" s="31"/>
+        <v>235</v>
+      </c>
+      <c r="H49" s="31" t="s">
+        <v>268</v>
+      </c>
       <c r="I49" s="29"/>
       <c r="J49" s="29"/>
       <c r="K49" s="29"/>
       <c r="L49" s="29"/>
       <c r="M49" s="29"/>
       <c r="N49" s="29"/>
-    </row>
-    <row r="50" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="27"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="29"/>
+    </row>
+    <row r="50" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>113</v>
       </c>
       <c r="F50" s="31" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G50" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="H50" s="31"/>
+        <v>234</v>
+      </c>
+      <c r="H50" s="31" t="s">
+        <v>18</v>
+      </c>
       <c r="I50" s="29"/>
       <c r="J50" s="29"/>
       <c r="K50" s="29"/>
       <c r="L50" s="29"/>
       <c r="M50" s="29"/>
       <c r="N50" s="29"/>
-    </row>
-    <row r="51" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29"/>
+    </row>
+    <row r="51" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
-      <c r="B51" s="27"/>
+      <c r="B51" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="C51" s="25" t="s">
         <v>16</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F51" s="31" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G51" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="H51" s="31"/>
+        <v>236</v>
+      </c>
+      <c r="H51" s="31" t="s">
+        <v>268</v>
+      </c>
       <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
+      <c r="J51" s="29" t="s">
+        <v>268</v>
+      </c>
       <c r="K51" s="29"/>
       <c r="L51" s="29"/>
       <c r="M51" s="29"/>
       <c r="N51" s="29"/>
-    </row>
-    <row r="52" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O51" s="29"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="29"/>
+    </row>
+    <row r="52" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="27"/>
       <c r="C52" s="25" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="F52" s="31" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="G52" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="H52" s="31"/>
+        <v>237</v>
+      </c>
+      <c r="H52" s="31" t="s">
+        <v>268</v>
+      </c>
       <c r="I52" s="29"/>
       <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
+      <c r="K52" s="29" t="s">
+        <v>268</v>
+      </c>
       <c r="L52" s="29"/>
       <c r="M52" s="29"/>
       <c r="N52" s="29"/>
-    </row>
-    <row r="53" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="29"/>
+    </row>
+    <row r="53" spans="1:18" ht="17" x14ac:dyDescent="0.25">
+      <c r="A53" s="9"/>
+      <c r="B53" s="27"/>
       <c r="C53" s="25" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>172</v>
+        <v>109</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="F53" s="31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="H53" s="31"/>
+        <v>250</v>
+      </c>
+      <c r="H53" s="31" t="s">
+        <v>268</v>
+      </c>
       <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
+      <c r="J53" s="29" t="s">
+        <v>268</v>
+      </c>
       <c r="K53" s="29"/>
       <c r="L53" s="29"/>
       <c r="M53" s="29"/>
       <c r="N53" s="29"/>
-    </row>
-    <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="29"/>
+    </row>
+    <row r="54" spans="1:18" ht="17" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
+      <c r="B54" s="27"/>
       <c r="C54" s="25" t="s">
         <v>158</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F54" s="31" t="s">
-        <v>177</v>
+        <v>256</v>
       </c>
       <c r="G54" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="H54" s="31"/>
+      <c r="H54" s="31" t="s">
+        <v>268</v>
+      </c>
       <c r="I54" s="29"/>
       <c r="J54" s="29"/>
       <c r="K54" s="29"/>
       <c r="L54" s="29"/>
       <c r="M54" s="29"/>
       <c r="N54" s="29"/>
-    </row>
-    <row r="55" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="27"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="31"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="29"/>
+    </row>
+    <row r="55" spans="1:18" ht="17" x14ac:dyDescent="0.25">
+      <c r="C55" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F55" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="G55" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="H55" s="31" t="s">
+        <v>268</v>
+      </c>
       <c r="I55" s="29"/>
       <c r="J55" s="29"/>
       <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
+      <c r="L55" s="29" t="s">
+        <v>268</v>
+      </c>
       <c r="M55" s="29"/>
       <c r="N55" s="29"/>
-    </row>
-    <row r="56" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A56" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="31"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="29"/>
+    </row>
+    <row r="56" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F56" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="G56" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="H56" s="31" t="s">
+        <v>268</v>
+      </c>
       <c r="I56" s="29"/>
       <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
+      <c r="K56" s="29" t="s">
+        <v>276</v>
+      </c>
       <c r="L56" s="29"/>
       <c r="M56" s="29"/>
       <c r="N56" s="29"/>
-    </row>
-    <row r="57" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A57" s="32"/>
-      <c r="B57" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C57" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="E57" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="F57" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="G57" s="27" t="s">
-        <v>228</v>
-      </c>
+      <c r="O56" s="29"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="29"/>
+      <c r="R56" s="29"/>
+    </row>
+    <row r="57" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="27"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="27"/>
       <c r="H57" s="31"/>
       <c r="I57" s="29"/>
       <c r="J57" s="29"/>
@@ -4126,25 +5509,21 @@
       <c r="L57" s="29"/>
       <c r="M57" s="29"/>
       <c r="N57" s="29"/>
-    </row>
-    <row r="58" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A58" s="32"/>
+      <c r="O57" s="29"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="29"/>
+    </row>
+    <row r="58" spans="1:18" ht="17" x14ac:dyDescent="0.25">
+      <c r="A58" s="32" t="s">
+        <v>28</v>
+      </c>
       <c r="B58" s="14"/>
-      <c r="C58" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="E58" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="F58" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="G58" s="27" t="s">
-        <v>229</v>
-      </c>
+      <c r="C58" s="27"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="27"/>
       <c r="H58" s="31"/>
       <c r="I58" s="29"/>
       <c r="J58" s="29"/>
@@ -4152,127 +5531,188 @@
       <c r="L58" s="29"/>
       <c r="M58" s="29"/>
       <c r="N58" s="29"/>
-    </row>
-    <row r="59" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O58" s="29"/>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="29"/>
+      <c r="R58" s="29"/>
+    </row>
+    <row r="59" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A59" s="32"/>
+      <c r="B59" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="C59" s="27" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D59" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="F59" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="G59" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="E59" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="F59" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="G59" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="H59" s="31"/>
+      <c r="H59" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="I59" s="29"/>
       <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
+      <c r="K59" s="29" t="s">
+        <v>268</v>
+      </c>
       <c r="L59" s="29"/>
       <c r="M59" s="29"/>
       <c r="N59" s="29"/>
-    </row>
-    <row r="60" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O59" s="29"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="29"/>
+    </row>
+    <row r="60" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A60" s="32"/>
       <c r="B60" s="14"/>
       <c r="C60" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D60" s="31" t="s">
-        <v>132</v>
+        <v>179</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>225</v>
       </c>
       <c r="E60" s="27" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="F60" s="31" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="G60" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="H60" s="31"/>
+        <v>228</v>
+      </c>
+      <c r="H60" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="I60" s="29"/>
       <c r="J60" s="29"/>
       <c r="K60" s="29"/>
       <c r="L60" s="29"/>
       <c r="M60" s="29"/>
       <c r="N60" s="29"/>
-    </row>
-    <row r="61" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O60" s="29"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="29"/>
+    </row>
+    <row r="61" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A61" s="32"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="31"/>
+      <c r="C61" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="E61" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="F61" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="G61" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="H61" s="31" t="s">
+        <v>18</v>
+      </c>
       <c r="I61" s="29"/>
       <c r="J61" s="29"/>
       <c r="K61" s="29"/>
       <c r="L61" s="29"/>
       <c r="M61" s="29"/>
       <c r="N61" s="29"/>
-    </row>
-    <row r="62" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="C62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="31"/>
+      <c r="O61" s="29"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="29"/>
+      <c r="R61" s="29"/>
+    </row>
+    <row r="62" spans="1:18" ht="17" x14ac:dyDescent="0.25">
+      <c r="A62" s="32"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E62" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="F62" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="G62" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="H62" s="31" t="s">
+        <v>18</v>
+      </c>
       <c r="I62" s="29"/>
       <c r="J62" s="29"/>
       <c r="K62" s="29"/>
       <c r="L62" s="29"/>
       <c r="M62" s="29"/>
       <c r="N62" s="29"/>
-    </row>
-    <row r="63" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A63" s="17" t="s">
+      <c r="O62" s="29"/>
+      <c r="P62" s="29"/>
+      <c r="Q62" s="29"/>
+      <c r="R62" s="29"/>
+    </row>
+    <row r="63" spans="1:18" ht="17" x14ac:dyDescent="0.25">
+      <c r="A63" s="32"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="29"/>
+    </row>
+    <row r="64" spans="1:18" ht="17" x14ac:dyDescent="0.25">
+      <c r="C64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="29"/>
+      <c r="N64" s="29"/>
+    </row>
+    <row r="65" spans="1:13" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A65" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="23"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="30"/>
-    </row>
-    <row r="64" spans="1:14" s="27" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A64" s="18"/>
-      <c r="B64" s="19" t="s">
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="30"/>
+    </row>
+    <row r="66" spans="1:13" s="27" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A66" s="18"/>
+      <c r="B66" s="19" t="s">
         <v>31</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F64" s="16"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="16"/>
-    </row>
-    <row r="65" spans="1:9" s="27" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="B65" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F65" s="16"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="16"/>
-    </row>
-    <row r="66" spans="1:9" s="27" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A66" s="26"/>
-      <c r="B66" s="19" t="s">
-        <v>34</v>
       </c>
       <c r="D66" s="27" t="s">
         <v>32</v>
@@ -4281,94 +5721,91 @@
       <c r="H66" s="31"/>
       <c r="I66" s="16"/>
     </row>
-    <row r="67" spans="1:9" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B67" s="27" t="s">
-        <v>39</v>
+    <row r="67" spans="1:13" s="27" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="B67" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="F67" s="16"/>
       <c r="H67" s="31"/>
       <c r="I67" s="16"/>
     </row>
-    <row r="68" spans="1:9" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" s="27" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A68" s="26"/>
       <c r="B68" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="D68" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="F68" s="16"/>
       <c r="H68" s="31"/>
       <c r="I68" s="16"/>
     </row>
-    <row r="69" spans="1:9" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B69" s="19" t="s">
-        <v>37</v>
+    <row r="69" spans="1:13" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B69" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="F69" s="16"/>
-      <c r="G69" s="19"/>
       <c r="H69" s="31"/>
       <c r="I69" s="16"/>
     </row>
-    <row r="70" spans="1:9" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B70" s="14" t="s">
-        <v>38</v>
+    <row r="70" spans="1:13" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B70" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="F70" s="16"/>
-      <c r="G70" s="19"/>
       <c r="H70" s="31"/>
       <c r="I70" s="16"/>
     </row>
-    <row r="71" spans="1:9" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B71" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="F71" s="16"/>
       <c r="G71" s="19"/>
       <c r="H71" s="31"/>
       <c r="I71" s="16"/>
     </row>
-    <row r="72" spans="1:9" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B72" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D72" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="E72" s="27" t="s">
-        <v>182</v>
+    <row r="72" spans="1:13" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B72" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="19"/>
       <c r="H72" s="31"/>
       <c r="I72" s="16"/>
     </row>
-    <row r="73" spans="1:9" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B73" s="19"/>
-      <c r="C73" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="D73" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="E73" s="27" t="s">
-        <v>157</v>
-      </c>
+    <row r="73" spans="1:13" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="F73" s="16"/>
       <c r="G73" s="19"/>
       <c r="H73" s="31"/>
       <c r="I73" s="16"/>
     </row>
-    <row r="74" spans="1:9" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B74" s="19"/>
-      <c r="D74" s="31" t="s">
-        <v>117</v>
+    <row r="74" spans="1:13" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B74" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D74" s="27" t="s">
+        <v>181</v>
       </c>
       <c r="E74" s="27" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="F74" s="16"/>
       <c r="G74" s="19"/>
       <c r="H74" s="31"/>
       <c r="I74" s="16"/>
     </row>
-    <row r="75" spans="1:9" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B75" s="19"/>
+      <c r="C75" s="27" t="s">
+        <v>180</v>
+      </c>
       <c r="D75" s="31" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E75" s="27" t="s">
         <v>157</v>
@@ -4378,10 +5815,10 @@
       <c r="H75" s="31"/>
       <c r="I75" s="16"/>
     </row>
-    <row r="76" spans="1:9" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B76" s="19"/>
       <c r="D76" s="31" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E76" s="27" t="s">
         <v>157</v>
@@ -4391,34 +5828,48 @@
       <c r="H76" s="31"/>
       <c r="I76" s="16"/>
     </row>
-    <row r="77" spans="1:9" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B77" s="19"/>
+      <c r="D77" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E77" s="27" t="s">
+        <v>157</v>
+      </c>
       <c r="F77" s="16"/>
       <c r="G77" s="19"/>
       <c r="H77" s="31"/>
       <c r="I77" s="16"/>
     </row>
-    <row r="78" spans="1:9" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B78" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D78" s="27" t="s">
-        <v>192</v>
+    <row r="78" spans="1:13" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B78" s="19"/>
+      <c r="D78" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E78" s="27" t="s">
+        <v>157</v>
       </c>
       <c r="F78" s="16"/>
       <c r="G78" s="19"/>
       <c r="H78" s="31"/>
       <c r="I78" s="16"/>
     </row>
-    <row r="79" spans="1:9" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B79" s="27" t="s">
-        <v>1</v>
-      </c>
+    <row r="79" spans="1:13" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="F79" s="16"/>
       <c r="G79" s="19"/>
       <c r="H79" s="31"/>
       <c r="I79" s="16"/>
     </row>
-    <row r="80" spans="1:9" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B80" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="E80" s="27" t="s">
+        <v>287</v>
+      </c>
       <c r="F80" s="16"/>
       <c r="G80" s="19"/>
       <c r="H80" s="31"/>
@@ -4426,10 +5877,7 @@
     </row>
     <row r="81" spans="2:9" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B81" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D81" s="27" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="F81" s="16"/>
       <c r="G81" s="19"/>
@@ -4437,105 +5885,85 @@
       <c r="I81" s="16"/>
     </row>
     <row r="82" spans="2:9" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="D82" s="27" t="s">
-        <v>104</v>
-      </c>
       <c r="F82" s="16"/>
-      <c r="G82" s="20"/>
+      <c r="G82" s="19"/>
       <c r="H82" s="31"/>
       <c r="I82" s="16"/>
     </row>
     <row r="83" spans="2:9" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B83" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="D83" s="27" t="s">
+        <v>105</v>
       </c>
       <c r="F83" s="16"/>
-      <c r="G83" s="20"/>
+      <c r="G83" s="19"/>
       <c r="H83" s="31"/>
       <c r="I83" s="16"/>
     </row>
     <row r="84" spans="2:9" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="D84" s="27" t="s">
+        <v>104</v>
+      </c>
       <c r="F84" s="16"/>
       <c r="G84" s="20"/>
       <c r="H84" s="31"/>
-      <c r="I84" s="24"/>
+      <c r="I84" s="16"/>
     </row>
     <row r="85" spans="2:9" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B85" s="21" t="s">
+      <c r="B85" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F85" s="16"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="31"/>
+      <c r="I85" s="16"/>
+    </row>
+    <row r="86" spans="2:9" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="F86" s="16"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="31"/>
+      <c r="I86" s="24"/>
+    </row>
+    <row r="87" spans="2:9" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B87" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C85" s="21" t="s">
+      <c r="C87" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D85" s="21" t="s">
+      <c r="D87" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E85" s="22" t="s">
+      <c r="E87" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F85" s="22" t="s">
+      <c r="F87" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G85" s="50" t="s">
+      <c r="G87" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="H85" s="21" t="s">
+      <c r="H87" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="I85" s="21" t="s">
+      <c r="I87" s="21" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B86" s="33"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="E86" s="33"/>
-      <c r="F86" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="G86" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="H86" s="33"/>
-      <c r="I86" s="34" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B87" s="33"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="G87" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="H87" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="I87" s="34" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="88" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B88" s="33"/>
       <c r="C88" s="33"/>
       <c r="D88" s="33" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E88" s="33"/>
       <c r="F88" s="35" t="s">
         <v>102</v>
       </c>
       <c r="G88" s="34" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H88" s="33"/>
       <c r="I88" s="34" t="s">
@@ -4546,25 +5974,27 @@
       <c r="B89" s="33"/>
       <c r="C89" s="33"/>
       <c r="D89" s="33" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E89" s="33"/>
-      <c r="F89" s="35" t="s">
-        <v>102</v>
+      <c r="F89" s="33" t="s">
+        <v>89</v>
       </c>
       <c r="G89" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="H89" s="33"/>
+        <v>90</v>
+      </c>
+      <c r="H89" s="33" t="s">
+        <v>183</v>
+      </c>
       <c r="I89" s="34" t="s">
-        <v>101</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B90" s="33"/>
       <c r="C90" s="33"/>
       <c r="D90" s="33" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E90" s="33"/>
       <c r="F90" s="35" t="s">
@@ -4579,10 +6009,10 @@
       </c>
     </row>
     <row r="91" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B91" s="34"/>
+      <c r="B91" s="33"/>
       <c r="C91" s="33"/>
       <c r="D91" s="33" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E91" s="33"/>
       <c r="F91" s="35" t="s">
@@ -4593,112 +6023,128 @@
       </c>
       <c r="H91" s="33"/>
       <c r="I91" s="34" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B92" s="33"/>
       <c r="C92" s="33"/>
       <c r="D92" s="33" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E92" s="33"/>
       <c r="F92" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G92" s="34" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H92" s="33"/>
-      <c r="I92" s="34"/>
+      <c r="I92" s="34" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="93" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B93" s="33"/>
+      <c r="B93" s="34"/>
       <c r="C93" s="33"/>
       <c r="D93" s="33" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E93" s="33"/>
       <c r="F93" s="35" t="s">
-        <v>186</v>
+        <v>102</v>
       </c>
       <c r="G93" s="34" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H93" s="33"/>
       <c r="I93" s="34" t="s">
-        <v>185</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B94" s="33"/>
       <c r="C94" s="33"/>
       <c r="D94" s="33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E94" s="33"/>
       <c r="F94" s="35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G94" s="34" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H94" s="33"/>
-      <c r="I94" s="34" t="s">
-        <v>189</v>
-      </c>
+      <c r="I94" s="34"/>
     </row>
     <row r="95" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B95" s="33"/>
       <c r="C95" s="33"/>
       <c r="D95" s="33" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E95" s="33"/>
       <c r="F95" s="35" t="s">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c r="G95" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="H95" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="I95" s="34"/>
+        <v>90</v>
+      </c>
+      <c r="H95" s="33"/>
+      <c r="I95" s="34" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="96" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B96" s="33"/>
       <c r="C96" s="33"/>
       <c r="D96" s="33" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
       <c r="E96" s="33"/>
-      <c r="F96" s="33" t="s">
-        <v>190</v>
+      <c r="F96" s="35" t="s">
+        <v>102</v>
       </c>
       <c r="G96" s="34" t="s">
-        <v>191</v>
+        <v>90</v>
       </c>
       <c r="H96" s="33"/>
-      <c r="I96" s="34"/>
+      <c r="I96" s="34" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="97" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B97" s="33"/>
       <c r="C97" s="33"/>
-      <c r="D97" s="33"/>
+      <c r="D97" s="33" t="s">
+        <v>83</v>
+      </c>
       <c r="E97" s="33"/>
-      <c r="F97" s="33"/>
-      <c r="G97" s="34"/>
-      <c r="H97" s="33"/>
+      <c r="F97" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="G97" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="H97" s="33" t="s">
+        <v>85</v>
+      </c>
       <c r="I97" s="34"/>
     </row>
     <row r="98" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B98" s="33"/>
       <c r="C98" s="33"/>
-      <c r="D98" s="33"/>
+      <c r="D98" s="33" t="s">
+        <v>192</v>
+      </c>
       <c r="E98" s="33"/>
-      <c r="F98" s="33"/>
-      <c r="G98" s="34"/>
+      <c r="F98" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="G98" s="34" t="s">
+        <v>191</v>
+      </c>
       <c r="H98" s="33"/>
       <c r="I98" s="34"/>
     </row>
@@ -4732,65 +6178,110 @@
       <c r="H101" s="33"/>
       <c r="I101" s="34"/>
     </row>
+    <row r="102" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="B102" s="33"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="33"/>
+      <c r="G102" s="34"/>
+      <c r="H102" s="33"/>
+      <c r="I102" s="34"/>
+    </row>
+    <row r="103" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="B103" s="33"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
+      <c r="E103" s="33"/>
+      <c r="F103" s="33"/>
+      <c r="G103" s="34"/>
+      <c r="H103" s="33"/>
+      <c r="I103" s="34"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="C71:F72 J89:XFD91 E81:F81 E82:XFD82 A81:D82 I89:I90 B78:B80 A89:H91 A92:XFD92 B8:B18 C3:E11 C11:F11 F14:F17 C12:C15 A67:D68 B69:D70 F67:F70 C73:C76 C36 A42:C42 F8:F12 E73:F76 E31:E32 C37:E37 B38:E41 E36 E42 A49:E53 A43:E46 A47:A48 A54 C47:E48 C54:E54 A63:F66 A62:C62 F62 B72:B76 A69:A80 C77:F80 G69:XFD81 A83:XFD88 A94:XFD1048576 A93:H93 J93:XFD93 A55:F56 A1:XFD7 G8:XFD11 G12:G17 G19:G21 B32:C32 C31 H12:XFD23 R24:XFD24 B21:B28 G26:XFD28 C18:E27 B29:E30 A8:A41 H25:XFD25 H29:XFD68 B33:E35 A61:F61 A57:E60">
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
+  <conditionalFormatting sqref="C73:F74 J91:XFD93 E83:F83 E84:XFD84 A83:D84 I91:I92 B80:B82 A91:H93 A94:XFD94 B8:B18 C3:E11 C11:F11 F14:F17 C12:C15 A69:D70 B71:D72 F69:F72 C75:C78 C37 A44:C44 F8:F12 E75:F78 E31:E33 C38:E38 B39:E40 E37 E44 A51:E55 A45:E48 A49:A50 A56 C49:E50 C56:E56 A65:F68 A64:C64 F64 B74:B78 A71:A82 C79:F82 G71:XFD83 A85:XFD90 A96:XFD1048576 A95:H95 J95:XFD95 A57:F58 G19:G21 B32:C33 C31 B21:B28 G26:H28 C18:E27 B29:E30 A8:A43 H25 H63:XFD70 B34:E36 A63:F63 A59:E62 J8:XFD11 S20:XFD62 J43:K43 L31:R31 J31 A1:XFD7 G8:H10 G11:G17 I12:XFD16 H11:H16 H17:XFD19 H19:H23 B42:E43 E41 B41:C41 H29:H62">
+    <cfRule type="cellIs" dxfId="52" priority="33" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="17" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D73:D76">
-    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
+  <conditionalFormatting sqref="D75:D78">
+    <cfRule type="cellIs" dxfId="50" priority="16" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D32">
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+  <conditionalFormatting sqref="D31:D33">
+    <cfRule type="cellIs" dxfId="49" priority="14" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="13" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="12" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="11" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="10" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29:G68">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+  <conditionalFormatting sqref="G29:G70">
+    <cfRule type="cellIs" dxfId="44" priority="9" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18:F33">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+  <conditionalFormatting sqref="F18:F34">
+    <cfRule type="cellIs" dxfId="43" priority="8" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34:F54">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+  <conditionalFormatting sqref="F35:F56">
+    <cfRule type="cellIs" dxfId="42" priority="7" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F57:F60">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="F59:F62">
+    <cfRule type="cellIs" dxfId="41" priority="6" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:R62 L43:R43 I20:R30 I31 I32:R34 I37:R38 J35:R36 I40:R42 J39:R39">
+    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:I36">
+    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4803,25 +6294,25 @@
           <x14:formula1>
             <xm:f>附录!$G$3:$G$5</xm:f>
           </x14:formula1>
-          <xm:sqref>H94:H1048576 H59 H1:H23 H25:H57</xm:sqref>
+          <xm:sqref>H96:H1048576 H1:H62</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>附录!$A$3:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C94:C1048576 C59 C29:C57 C1:C27</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>附录!$E$3:$E$24</xm:f>
-          </x14:formula1>
-          <xm:sqref>B94:B1048576 B38 B59 B49:B53 B42:B46 B55:B57 B1:B30 B32:B36</xm:sqref>
+          <xm:sqref>C96:C1048576 C61 C1:C27 C29:C59</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>附录!$I$3:$I$17</xm:f>
           </x14:formula1>
-          <xm:sqref>F1:F20 F59 F29:F57 F22:F27</xm:sqref>
+          <xm:sqref>F1:F20 F29:F61 F22:F27</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$E$3:$E$26</xm:f>
+          </x14:formula1>
+          <xm:sqref>B96:B1048576 B32:B37 B1:B30 B57:B59 B44:B48 B51:B55 B61 B39</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4831,10 +6322,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N82"/>
+  <dimension ref="A1:N106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
@@ -4895,13 +6386,25 @@
       <c r="A2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="37"/>
+      <c r="B2" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="H2" s="20"/>
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
       <c r="K2" s="19"/>
@@ -4911,17 +6414,23 @@
     </row>
     <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
-      <c r="B3" s="20" t="s">
-        <v>21</v>
-      </c>
+      <c r="B3" s="38"/>
       <c r="C3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="37"/>
+      <c r="D3" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="H3" s="20"/>
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
       <c r="K3" s="19"/>
@@ -4935,11 +6444,19 @@
       <c r="C4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="37"/>
+      <c r="D4" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="H4" s="20"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
       <c r="K4" s="19"/>
@@ -4953,11 +6470,19 @@
       <c r="C5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="37"/>
+      <c r="D5" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="H5" s="20"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
@@ -4971,11 +6496,19 @@
       <c r="C6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="37"/>
+      <c r="D6" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>408</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="H6" s="20"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
@@ -4986,14 +6519,11 @@
     <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="B7" s="38"/>
-      <c r="C7" s="20" t="s">
-        <v>16</v>
-      </c>
+      <c r="C7" s="20"/>
       <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="37"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
@@ -5003,15 +6533,25 @@
     </row>
     <row r="8" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
-      <c r="B8" s="38"/>
+      <c r="B8" s="38" t="s">
+        <v>312</v>
+      </c>
       <c r="C8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="37"/>
+      <c r="D8" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="H8" s="20"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
@@ -5025,11 +6565,19 @@
       <c r="C9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="37"/>
+      <c r="D9" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="H9" s="20"/>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
@@ -5043,11 +6591,19 @@
       <c r="C10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="37"/>
+      <c r="D10" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>306</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="H10" s="20"/>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
@@ -5061,11 +6617,19 @@
       <c r="C11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="37"/>
+      <c r="D11" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>310</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="H11" s="20"/>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
@@ -5076,14 +6640,12 @@
     <row r="12" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="38"/>
-      <c r="C12" s="20" t="s">
-        <v>16</v>
-      </c>
+      <c r="C12" s="20"/>
       <c r="D12" s="37"/>
       <c r="E12" s="38"/>
       <c r="F12" s="37"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="37"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
@@ -5093,15 +6655,27 @@
     </row>
     <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A13" s="36"/>
-      <c r="B13" s="38"/>
+      <c r="B13" s="38" t="s">
+        <v>19</v>
+      </c>
       <c r="C13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="37"/>
+      <c r="D13" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>315</v>
+      </c>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
@@ -5112,14 +6686,24 @@
     <row r="14" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="38"/>
-      <c r="C14" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="37"/>
+      <c r="C14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>315</v>
+      </c>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
@@ -5131,13 +6715,23 @@
       <c r="A15" s="36"/>
       <c r="B15" s="38"/>
       <c r="C15" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="37"/>
+        <v>16</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>315</v>
+      </c>
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
@@ -5147,13 +6741,23 @@
     </row>
     <row r="16" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="37"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="H16" s="20"/>
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
@@ -5162,13 +6766,14 @@
       <c r="N16" s="19"/>
     </row>
     <row r="17" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="A17" s="36"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
       <c r="F17" s="37"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="37"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
@@ -5177,16 +6782,26 @@
       <c r="N17" s="19"/>
     </row>
     <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="20"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="37"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>333</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="H18" s="20"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
@@ -5195,14 +6810,24 @@
       <c r="N18" s="19"/>
     </row>
     <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="20"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="37"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>333</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="H19" s="20"/>
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
@@ -5211,14 +6836,14 @@
       <c r="N19" s="19"/>
     </row>
     <row r="20" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="41" t="s">
-        <v>16</v>
-      </c>
+      <c r="A20" s="36"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="37"/>
-      <c r="E20" s="20"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="17"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
@@ -5227,14 +6852,28 @@
       <c r="N20" s="19"/>
     </row>
     <row r="21" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
-      <c r="C21" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="20"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="37"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>333</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>323</v>
+      </c>
       <c r="I21" s="19"/>
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
@@ -5243,14 +6882,26 @@
       <c r="N21" s="19"/>
     </row>
     <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-      <c r="C22" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="20"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="37"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>325</v>
+      </c>
       <c r="I22" s="19"/>
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
@@ -5259,13 +6910,10 @@
       <c r="N22" s="19"/>
     </row>
     <row r="23" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="B23" s="7"/>
-      <c r="C23" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="20"/>
-      <c r="G23" s="17"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="25"/>
+      <c r="G23" s="19"/>
       <c r="H23" s="37"/>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
@@ -5275,15 +6923,29 @@
       <c r="N23" s="19"/>
     </row>
     <row r="24" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="37"/>
-      <c r="G24" s="17"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>327</v>
+      </c>
       <c r="H24" s="37"/>
-      <c r="I24" s="19"/>
+      <c r="I24" s="19" t="s">
+        <v>268</v>
+      </c>
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
@@ -5291,16 +6953,19 @@
       <c r="N24" s="19"/>
     </row>
     <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="20"/>
-      <c r="G25" s="17"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="F25" s="37"/>
+      <c r="G25" s="19"/>
       <c r="H25" s="37"/>
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
@@ -5310,14 +6975,23 @@
       <c r="N25" s="19"/>
     </row>
     <row r="26" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="20"/>
-      <c r="G26" s="17"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>329</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>330</v>
+      </c>
       <c r="H26" s="37"/>
       <c r="I26" s="19"/>
       <c r="J26" s="19"/>
@@ -5327,14 +7001,23 @@
       <c r="N26" s="19"/>
     </row>
     <row r="27" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="20"/>
-      <c r="G27" s="17"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>329</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>331</v>
+      </c>
       <c r="H27" s="37"/>
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
@@ -5344,13 +7027,23 @@
       <c r="N27" s="19"/>
     </row>
     <row r="28" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
-      <c r="C28" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="20"/>
-      <c r="G28" s="17"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>329</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>332</v>
+      </c>
       <c r="H28" s="37"/>
       <c r="I28" s="19"/>
       <c r="J28" s="19"/>
@@ -5360,10 +7053,13 @@
       <c r="N28" s="19"/>
     </row>
     <row r="29" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="C29" s="41"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="37"/>
-      <c r="G29" s="17"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="19"/>
       <c r="H29" s="37"/>
       <c r="I29" s="19"/>
       <c r="J29" s="19"/>
@@ -5374,11 +7070,11 @@
     </row>
     <row r="30" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="41"/>
+        <v>23</v>
+      </c>
       <c r="D30" s="37"/>
-      <c r="G30" s="17"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="19"/>
       <c r="H30" s="37"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
@@ -5388,16 +7084,24 @@
       <c r="N30" s="19"/>
     </row>
     <row r="31" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="B31" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="17"/>
+      <c r="B31" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>213</v>
+      </c>
       <c r="H31" s="37"/>
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
@@ -5407,15 +7111,22 @@
       <c r="N31" s="19"/>
     </row>
     <row r="32" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="17"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="F32" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>346</v>
+      </c>
       <c r="H32" s="37"/>
       <c r="I32" s="19"/>
       <c r="J32" s="19"/>
@@ -5425,15 +7136,22 @@
       <c r="N32" s="19"/>
     </row>
     <row r="33" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="17"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>348</v>
+      </c>
       <c r="H33" s="37"/>
       <c r="I33" s="19"/>
       <c r="J33" s="19"/>
@@ -5443,15 +7161,22 @@
       <c r="N33" s="19"/>
     </row>
     <row r="34" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="17"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>416</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>419</v>
+      </c>
       <c r="H34" s="37"/>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
@@ -5461,15 +7186,22 @@
       <c r="N34" s="19"/>
     </row>
     <row r="35" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="37"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="17"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>417</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>418</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>420</v>
+      </c>
       <c r="H35" s="37"/>
       <c r="I35" s="19"/>
       <c r="J35" s="19"/>
@@ -5479,17 +7211,22 @@
       <c r="N35" s="19"/>
     </row>
     <row r="36" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
-      <c r="B36" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="37"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="17"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>350</v>
+      </c>
       <c r="H36" s="37"/>
       <c r="I36" s="19"/>
       <c r="J36" s="19"/>
@@ -5499,15 +7236,22 @@
       <c r="N36" s="19"/>
     </row>
     <row r="37" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="37"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="17"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>352</v>
+      </c>
       <c r="H37" s="37"/>
       <c r="I37" s="19"/>
       <c r="J37" s="19"/>
@@ -5517,15 +7261,12 @@
       <c r="N37" s="19"/>
     </row>
     <row r="38" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="25" t="s">
-        <v>20</v>
-      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="41"/>
       <c r="D38" s="37"/>
       <c r="E38" s="20"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="17"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="19"/>
       <c r="H38" s="37"/>
       <c r="I38" s="19"/>
       <c r="J38" s="19"/>
@@ -5536,16 +7277,28 @@
     </row>
     <row r="39" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A39" s="39"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="17"/>
+      <c r="B39" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>355</v>
+      </c>
       <c r="H39" s="37"/>
-      <c r="I39" s="19"/>
+      <c r="I39" s="19" t="s">
+        <v>268</v>
+      </c>
       <c r="J39" s="19"/>
       <c r="K39" s="19"/>
       <c r="L39" s="19"/>
@@ -5553,10 +7306,23 @@
       <c r="N39" s="19"/>
     </row>
     <row r="40" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="C40" s="25"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="46"/>
-      <c r="G40" s="17"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>245</v>
+      </c>
       <c r="H40" s="37"/>
       <c r="I40" s="19"/>
       <c r="J40" s="19"/>
@@ -5566,15 +7332,23 @@
       <c r="N40" s="19"/>
     </row>
     <row r="41" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A41" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" s="47"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="17"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>357</v>
+      </c>
       <c r="H41" s="37"/>
       <c r="I41" s="19"/>
       <c r="J41" s="19"/>
@@ -5585,15 +7359,22 @@
     </row>
     <row r="42" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A42" s="39"/>
-      <c r="B42" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="37"/>
-      <c r="E42" s="20"/>
-      <c r="G42" s="17"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>428</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="F42" s="37" t="s">
+        <v>418</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>426</v>
+      </c>
       <c r="H42" s="37"/>
       <c r="I42" s="19"/>
       <c r="J42" s="19"/>
@@ -5604,13 +7385,12 @@
     </row>
     <row r="43" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A43" s="39"/>
-      <c r="C43" s="20" t="s">
-        <v>16</v>
-      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="41"/>
       <c r="D43" s="37"/>
       <c r="E43" s="20"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="17"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="19"/>
       <c r="H43" s="37"/>
       <c r="I43" s="19"/>
       <c r="J43" s="19"/>
@@ -5620,17 +7400,31 @@
       <c r="N43" s="19"/>
     </row>
     <row r="44" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="37"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="19"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>358</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="F44" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="H44" s="37" t="s">
+        <v>414</v>
+      </c>
+      <c r="I44" s="20" t="s">
+        <v>415</v>
+      </c>
       <c r="J44" s="19"/>
       <c r="K44" s="19"/>
       <c r="L44" s="19"/>
@@ -5638,15 +7432,11 @@
       <c r="N44" s="19"/>
     </row>
     <row r="45" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="20" t="s">
-        <v>20</v>
-      </c>
+      <c r="A45" s="42"/>
+      <c r="C45" s="41"/>
       <c r="D45" s="37"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="17"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="19"/>
       <c r="H45" s="37"/>
       <c r="I45" s="19"/>
       <c r="J45" s="19"/>
@@ -5656,10 +7446,12 @@
       <c r="N45" s="19"/>
     </row>
     <row r="46" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="G46" s="17"/>
+      <c r="A46" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="41"/>
+      <c r="D46" s="37"/>
+      <c r="G46" s="19"/>
       <c r="H46" s="37"/>
       <c r="I46" s="19"/>
       <c r="J46" s="19"/>
@@ -5668,605 +7460,1412 @@
       <c r="M46" s="19"/>
       <c r="N46" s="19"/>
     </row>
-    <row r="47" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
+    <row r="47" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="B47" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="E47" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="F47" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="H47" s="37"/>
+      <c r="I47" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+    </row>
+    <row r="48" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A48" s="39"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="E48" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="F48" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="H48" s="37"/>
+      <c r="I48" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+    </row>
+    <row r="49" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A49" s="42"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>363</v>
+      </c>
+      <c r="E49" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="F49" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="H49" s="37"/>
+      <c r="I49" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+    </row>
+    <row r="50" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A50" s="42"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="E50" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="F50" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="H50" s="37"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+    </row>
+    <row r="51" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A51" s="42"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E51" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="F51" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="G51" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="H51" s="37"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+    </row>
+    <row r="52" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A52" s="42"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="E52" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="F52" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="G52" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="H52" s="37"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+    </row>
+    <row r="53" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A53" s="42"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+    </row>
+    <row r="54" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A54" s="42"/>
+      <c r="B54" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="E54" s="44" t="s">
+        <v>369</v>
+      </c>
+      <c r="F54" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="H54" s="37"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+    </row>
+    <row r="55" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A55" s="39"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="37" t="s">
+        <v>374</v>
+      </c>
+      <c r="E55" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="G55" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="H55" s="37"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+    </row>
+    <row r="56" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A56" s="39"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="37" t="s">
+        <v>379</v>
+      </c>
+      <c r="E56" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="F56" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="G56" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="H56" s="37"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+    </row>
+    <row r="57" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A57" s="42"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="37" t="s">
+        <v>371</v>
+      </c>
+      <c r="E57" s="44" t="s">
+        <v>372</v>
+      </c>
+      <c r="F57" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="G57" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="H57" s="37"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+    </row>
+    <row r="58" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A58" s="39"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="37" t="s">
+        <v>376</v>
+      </c>
+      <c r="E58" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="G58" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="H58" s="37"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+    </row>
+    <row r="59" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A59" s="39"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="37" t="s">
+        <v>378</v>
+      </c>
+      <c r="E59" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="F59" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="G59" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="H59" s="37"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+    </row>
+    <row r="60" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A60" s="39"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="G60" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="H60" s="37"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+    </row>
+    <row r="61" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A61" s="39"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+    </row>
+    <row r="62" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A62" s="39"/>
+      <c r="B62" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F62" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="G62" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="H62" s="37"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+    </row>
+    <row r="63" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A63" s="39"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+    </row>
+    <row r="64" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A64" s="39"/>
+      <c r="B64" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="E64" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="F64" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="G64" s="19"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+    </row>
+    <row r="65" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="C65" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="F65" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="G65" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="H65" s="37"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+    </row>
+    <row r="66" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A66" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="47"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="19"/>
+    </row>
+    <row r="67" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A67" s="39"/>
+      <c r="B67" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="E67" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="F67" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="G67" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="H67" s="37"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+    </row>
+    <row r="68" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A68" s="39"/>
+      <c r="C68" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="E68" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="F68" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="G68" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="H68" s="37"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="19"/>
+    </row>
+    <row r="69" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A69" s="39"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="37" t="s">
+        <v>393</v>
+      </c>
+      <c r="E69" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="F69" s="37"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+    </row>
+    <row r="70" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A70" s="39"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="E70" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="F70" s="48"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+    </row>
+    <row r="71" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="19"/>
+    </row>
+    <row r="72" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A72" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="20"/>
-    </row>
-    <row r="48" spans="1:14" s="27" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
-      <c r="B48" s="19" t="s">
+      <c r="B72" s="20"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="40"/>
+      <c r="J72" s="40"/>
+      <c r="K72" s="40"/>
+      <c r="L72" s="40"/>
+      <c r="M72" s="40"/>
+      <c r="N72" s="20"/>
+    </row>
+    <row r="73" spans="1:14" s="27" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A73" s="36"/>
+      <c r="B73" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20" t="s">
+      <c r="C73" s="20"/>
+      <c r="D73" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-    </row>
-    <row r="49" spans="1:14" s="27" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
-      <c r="B49" s="19" t="s">
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="20"/>
+      <c r="M73" s="20"/>
+      <c r="N73" s="20"/>
+    </row>
+    <row r="74" spans="1:14" s="27" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A74" s="20"/>
+      <c r="B74" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20" t="s">
+      <c r="C74" s="20"/>
+      <c r="D74" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-    </row>
-    <row r="50" spans="1:14" s="27" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
-      <c r="B50" s="19" t="s">
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="20"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="20"/>
+      <c r="N74" s="20"/>
+    </row>
+    <row r="75" spans="1:14" s="27" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A75" s="36"/>
+      <c r="B75" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20" t="s">
+      <c r="C75" s="20"/>
+      <c r="D75" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
-    </row>
-    <row r="51" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20" t="s">
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="20"/>
+      <c r="K75" s="20"/>
+      <c r="L75" s="20"/>
+      <c r="M75" s="20"/>
+      <c r="N75" s="20"/>
+    </row>
+    <row r="76" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A76" s="20"/>
+      <c r="B76" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-    </row>
-    <row r="52" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
-      <c r="B52" s="19" t="s">
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="20"/>
+      <c r="K76" s="20"/>
+      <c r="L76" s="20"/>
+      <c r="M76" s="20"/>
+      <c r="N76" s="20"/>
+    </row>
+    <row r="77" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A77" s="20"/>
+      <c r="B77" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-    </row>
-    <row r="53" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
-      <c r="B53" s="19" t="s">
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="37"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="20"/>
+      <c r="K77" s="20"/>
+      <c r="L77" s="20"/>
+      <c r="M77" s="20"/>
+      <c r="N77" s="20"/>
+    </row>
+    <row r="78" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A78" s="20"/>
+      <c r="B78" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-    </row>
-    <row r="54" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
-      <c r="B54" s="47" t="s">
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="20"/>
+      <c r="L78" s="20"/>
+      <c r="M78" s="20"/>
+      <c r="N78" s="20"/>
+    </row>
+    <row r="79" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A79" s="20"/>
+      <c r="B79" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-    </row>
-    <row r="55" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A55" s="20"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
-    </row>
-    <row r="56" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A56" s="20"/>
-      <c r="B56" s="19" t="s">
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="37"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="20"/>
+      <c r="L79" s="20"/>
+      <c r="M79" s="20"/>
+      <c r="N79" s="20"/>
+    </row>
+    <row r="80" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A80" s="20"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="37"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="20"/>
+      <c r="K80" s="20"/>
+      <c r="L80" s="20"/>
+      <c r="M80" s="20"/>
+      <c r="N80" s="20"/>
+    </row>
+    <row r="81" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A81" s="20"/>
+      <c r="B81" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="20"/>
-    </row>
-    <row r="57" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="20"/>
-    </row>
-    <row r="58" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A58" s="20"/>
-      <c r="B58" s="20" t="s">
+      <c r="C81" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="E81" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="F81" s="20"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="37"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="20"/>
+      <c r="L81" s="20"/>
+      <c r="M81" s="20"/>
+      <c r="N81" s="20"/>
+    </row>
+    <row r="82" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A82" s="20"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="F82" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="G82" s="19"/>
+      <c r="H82" s="37"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="20"/>
+      <c r="K82" s="20"/>
+      <c r="L82" s="20"/>
+      <c r="M82" s="20"/>
+      <c r="N82" s="20"/>
+    </row>
+    <row r="83" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A83" s="20"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="E83" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="F83" s="20"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20"/>
+      <c r="M83" s="20"/>
+      <c r="N83" s="20"/>
+    </row>
+    <row r="84" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A84" s="20"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="E84" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="F84" s="20"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="20"/>
+      <c r="K84" s="20"/>
+      <c r="L84" s="20"/>
+      <c r="M84" s="20"/>
+      <c r="N84" s="20"/>
+    </row>
+    <row r="85" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A85" s="20"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="E85" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="F85" s="20"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="20"/>
+      <c r="L85" s="20"/>
+      <c r="M85" s="20"/>
+      <c r="N85" s="20"/>
+    </row>
+    <row r="86" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A86" s="20"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="E86" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="F86" s="20"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="37"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="20"/>
+      <c r="K86" s="20"/>
+      <c r="L86" s="20"/>
+      <c r="M86" s="20"/>
+      <c r="N86" s="20"/>
+    </row>
+    <row r="87" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A87" s="20"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="37"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="20"/>
+      <c r="K87" s="20"/>
+      <c r="L87" s="20"/>
+      <c r="M87" s="20"/>
+      <c r="N87" s="20"/>
+    </row>
+    <row r="88" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A88" s="20"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="20"/>
+      <c r="K88" s="20"/>
+      <c r="L88" s="20"/>
+      <c r="M88" s="20"/>
+      <c r="N88" s="20"/>
+    </row>
+    <row r="89" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A89" s="20"/>
+      <c r="B89" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="20"/>
-      <c r="N58" s="20"/>
-    </row>
-    <row r="59" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A59" s="20"/>
-      <c r="B59" s="20" t="s">
+      <c r="C89" s="20"/>
+      <c r="D89" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="20"/>
+      <c r="K89" s="20"/>
+      <c r="L89" s="20"/>
+      <c r="M89" s="20"/>
+      <c r="N89" s="20"/>
+    </row>
+    <row r="90" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A90" s="20"/>
+      <c r="B90" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="20"/>
-    </row>
-    <row r="60" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="20"/>
-    </row>
-    <row r="61" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A61" s="20"/>
-      <c r="B61" s="20" t="s">
+      <c r="C90" s="20"/>
+      <c r="D90" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="37"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="20"/>
+      <c r="K90" s="20"/>
+      <c r="L90" s="20"/>
+      <c r="M90" s="20"/>
+      <c r="N90" s="20"/>
+    </row>
+    <row r="91" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A91" s="20"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="20"/>
+      <c r="K91" s="20"/>
+      <c r="L91" s="20"/>
+      <c r="M91" s="20"/>
+      <c r="N91" s="20"/>
+    </row>
+    <row r="92" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A92" s="20"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="E92" s="20"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="20"/>
+      <c r="K92" s="20"/>
+      <c r="L92" s="20"/>
+      <c r="M92" s="20"/>
+      <c r="N92" s="20"/>
+    </row>
+    <row r="93" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A93" s="20"/>
+      <c r="B93" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="20"/>
-      <c r="N61" s="20"/>
-    </row>
-    <row r="62" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A62" s="20"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="20"/>
-      <c r="L62" s="20"/>
-      <c r="M62" s="20"/>
-      <c r="N62" s="20"/>
-    </row>
-    <row r="63" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="20"/>
-      <c r="M63" s="20"/>
-      <c r="N63" s="20"/>
-    </row>
-    <row r="64" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A64" s="20"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="20"/>
-      <c r="L64" s="20"/>
-      <c r="M64" s="20"/>
-      <c r="N64" s="20"/>
-    </row>
-    <row r="65" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A65" s="20"/>
-      <c r="B65" s="20" t="s">
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="20"/>
+      <c r="K93" s="20"/>
+      <c r="L93" s="20"/>
+      <c r="M93" s="20"/>
+      <c r="N93" s="20"/>
+    </row>
+    <row r="94" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A94" s="20"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="20"/>
+      <c r="K94" s="20"/>
+      <c r="L94" s="20"/>
+      <c r="M94" s="20"/>
+      <c r="N94" s="20"/>
+    </row>
+    <row r="95" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A95" s="20"/>
+      <c r="B95" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="20"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="20"/>
-      <c r="N65" s="20"/>
-    </row>
-    <row r="66" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A66" s="20"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="49"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="20"/>
-      <c r="N66" s="20"/>
-    </row>
-    <row r="67" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A67" s="20"/>
-      <c r="B67" s="50" t="s">
+      <c r="C95" s="20"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="20"/>
+      <c r="H95" s="37"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="20"/>
+      <c r="K95" s="20"/>
+      <c r="L95" s="20"/>
+      <c r="M95" s="20"/>
+      <c r="N95" s="20"/>
+    </row>
+    <row r="96" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A96" s="20"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="49"/>
+      <c r="J96" s="20"/>
+      <c r="K96" s="20"/>
+      <c r="L96" s="20"/>
+      <c r="M96" s="20"/>
+      <c r="N96" s="20"/>
+    </row>
+    <row r="97" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A97" s="20"/>
+      <c r="B97" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C67" s="50" t="s">
+      <c r="C97" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="D67" s="50" t="s">
+      <c r="D97" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E67" s="51" t="s">
+      <c r="E97" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="F67" s="51" t="s">
+      <c r="F97" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="G67" s="50" t="s">
+      <c r="G97" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="H67" s="50" t="s">
+      <c r="H97" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="I67" s="50" t="s">
+      <c r="I97" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="J67" s="20"/>
-      <c r="K67" s="20"/>
-      <c r="L67" s="20"/>
-      <c r="M67" s="20"/>
-      <c r="N67" s="20"/>
-    </row>
-    <row r="68" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="B68" s="50"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="50"/>
-      <c r="G68" s="50"/>
-      <c r="H68" s="50"/>
-      <c r="I68" s="50"/>
-    </row>
-    <row r="69" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="B69" s="50"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="50"/>
-      <c r="E69" s="50"/>
-      <c r="F69" s="50"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="50"/>
-      <c r="I69" s="50"/>
-    </row>
-    <row r="70" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="B70" s="50"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="50"/>
-      <c r="E70" s="50"/>
-      <c r="F70" s="50"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="50"/>
-      <c r="I70" s="50"/>
-    </row>
-    <row r="71" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A71" s="30"/>
-      <c r="B71" s="50"/>
-      <c r="C71" s="50"/>
-      <c r="D71" s="50"/>
-      <c r="E71" s="50"/>
-      <c r="F71" s="50"/>
-      <c r="G71" s="50"/>
-      <c r="H71" s="50"/>
-      <c r="I71" s="50"/>
-      <c r="J71" s="30"/>
-      <c r="K71" s="30"/>
-      <c r="L71" s="30"/>
-      <c r="M71" s="30"/>
-      <c r="N71" s="30"/>
-    </row>
-    <row r="72" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A72" s="30"/>
-      <c r="B72" s="50"/>
-      <c r="C72" s="50"/>
-      <c r="D72" s="50"/>
-      <c r="E72" s="50"/>
-      <c r="F72" s="50"/>
-      <c r="G72" s="50"/>
-      <c r="H72" s="50"/>
-      <c r="I72" s="50"/>
-      <c r="J72" s="30"/>
-      <c r="K72" s="30"/>
-      <c r="L72" s="30"/>
-      <c r="M72" s="30"/>
-      <c r="N72" s="30"/>
-    </row>
-    <row r="73" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A73" s="30"/>
-      <c r="B73" s="50"/>
-      <c r="C73" s="50"/>
-      <c r="D73" s="50"/>
-      <c r="E73" s="50"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="50"/>
-      <c r="I73" s="50"/>
-      <c r="J73" s="30"/>
-      <c r="K73" s="30"/>
-      <c r="L73" s="30"/>
-      <c r="M73" s="30"/>
-      <c r="N73" s="30"/>
-    </row>
-    <row r="74" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A74" s="30"/>
-      <c r="B74" s="50"/>
-      <c r="C74" s="50"/>
-      <c r="D74" s="50"/>
-      <c r="E74" s="50"/>
-      <c r="F74" s="50"/>
-      <c r="G74" s="50"/>
-      <c r="H74" s="50"/>
-      <c r="I74" s="50"/>
-      <c r="J74" s="30"/>
-      <c r="K74" s="30"/>
-      <c r="L74" s="30"/>
-      <c r="M74" s="30"/>
-      <c r="N74" s="30"/>
-    </row>
-    <row r="75" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A75" s="30"/>
-      <c r="B75" s="50"/>
-      <c r="C75" s="50"/>
-      <c r="D75" s="50"/>
-      <c r="E75" s="50"/>
-      <c r="F75" s="50"/>
-      <c r="G75" s="50"/>
-      <c r="H75" s="50"/>
-      <c r="I75" s="50"/>
-      <c r="J75" s="30"/>
-      <c r="K75" s="30"/>
-      <c r="L75" s="30"/>
-      <c r="M75" s="30"/>
-      <c r="N75" s="30"/>
-    </row>
-    <row r="76" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A76" s="30"/>
-      <c r="B76" s="50"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="50"/>
-      <c r="F76" s="50"/>
-      <c r="G76" s="50"/>
-      <c r="H76" s="50"/>
-      <c r="I76" s="50"/>
-      <c r="J76" s="30"/>
-      <c r="K76" s="30"/>
-      <c r="L76" s="30"/>
-      <c r="M76" s="30"/>
-      <c r="N76" s="30"/>
-    </row>
-    <row r="77" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A77" s="30"/>
-      <c r="B77" s="50"/>
-      <c r="C77" s="50"/>
-      <c r="D77" s="50"/>
-      <c r="E77" s="50"/>
-      <c r="F77" s="50"/>
-      <c r="G77" s="50"/>
-      <c r="H77" s="50"/>
-      <c r="I77" s="50"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="30"/>
-      <c r="L77" s="30"/>
-      <c r="M77" s="30"/>
-      <c r="N77" s="30"/>
-    </row>
-    <row r="78" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A78" s="30"/>
-      <c r="B78" s="50"/>
-      <c r="C78" s="50"/>
-      <c r="D78" s="50"/>
-      <c r="E78" s="50"/>
-      <c r="F78" s="50"/>
-      <c r="G78" s="50"/>
-      <c r="H78" s="50"/>
-      <c r="I78" s="50"/>
-      <c r="J78" s="30"/>
-      <c r="K78" s="30"/>
-      <c r="L78" s="30"/>
-      <c r="M78" s="30"/>
-      <c r="N78" s="30"/>
-    </row>
-    <row r="79" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A79" s="30"/>
-      <c r="B79" s="50"/>
-      <c r="C79" s="50"/>
-      <c r="D79" s="50"/>
-      <c r="E79" s="50"/>
-      <c r="F79" s="50"/>
-      <c r="G79" s="50"/>
-      <c r="H79" s="50"/>
-      <c r="I79" s="50"/>
-      <c r="J79" s="30"/>
-      <c r="K79" s="30"/>
-      <c r="L79" s="30"/>
-      <c r="M79" s="30"/>
-      <c r="N79" s="30"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="30"/>
-      <c r="B81" s="30"/>
-      <c r="C81" s="30"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="30"/>
-      <c r="G81" s="30"/>
-      <c r="H81" s="30"/>
-      <c r="I81" s="30"/>
-      <c r="J81" s="30"/>
-      <c r="K81" s="30"/>
-      <c r="L81" s="30"/>
-      <c r="M81" s="30"/>
-      <c r="N81" s="30"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="30"/>
-      <c r="B82" s="30"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="30"/>
-      <c r="I82" s="30"/>
-      <c r="J82" s="30"/>
-      <c r="K82" s="30"/>
-      <c r="L82" s="30"/>
-      <c r="M82" s="30"/>
-      <c r="N82" s="30"/>
+      <c r="J97" s="20"/>
+      <c r="K97" s="20"/>
+      <c r="L97" s="20"/>
+      <c r="M97" s="20"/>
+      <c r="N97" s="20"/>
+    </row>
+    <row r="98" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A98" s="30"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="E98" s="33"/>
+      <c r="F98" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="G98" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="H98" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="I98" s="34"/>
+      <c r="J98" s="30"/>
+      <c r="K98" s="30"/>
+      <c r="L98" s="30"/>
+      <c r="M98" s="30"/>
+      <c r="N98" s="30"/>
+    </row>
+    <row r="99" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A99" s="30"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E99" s="33"/>
+      <c r="F99" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="G99" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="H99" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="I99" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="J99" s="30"/>
+      <c r="K99" s="30"/>
+      <c r="L99" s="30"/>
+      <c r="M99" s="30"/>
+      <c r="N99" s="30"/>
+    </row>
+    <row r="100" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A100" s="30"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="E100" s="33"/>
+      <c r="F100" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="G100" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="H100" s="33"/>
+      <c r="I100" s="34"/>
+      <c r="J100" s="30"/>
+      <c r="K100" s="30"/>
+      <c r="L100" s="30"/>
+      <c r="M100" s="30"/>
+      <c r="N100" s="30"/>
+    </row>
+    <row r="101" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A101" s="30"/>
+      <c r="B101" s="50"/>
+      <c r="C101" s="50"/>
+      <c r="D101" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="E101" s="50"/>
+      <c r="F101" s="50" t="s">
+        <v>409</v>
+      </c>
+      <c r="G101" s="50" t="s">
+        <v>406</v>
+      </c>
+      <c r="H101" s="50"/>
+      <c r="I101" s="50"/>
+      <c r="J101" s="30"/>
+      <c r="K101" s="30"/>
+      <c r="L101" s="30"/>
+      <c r="M101" s="30"/>
+      <c r="N101" s="30"/>
+    </row>
+    <row r="102" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="B102" s="50"/>
+      <c r="C102" s="50"/>
+      <c r="D102" s="50" t="s">
+        <v>407</v>
+      </c>
+      <c r="E102" s="50"/>
+      <c r="F102" s="50" t="s">
+        <v>409</v>
+      </c>
+      <c r="G102" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="H102" s="50"/>
+      <c r="I102" s="50"/>
+    </row>
+    <row r="103" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A103" s="30"/>
+      <c r="B103" s="50"/>
+      <c r="C103" s="50"/>
+      <c r="D103" s="50" t="s">
+        <v>410</v>
+      </c>
+      <c r="E103" s="50"/>
+      <c r="F103" s="50"/>
+      <c r="G103" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="H103" s="50"/>
+      <c r="I103" s="50"/>
+      <c r="J103" s="30"/>
+      <c r="K103" s="30"/>
+      <c r="L103" s="30"/>
+      <c r="M103" s="30"/>
+      <c r="N103" s="30"/>
+    </row>
+    <row r="104" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A104" s="30"/>
+      <c r="B104" s="50"/>
+      <c r="C104" s="50"/>
+      <c r="D104" s="50" t="s">
+        <v>412</v>
+      </c>
+      <c r="E104" s="50"/>
+      <c r="F104" s="50"/>
+      <c r="G104" s="50" t="s">
+        <v>411</v>
+      </c>
+      <c r="H104" s="50"/>
+      <c r="I104" s="50"/>
+      <c r="J104" s="30"/>
+      <c r="K104" s="30"/>
+      <c r="L104" s="30"/>
+      <c r="M104" s="30"/>
+      <c r="N104" s="30"/>
+    </row>
+    <row r="105" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="B105" s="50"/>
+      <c r="C105" s="50"/>
+      <c r="D105" s="50"/>
+      <c r="E105" s="50"/>
+      <c r="F105" s="50"/>
+      <c r="G105" s="50"/>
+      <c r="H105" s="50"/>
+      <c r="I105" s="50"/>
+    </row>
+    <row r="106" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="B106" s="50"/>
+      <c r="C106" s="50"/>
+      <c r="D106" s="50"/>
+      <c r="E106" s="50"/>
+      <c r="F106" s="50"/>
+      <c r="G106" s="50"/>
+      <c r="H106" s="50"/>
+      <c r="I106" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="B56 A53:A60 B53:B54 C53:F60 A1:XFD2 A61:F61 A62:XFD1048576 A30:F52 A29 C29:F29 G3:XFD61 A3:F28">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+  <conditionalFormatting sqref="B81:B87 B78:B79 C78:F80 A1:XFD1 A46:F46 A45 C45:E45 A29:F30 I2:XFD28 A2:C28 A31:C38 A39:A43 C39:C43 A44:C44 A62:C62 A63:E63 A66:E66 A64:C65 A71:F77 A67:C70 G74:XFD80 G87:XFD92 H81:XFD86 C87:F88 C81:C86 E89:F92 C89:C92 A78:A92 A93:XFD97 A103:XFD1048576 A98:C102 I98:XFD102 A47:C54 D54:E54 F47:F54 A55:F61 H29:XFD73">
+    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B58:B60">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+  <conditionalFormatting sqref="B89:B91">
+    <cfRule type="cellIs" dxfId="34" priority="33" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D3 D5:D7 F2:G7">
+    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="32" priority="30" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:G12">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:G14 D13:F15 D16:H17 H13:H15">
+    <cfRule type="cellIs" dxfId="30" priority="28" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25 D25:D28 D18:F22 H18:H28 F25:F28">
+    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:E38">
+    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39:B43">
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39:E43">
+    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:E44">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47:E53">
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47:D53">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62:E62">
+    <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31:F45">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65:E65">
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D69:D70 F70">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67:E68">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D81:F81 D82 F82 D83:F86 G81:G86">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D89 D91:D92">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D98:H102">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62:F69">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:G73">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H12">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6278,25 +8877,25 @@
           <x14:formula1>
             <xm:f>附录!$G$3:$G$5</xm:f>
           </x14:formula1>
-          <xm:sqref>H84:H1048576 H1:H46</xm:sqref>
+          <xm:sqref>H99:H100 H107:H1048576 H1:H2 G2:G12 H13:H71</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>附录!$A$3:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C84:C1048576 C1:C46</xm:sqref>
+          <xm:sqref>C99:C100 C107:C1048576 C1:C71</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>附录!$I$3:$I$17</xm:f>
           </x14:formula1>
-          <xm:sqref>F1:F46</xm:sqref>
+          <xm:sqref>F1 E2:E12 F13:F71</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>附录!$E$3:$E$24</xm:f>
+            <xm:f>附录!$E$3:$E$26</xm:f>
           </x14:formula1>
-          <xm:sqref>B84:B1048576 B30:B46 B1:B28</xm:sqref>
+          <xm:sqref>B99:B100 B107:B1048576 B1:B44 B46:B71</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6306,10 +8905,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N79"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
@@ -6387,7 +8986,7 @@
     <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="20" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>16</v>
@@ -6424,7 +9023,9 @@
     </row>
     <row r="5" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
-      <c r="B5" s="38"/>
+      <c r="B5" s="38" t="s">
+        <v>19</v>
+      </c>
       <c r="C5" s="20" t="s">
         <v>16</v>
       </c>
@@ -6478,7 +9079,9 @@
     </row>
     <row r="8" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
-      <c r="B8" s="38"/>
+      <c r="B8" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="C8" s="20" t="s">
         <v>16</v>
       </c>
@@ -6532,7 +9135,9 @@
     </row>
     <row r="11" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" s="36"/>
-      <c r="B11" s="38"/>
+      <c r="B11" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="C11" s="20" t="s">
         <v>16</v>
       </c>
@@ -6718,7 +9323,9 @@
       <c r="N21" s="19"/>
     </row>
     <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
+      <c r="B22" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="C22" s="41" t="s">
         <v>16</v>
       </c>
@@ -6864,7 +9471,7 @@
     </row>
     <row r="31" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B31" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>16</v>
@@ -6901,7 +9508,9 @@
     </row>
     <row r="33" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A33" s="42"/>
-      <c r="B33" s="20"/>
+      <c r="B33" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C33" s="25" t="s">
         <v>16</v>
       </c>
@@ -6937,7 +9546,9 @@
     </row>
     <row r="35" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
-      <c r="B35" s="20"/>
+      <c r="B35" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C35" s="25" t="s">
         <v>16</v>
       </c>
@@ -6955,9 +9566,7 @@
     </row>
     <row r="36" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
-      <c r="B36" s="20" t="s">
-        <v>21</v>
-      </c>
+      <c r="B36" s="20"/>
       <c r="C36" s="25" t="s">
         <v>16</v>
       </c>
@@ -6975,7 +9584,9 @@
     </row>
     <row r="37" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A37" s="42"/>
-      <c r="B37" s="20"/>
+      <c r="B37" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="C37" s="25" t="s">
         <v>16</v>
       </c>
@@ -6995,10 +9606,10 @@
       <c r="A38" s="42"/>
       <c r="B38" s="20"/>
       <c r="C38" s="25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D38" s="37"/>
-      <c r="E38" s="20"/>
+      <c r="E38" s="44"/>
       <c r="F38" s="45"/>
       <c r="G38" s="17"/>
       <c r="H38" s="37"/>
@@ -7010,13 +9621,13 @@
       <c r="N38" s="19"/>
     </row>
     <row r="39" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
+      <c r="A39" s="42"/>
       <c r="B39" s="20"/>
       <c r="C39" s="25" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D39" s="37"/>
-      <c r="E39" s="44"/>
+      <c r="E39" s="20"/>
       <c r="F39" s="45"/>
       <c r="G39" s="17"/>
       <c r="H39" s="37"/>
@@ -7028,9 +9639,14 @@
       <c r="N39" s="19"/>
     </row>
     <row r="40" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="C40" s="25"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="25" t="s">
+        <v>27</v>
+      </c>
       <c r="D40" s="37"/>
-      <c r="E40" s="46"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="45"/>
       <c r="G40" s="17"/>
       <c r="H40" s="37"/>
       <c r="I40" s="19"/>
@@ -7041,14 +9657,9 @@
       <c r="N40" s="19"/>
     </row>
     <row r="41" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A41" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" s="47"/>
-      <c r="C41" s="20"/>
+      <c r="C41" s="25"/>
       <c r="D41" s="37"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="48"/>
+      <c r="E41" s="46"/>
       <c r="G41" s="17"/>
       <c r="H41" s="37"/>
       <c r="I41" s="19"/>
@@ -7059,15 +9670,14 @@
       <c r="N41" s="19"/>
     </row>
     <row r="42" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
-      <c r="B42" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>16</v>
-      </c>
+      <c r="A42" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="47"/>
+      <c r="C42" s="20"/>
       <c r="D42" s="37"/>
       <c r="E42" s="20"/>
+      <c r="F42" s="48"/>
       <c r="G42" s="17"/>
       <c r="H42" s="37"/>
       <c r="I42" s="19"/>
@@ -7079,12 +9689,14 @@
     </row>
     <row r="43" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A43" s="39"/>
+      <c r="B43" s="47" t="s">
+        <v>77</v>
+      </c>
       <c r="C43" s="20" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="37"/>
       <c r="E43" s="20"/>
-      <c r="F43" s="48"/>
       <c r="G43" s="17"/>
       <c r="H43" s="37"/>
       <c r="I43" s="19"/>
@@ -7096,7 +9708,6 @@
     </row>
     <row r="44" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A44" s="39"/>
-      <c r="B44" s="47"/>
       <c r="C44" s="20" t="s">
         <v>16</v>
       </c>
@@ -7114,9 +9725,11 @@
     </row>
     <row r="45" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A45" s="39"/>
-      <c r="B45" s="47"/>
+      <c r="B45" s="47" t="s">
+        <v>78</v>
+      </c>
       <c r="C45" s="20" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D45" s="37"/>
       <c r="E45" s="20"/>
@@ -7131,9 +9744,16 @@
       <c r="N45" s="19"/>
     </row>
     <row r="46" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="37"/>
       <c r="E46" s="20"/>
+      <c r="F46" s="48"/>
       <c r="G46" s="17"/>
       <c r="H46" s="37"/>
       <c r="I46" s="19"/>
@@ -7143,48 +9763,41 @@
       <c r="M46" s="19"/>
       <c r="N46" s="19"/>
     </row>
-    <row r="47" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
+    <row r="47" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
       <c r="G47" s="17"/>
       <c r="H47" s="37"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="20"/>
-    </row>
-    <row r="48" spans="1:14" s="27" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
-      <c r="B48" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+    </row>
+    <row r="48" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="20"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
       <c r="G48" s="17"/>
       <c r="H48" s="37"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
       <c r="N48" s="20"/>
     </row>
     <row r="49" spans="1:14" s="27" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
+      <c r="A49" s="36"/>
       <c r="B49" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="20" t="s">
@@ -7202,9 +9815,9 @@
       <c r="N49" s="20"/>
     </row>
     <row r="50" spans="1:14" s="27" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="20" t="s">
@@ -7221,13 +9834,15 @@
       <c r="M50" s="20"/>
       <c r="N50" s="20"/>
     </row>
-    <row r="51" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20" t="s">
-        <v>39</v>
+    <row r="51" spans="1:14" s="27" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A51" s="36"/>
+      <c r="B51" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
+      <c r="D51" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
       <c r="G51" s="17"/>
@@ -7241,8 +9856,8 @@
     </row>
     <row r="52" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
-      <c r="B52" s="19" t="s">
-        <v>35</v>
+      <c r="B52" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
@@ -7260,7 +9875,7 @@
     <row r="53" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A53" s="20"/>
       <c r="B53" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
@@ -7277,8 +9892,8 @@
     </row>
     <row r="54" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A54" s="20"/>
-      <c r="B54" s="47" t="s">
-        <v>38</v>
+      <c r="B54" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
@@ -7295,7 +9910,9 @@
     </row>
     <row r="55" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A55" s="20"/>
-      <c r="B55" s="20"/>
+      <c r="B55" s="47" t="s">
+        <v>38</v>
+      </c>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
       <c r="E55" s="20"/>
@@ -7311,9 +9928,7 @@
     </row>
     <row r="56" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A56" s="20"/>
-      <c r="B56" s="19" t="s">
-        <v>36</v>
-      </c>
+      <c r="B56" s="20"/>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
@@ -7329,7 +9944,9 @@
     </row>
     <row r="57" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
+      <c r="B57" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="C57" s="20"/>
       <c r="D57" s="20"/>
       <c r="E57" s="20"/>
@@ -7345,9 +9962,7 @@
     </row>
     <row r="58" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A58" s="20"/>
-      <c r="B58" s="20" t="s">
-        <v>0</v>
-      </c>
+      <c r="B58" s="20"/>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
       <c r="E58" s="20"/>
@@ -7364,7 +9979,7 @@
     <row r="59" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A59" s="20"/>
       <c r="B59" s="20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" s="20"/>
       <c r="D59" s="20"/>
@@ -7381,7 +9996,9 @@
     </row>
     <row r="60" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
+      <c r="B60" s="20" t="s">
+        <v>1</v>
+      </c>
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
@@ -7397,9 +10014,7 @@
     </row>
     <row r="61" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A61" s="20"/>
-      <c r="B61" s="20" t="s">
-        <v>40</v>
-      </c>
+      <c r="B61" s="20"/>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
@@ -7415,12 +10030,14 @@
     </row>
     <row r="62" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A62" s="20"/>
-      <c r="B62" s="20"/>
+      <c r="B62" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="C62" s="20"/>
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
+      <c r="G62" s="17"/>
       <c r="H62" s="37"/>
       <c r="I62" s="20"/>
       <c r="J62" s="20"/>
@@ -7463,9 +10080,7 @@
     </row>
     <row r="65" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A65" s="20"/>
-      <c r="B65" s="20" t="s">
-        <v>41</v>
-      </c>
+      <c r="B65" s="20"/>
       <c r="C65" s="20"/>
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
@@ -7481,14 +10096,16 @@
     </row>
     <row r="66" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A66" s="20"/>
-      <c r="B66" s="20"/>
+      <c r="B66" s="20" t="s">
+        <v>41</v>
+      </c>
       <c r="C66" s="20"/>
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
       <c r="G66" s="20"/>
       <c r="H66" s="37"/>
-      <c r="I66" s="49"/>
+      <c r="I66" s="20"/>
       <c r="J66" s="20"/>
       <c r="K66" s="20"/>
       <c r="L66" s="20"/>
@@ -7497,45 +10114,51 @@
     </row>
     <row r="67" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A67" s="20"/>
-      <c r="B67" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="C67" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D67" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="E67" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="F67" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="G67" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="H67" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="I67" s="50" t="s">
-        <v>49</v>
-      </c>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="49"/>
       <c r="J67" s="20"/>
       <c r="K67" s="20"/>
       <c r="L67" s="20"/>
       <c r="M67" s="20"/>
       <c r="N67" s="20"/>
     </row>
-    <row r="68" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="B68" s="50"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="50"/>
-      <c r="G68" s="50"/>
-      <c r="H68" s="50"/>
-      <c r="I68" s="50"/>
+    <row r="68" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A68" s="20"/>
+      <c r="B68" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D68" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E68" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="G68" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="H68" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="I68" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="J68" s="20"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="20"/>
     </row>
     <row r="69" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B69" s="50"/>
@@ -7558,7 +10181,6 @@
       <c r="I70" s="50"/>
     </row>
     <row r="71" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A71" s="30"/>
       <c r="B71" s="50"/>
       <c r="C71" s="50"/>
       <c r="D71" s="50"/>
@@ -7567,11 +10189,6 @@
       <c r="G71" s="50"/>
       <c r="H71" s="50"/>
       <c r="I71" s="50"/>
-      <c r="J71" s="30"/>
-      <c r="K71" s="30"/>
-      <c r="L71" s="30"/>
-      <c r="M71" s="30"/>
-      <c r="N71" s="30"/>
     </row>
     <row r="72" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A72" s="30"/>
@@ -7701,45 +10318,105 @@
       <c r="M79" s="30"/>
       <c r="N79" s="30"/>
     </row>
+    <row r="80" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A80" s="30"/>
+      <c r="B80" s="50"/>
+      <c r="C80" s="50"/>
+      <c r="D80" s="50"/>
+      <c r="E80" s="50"/>
+      <c r="F80" s="50"/>
+      <c r="G80" s="50"/>
+      <c r="H80" s="50"/>
+      <c r="I80" s="50"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="30"/>
+      <c r="L80" s="30"/>
+      <c r="M80" s="30"/>
+      <c r="N80" s="30"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="30"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="30"/>
+      <c r="L82" s="30"/>
+      <c r="M82" s="30"/>
+      <c r="N82" s="30"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" s="30"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="30"/>
+      <c r="K83" s="30"/>
+      <c r="L83" s="30"/>
+      <c r="M83" s="30"/>
+      <c r="N83" s="30"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="B56 A53:A60 B53:B54 C53:F60 A1:XFD2 A61:F61 A62:XFD1048576 A30:F52 A29 C29:F29 G3:XFD61 A3:F28">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+  <conditionalFormatting sqref="B57 A54:A61 B54:B55 C54:F61 A1:XFD2 A62:F62 A63:XFD1048576 A30:F53 A29 C29:F29 G3:XFD62 A3:F28">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B58:B60">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+  <conditionalFormatting sqref="B59:B61">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>附录!$G$3:$G$5</xm:f>
           </x14:formula1>
-          <xm:sqref>H84:H1048576 H1:H46</xm:sqref>
+          <xm:sqref>H85:H1048576 H1:H47</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>附录!$A$3:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C84:C1048576 C1:C46</xm:sqref>
+          <xm:sqref>C85:C1048576 C1:C47</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>附录!$I$3:$I$17</xm:f>
           </x14:formula1>
-          <xm:sqref>F1:F46</xm:sqref>
+          <xm:sqref>F1:F47</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>附录!$E$3:$E$24</xm:f>
+            <xm:f>附录!$E$3:$E$26</xm:f>
           </x14:formula1>
-          <xm:sqref>B84:B1048576 B30:B46 B1:B28</xm:sqref>
+          <xm:sqref>B85:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$E$3:$E$26</xm:f>
+          </x14:formula1>
+          <xm:sqref>B30:B47</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$E$3:$E$26</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7749,10 +10426,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N79"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
@@ -7830,7 +10507,7 @@
     <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="20" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>16</v>
@@ -7867,7 +10544,9 @@
     </row>
     <row r="5" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
-      <c r="B5" s="38"/>
+      <c r="B5" s="38" t="s">
+        <v>19</v>
+      </c>
       <c r="C5" s="20" t="s">
         <v>16</v>
       </c>
@@ -7921,7 +10600,9 @@
     </row>
     <row r="8" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
-      <c r="B8" s="38"/>
+      <c r="B8" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="C8" s="20" t="s">
         <v>16</v>
       </c>
@@ -7975,7 +10656,9 @@
     </row>
     <row r="11" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" s="36"/>
-      <c r="B11" s="38"/>
+      <c r="B11" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="C11" s="20" t="s">
         <v>16</v>
       </c>
@@ -8161,7 +10844,9 @@
       <c r="N21" s="19"/>
     </row>
     <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
+      <c r="B22" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="C22" s="41" t="s">
         <v>16</v>
       </c>
@@ -8307,7 +10992,7 @@
     </row>
     <row r="31" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B31" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>16</v>
@@ -8344,7 +11029,9 @@
     </row>
     <row r="33" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A33" s="42"/>
-      <c r="B33" s="20"/>
+      <c r="B33" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C33" s="25" t="s">
         <v>16</v>
       </c>
@@ -8380,7 +11067,9 @@
     </row>
     <row r="35" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
-      <c r="B35" s="20"/>
+      <c r="B35" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C35" s="25" t="s">
         <v>16</v>
       </c>
@@ -8398,9 +11087,7 @@
     </row>
     <row r="36" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
-      <c r="B36" s="20" t="s">
-        <v>21</v>
-      </c>
+      <c r="B36" s="20"/>
       <c r="C36" s="25" t="s">
         <v>16</v>
       </c>
@@ -8418,7 +11105,9 @@
     </row>
     <row r="37" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A37" s="42"/>
-      <c r="B37" s="20"/>
+      <c r="B37" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="C37" s="25" t="s">
         <v>16</v>
       </c>
@@ -8438,10 +11127,10 @@
       <c r="A38" s="42"/>
       <c r="B38" s="20"/>
       <c r="C38" s="25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D38" s="37"/>
-      <c r="E38" s="20"/>
+      <c r="E38" s="44"/>
       <c r="F38" s="45"/>
       <c r="G38" s="17"/>
       <c r="H38" s="37"/>
@@ -8453,13 +11142,13 @@
       <c r="N38" s="19"/>
     </row>
     <row r="39" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
+      <c r="A39" s="42"/>
       <c r="B39" s="20"/>
       <c r="C39" s="25" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D39" s="37"/>
-      <c r="E39" s="44"/>
+      <c r="E39" s="20"/>
       <c r="F39" s="45"/>
       <c r="G39" s="17"/>
       <c r="H39" s="37"/>
@@ -8471,9 +11160,14 @@
       <c r="N39" s="19"/>
     </row>
     <row r="40" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="C40" s="25"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="25" t="s">
+        <v>27</v>
+      </c>
       <c r="D40" s="37"/>
-      <c r="E40" s="46"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="45"/>
       <c r="G40" s="17"/>
       <c r="H40" s="37"/>
       <c r="I40" s="19"/>
@@ -8484,14 +11178,9 @@
       <c r="N40" s="19"/>
     </row>
     <row r="41" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A41" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" s="47"/>
-      <c r="C41" s="20"/>
+      <c r="C41" s="25"/>
       <c r="D41" s="37"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="48"/>
+      <c r="E41" s="46"/>
       <c r="G41" s="17"/>
       <c r="H41" s="37"/>
       <c r="I41" s="19"/>
@@ -8502,15 +11191,14 @@
       <c r="N41" s="19"/>
     </row>
     <row r="42" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
-      <c r="B42" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>16</v>
-      </c>
+      <c r="A42" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="47"/>
+      <c r="C42" s="20"/>
       <c r="D42" s="37"/>
       <c r="E42" s="20"/>
+      <c r="F42" s="48"/>
       <c r="G42" s="17"/>
       <c r="H42" s="37"/>
       <c r="I42" s="19"/>
@@ -8522,12 +11210,14 @@
     </row>
     <row r="43" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A43" s="39"/>
+      <c r="B43" s="47" t="s">
+        <v>77</v>
+      </c>
       <c r="C43" s="20" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="37"/>
       <c r="E43" s="20"/>
-      <c r="F43" s="48"/>
       <c r="G43" s="17"/>
       <c r="H43" s="37"/>
       <c r="I43" s="19"/>
@@ -8539,7 +11229,6 @@
     </row>
     <row r="44" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A44" s="39"/>
-      <c r="B44" s="47"/>
       <c r="C44" s="20" t="s">
         <v>16</v>
       </c>
@@ -8557,9 +11246,11 @@
     </row>
     <row r="45" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A45" s="39"/>
-      <c r="B45" s="47"/>
+      <c r="B45" s="47" t="s">
+        <v>78</v>
+      </c>
       <c r="C45" s="20" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D45" s="37"/>
       <c r="E45" s="20"/>
@@ -8574,9 +11265,16 @@
       <c r="N45" s="19"/>
     </row>
     <row r="46" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="37"/>
       <c r="E46" s="20"/>
+      <c r="F46" s="48"/>
       <c r="G46" s="17"/>
       <c r="H46" s="37"/>
       <c r="I46" s="19"/>
@@ -8586,48 +11284,41 @@
       <c r="M46" s="19"/>
       <c r="N46" s="19"/>
     </row>
-    <row r="47" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
+    <row r="47" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
       <c r="G47" s="17"/>
       <c r="H47" s="37"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="20"/>
-    </row>
-    <row r="48" spans="1:14" s="27" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
-      <c r="B48" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+    </row>
+    <row r="48" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="20"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
       <c r="G48" s="17"/>
       <c r="H48" s="37"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
       <c r="N48" s="20"/>
     </row>
     <row r="49" spans="1:14" s="27" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
+      <c r="A49" s="36"/>
       <c r="B49" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="20" t="s">
@@ -8645,9 +11336,9 @@
       <c r="N49" s="20"/>
     </row>
     <row r="50" spans="1:14" s="27" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="20" t="s">
@@ -8664,13 +11355,15 @@
       <c r="M50" s="20"/>
       <c r="N50" s="20"/>
     </row>
-    <row r="51" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20" t="s">
-        <v>39</v>
+    <row r="51" spans="1:14" s="27" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A51" s="36"/>
+      <c r="B51" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
+      <c r="D51" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
       <c r="G51" s="17"/>
@@ -8684,8 +11377,8 @@
     </row>
     <row r="52" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
-      <c r="B52" s="19" t="s">
-        <v>35</v>
+      <c r="B52" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
@@ -8703,7 +11396,7 @@
     <row r="53" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A53" s="20"/>
       <c r="B53" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
@@ -8720,8 +11413,8 @@
     </row>
     <row r="54" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A54" s="20"/>
-      <c r="B54" s="47" t="s">
-        <v>38</v>
+      <c r="B54" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
@@ -8738,7 +11431,9 @@
     </row>
     <row r="55" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A55" s="20"/>
-      <c r="B55" s="20"/>
+      <c r="B55" s="47" t="s">
+        <v>38</v>
+      </c>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
       <c r="E55" s="20"/>
@@ -8754,9 +11449,7 @@
     </row>
     <row r="56" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A56" s="20"/>
-      <c r="B56" s="19" t="s">
-        <v>36</v>
-      </c>
+      <c r="B56" s="20"/>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
@@ -8772,7 +11465,9 @@
     </row>
     <row r="57" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
+      <c r="B57" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="C57" s="20"/>
       <c r="D57" s="20"/>
       <c r="E57" s="20"/>
@@ -8788,9 +11483,7 @@
     </row>
     <row r="58" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A58" s="20"/>
-      <c r="B58" s="20" t="s">
-        <v>0</v>
-      </c>
+      <c r="B58" s="20"/>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
       <c r="E58" s="20"/>
@@ -8807,7 +11500,7 @@
     <row r="59" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A59" s="20"/>
       <c r="B59" s="20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" s="20"/>
       <c r="D59" s="20"/>
@@ -8824,7 +11517,9 @@
     </row>
     <row r="60" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
+      <c r="B60" s="20" t="s">
+        <v>1</v>
+      </c>
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
@@ -8840,9 +11535,7 @@
     </row>
     <row r="61" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A61" s="20"/>
-      <c r="B61" s="20" t="s">
-        <v>40</v>
-      </c>
+      <c r="B61" s="20"/>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
@@ -8858,12 +11551,14 @@
     </row>
     <row r="62" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A62" s="20"/>
-      <c r="B62" s="20"/>
+      <c r="B62" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="C62" s="20"/>
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
+      <c r="G62" s="17"/>
       <c r="H62" s="37"/>
       <c r="I62" s="20"/>
       <c r="J62" s="20"/>
@@ -8906,9 +11601,7 @@
     </row>
     <row r="65" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A65" s="20"/>
-      <c r="B65" s="20" t="s">
-        <v>41</v>
-      </c>
+      <c r="B65" s="20"/>
       <c r="C65" s="20"/>
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
@@ -8924,14 +11617,16 @@
     </row>
     <row r="66" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A66" s="20"/>
-      <c r="B66" s="20"/>
+      <c r="B66" s="20" t="s">
+        <v>41</v>
+      </c>
       <c r="C66" s="20"/>
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
       <c r="G66" s="20"/>
       <c r="H66" s="37"/>
-      <c r="I66" s="49"/>
+      <c r="I66" s="20"/>
       <c r="J66" s="20"/>
       <c r="K66" s="20"/>
       <c r="L66" s="20"/>
@@ -8940,45 +11635,51 @@
     </row>
     <row r="67" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A67" s="20"/>
-      <c r="B67" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="C67" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D67" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="E67" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="F67" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="G67" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="H67" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="I67" s="50" t="s">
-        <v>49</v>
-      </c>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="49"/>
       <c r="J67" s="20"/>
       <c r="K67" s="20"/>
       <c r="L67" s="20"/>
       <c r="M67" s="20"/>
       <c r="N67" s="20"/>
     </row>
-    <row r="68" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="B68" s="50"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="50"/>
-      <c r="G68" s="50"/>
-      <c r="H68" s="50"/>
-      <c r="I68" s="50"/>
+    <row r="68" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A68" s="20"/>
+      <c r="B68" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D68" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E68" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="G68" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="H68" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="I68" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="J68" s="20"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="20"/>
     </row>
     <row r="69" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B69" s="50"/>
@@ -9001,7 +11702,6 @@
       <c r="I70" s="50"/>
     </row>
     <row r="71" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A71" s="30"/>
       <c r="B71" s="50"/>
       <c r="C71" s="50"/>
       <c r="D71" s="50"/>
@@ -9010,11 +11710,6 @@
       <c r="G71" s="50"/>
       <c r="H71" s="50"/>
       <c r="I71" s="50"/>
-      <c r="J71" s="30"/>
-      <c r="K71" s="30"/>
-      <c r="L71" s="30"/>
-      <c r="M71" s="30"/>
-      <c r="N71" s="30"/>
     </row>
     <row r="72" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A72" s="30"/>
@@ -9144,45 +11839,105 @@
       <c r="M79" s="30"/>
       <c r="N79" s="30"/>
     </row>
+    <row r="80" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A80" s="30"/>
+      <c r="B80" s="50"/>
+      <c r="C80" s="50"/>
+      <c r="D80" s="50"/>
+      <c r="E80" s="50"/>
+      <c r="F80" s="50"/>
+      <c r="G80" s="50"/>
+      <c r="H80" s="50"/>
+      <c r="I80" s="50"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="30"/>
+      <c r="L80" s="30"/>
+      <c r="M80" s="30"/>
+      <c r="N80" s="30"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="30"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="30"/>
+      <c r="L82" s="30"/>
+      <c r="M82" s="30"/>
+      <c r="N82" s="30"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" s="30"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="30"/>
+      <c r="K83" s="30"/>
+      <c r="L83" s="30"/>
+      <c r="M83" s="30"/>
+      <c r="N83" s="30"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="B56 A53:A60 B53:B54 C53:F60 A1:XFD2 A61:F61 A62:XFD1048576 A30:F52 A29 C29:F29 G3:XFD61 A3:F28">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+  <conditionalFormatting sqref="B57 A54:A61 B54:B55 C54:F61 A1:XFD2 A62:F62 A63:XFD1048576 A30:F53 A29 C29:F29 G3:XFD62 A3:F28">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B58:B60">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+  <conditionalFormatting sqref="B59:B61">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>附录!$G$3:$G$5</xm:f>
           </x14:formula1>
-          <xm:sqref>H84:H1048576 H1:H46</xm:sqref>
+          <xm:sqref>H85:H1048576 H1:H47</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>附录!$A$3:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C84:C1048576 C1:C46</xm:sqref>
+          <xm:sqref>C85:C1048576 C1:C47</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>附录!$I$3:$I$17</xm:f>
           </x14:formula1>
-          <xm:sqref>F1:F46</xm:sqref>
+          <xm:sqref>F1:F47</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>附录!$E$3:$E$24</xm:f>
+            <xm:f>附录!$E$3:$E$26</xm:f>
           </x14:formula1>
-          <xm:sqref>B84:B1048576 B30:B46 B1:B28</xm:sqref>
+          <xm:sqref>B85:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$E$3:$E$26</xm:f>
+          </x14:formula1>
+          <xm:sqref>B30:B47</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$E$3:$E$26</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9192,10 +11947,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N82"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D64" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
@@ -9273,7 +12028,7 @@
     <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="20" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>16</v>
@@ -9310,7 +12065,9 @@
     </row>
     <row r="5" spans="1:14" s="30" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
-      <c r="B5" s="38"/>
+      <c r="B5" s="38" t="s">
+        <v>19</v>
+      </c>
       <c r="C5" s="20" t="s">
         <v>16</v>
       </c>
@@ -9364,7 +12121,9 @@
     </row>
     <row r="8" spans="1:14" s="30" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
-      <c r="B8" s="38"/>
+      <c r="B8" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="C8" s="20" t="s">
         <v>16</v>
       </c>
@@ -9418,7 +12177,9 @@
     </row>
     <row r="11" spans="1:14" s="30" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" s="36"/>
-      <c r="B11" s="38"/>
+      <c r="B11" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="C11" s="20" t="s">
         <v>16</v>
       </c>
@@ -9611,7 +12372,9 @@
     </row>
     <row r="22" spans="1:14" s="30" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
-      <c r="B22" s="7"/>
+      <c r="B22" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="C22" s="41" t="s">
         <v>16</v>
       </c>
@@ -9758,7 +12521,7 @@
     </row>
     <row r="31" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B31" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>16</v>
@@ -9795,7 +12558,9 @@
     </row>
     <row r="33" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A33" s="42"/>
-      <c r="B33" s="20"/>
+      <c r="B33" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C33" s="25" t="s">
         <v>16</v>
       </c>
@@ -9831,7 +12596,9 @@
     </row>
     <row r="35" spans="1:14" s="30" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
-      <c r="B35" s="20"/>
+      <c r="B35" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C35" s="25" t="s">
         <v>16</v>
       </c>
@@ -9849,9 +12616,7 @@
     </row>
     <row r="36" spans="1:14" s="30" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
-      <c r="B36" s="20" t="s">
-        <v>21</v>
-      </c>
+      <c r="B36" s="20"/>
       <c r="C36" s="25" t="s">
         <v>16</v>
       </c>
@@ -9869,7 +12634,9 @@
     </row>
     <row r="37" spans="1:14" s="30" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A37" s="42"/>
-      <c r="B37" s="20"/>
+      <c r="B37" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="C37" s="25" t="s">
         <v>16</v>
       </c>
@@ -9885,14 +12652,14 @@
       <c r="M37" s="19"/>
       <c r="N37" s="19"/>
     </row>
-    <row r="38" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" s="30" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A38" s="42"/>
       <c r="B38" s="20"/>
       <c r="C38" s="25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D38" s="37"/>
-      <c r="E38" s="20"/>
+      <c r="E38" s="44"/>
       <c r="F38" s="45"/>
       <c r="G38" s="17"/>
       <c r="H38" s="37"/>
@@ -9904,13 +12671,13 @@
       <c r="N38" s="19"/>
     </row>
     <row r="39" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
+      <c r="A39" s="42"/>
       <c r="B39" s="20"/>
       <c r="C39" s="25" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D39" s="37"/>
-      <c r="E39" s="44"/>
+      <c r="E39" s="20"/>
       <c r="F39" s="45"/>
       <c r="G39" s="17"/>
       <c r="H39" s="37"/>
@@ -9922,9 +12689,14 @@
       <c r="N39" s="19"/>
     </row>
     <row r="40" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="C40" s="25"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="25" t="s">
+        <v>27</v>
+      </c>
       <c r="D40" s="37"/>
-      <c r="E40" s="46"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="45"/>
       <c r="G40" s="17"/>
       <c r="H40" s="37"/>
       <c r="I40" s="19"/>
@@ -9935,14 +12707,9 @@
       <c r="N40" s="19"/>
     </row>
     <row r="41" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A41" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" s="47"/>
-      <c r="C41" s="20"/>
+      <c r="C41" s="25"/>
       <c r="D41" s="37"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="48"/>
+      <c r="E41" s="46"/>
       <c r="G41" s="17"/>
       <c r="H41" s="37"/>
       <c r="I41" s="19"/>
@@ -9953,15 +12720,14 @@
       <c r="N41" s="19"/>
     </row>
     <row r="42" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
-      <c r="B42" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>16</v>
-      </c>
+      <c r="A42" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="47"/>
+      <c r="C42" s="20"/>
       <c r="D42" s="37"/>
       <c r="E42" s="20"/>
+      <c r="F42" s="48"/>
       <c r="G42" s="17"/>
       <c r="H42" s="37"/>
       <c r="I42" s="19"/>
@@ -9973,12 +12739,14 @@
     </row>
     <row r="43" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A43" s="39"/>
+      <c r="B43" s="47" t="s">
+        <v>77</v>
+      </c>
       <c r="C43" s="20" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="37"/>
       <c r="E43" s="20"/>
-      <c r="F43" s="48"/>
       <c r="G43" s="17"/>
       <c r="H43" s="37"/>
       <c r="I43" s="19"/>
@@ -9990,7 +12758,6 @@
     </row>
     <row r="44" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A44" s="39"/>
-      <c r="B44" s="47"/>
       <c r="C44" s="20" t="s">
         <v>16</v>
       </c>
@@ -10008,9 +12775,11 @@
     </row>
     <row r="45" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A45" s="39"/>
-      <c r="B45" s="47"/>
+      <c r="B45" s="47" t="s">
+        <v>78</v>
+      </c>
       <c r="C45" s="20" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D45" s="37"/>
       <c r="E45" s="20"/>
@@ -10025,9 +12794,16 @@
       <c r="N45" s="19"/>
     </row>
     <row r="46" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="37"/>
       <c r="E46" s="20"/>
+      <c r="F46" s="48"/>
       <c r="G46" s="17"/>
       <c r="H46" s="37"/>
       <c r="I46" s="19"/>
@@ -10037,48 +12813,41 @@
       <c r="M46" s="19"/>
       <c r="N46" s="19"/>
     </row>
-    <row r="47" spans="1:14" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
+    <row r="47" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
       <c r="G47" s="17"/>
       <c r="H47" s="37"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="20"/>
-    </row>
-    <row r="48" spans="1:14" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
-      <c r="B48" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+    </row>
+    <row r="48" spans="1:14" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="20"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
       <c r="G48" s="17"/>
       <c r="H48" s="37"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
       <c r="N48" s="20"/>
     </row>
     <row r="49" spans="1:14" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
+      <c r="A49" s="36"/>
       <c r="B49" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="20" t="s">
@@ -10096,9 +12865,9 @@
       <c r="N49" s="20"/>
     </row>
     <row r="50" spans="1:14" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="20" t="s">
@@ -10115,13 +12884,15 @@
       <c r="M50" s="20"/>
       <c r="N50" s="20"/>
     </row>
-    <row r="51" spans="1:14" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20" t="s">
-        <v>39</v>
+    <row r="51" spans="1:14" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A51" s="36"/>
+      <c r="B51" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
+      <c r="D51" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
       <c r="G51" s="17"/>
@@ -10135,8 +12906,8 @@
     </row>
     <row r="52" spans="1:14" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
-      <c r="B52" s="19" t="s">
-        <v>35</v>
+      <c r="B52" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
@@ -10154,7 +12925,7 @@
     <row r="53" spans="1:14" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A53" s="20"/>
       <c r="B53" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
@@ -10171,8 +12942,8 @@
     </row>
     <row r="54" spans="1:14" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A54" s="20"/>
-      <c r="B54" s="47" t="s">
-        <v>38</v>
+      <c r="B54" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
@@ -10189,7 +12960,9 @@
     </row>
     <row r="55" spans="1:14" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A55" s="20"/>
-      <c r="B55" s="20"/>
+      <c r="B55" s="47" t="s">
+        <v>38</v>
+      </c>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
       <c r="E55" s="20"/>
@@ -10205,9 +12978,7 @@
     </row>
     <row r="56" spans="1:14" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A56" s="20"/>
-      <c r="B56" s="19" t="s">
-        <v>36</v>
-      </c>
+      <c r="B56" s="20"/>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
@@ -10223,7 +12994,9 @@
     </row>
     <row r="57" spans="1:14" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
+      <c r="B57" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="C57" s="20"/>
       <c r="D57" s="20"/>
       <c r="E57" s="20"/>
@@ -10239,9 +13012,7 @@
     </row>
     <row r="58" spans="1:14" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A58" s="20"/>
-      <c r="B58" s="20" t="s">
-        <v>0</v>
-      </c>
+      <c r="B58" s="20"/>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
       <c r="E58" s="20"/>
@@ -10258,7 +13029,7 @@
     <row r="59" spans="1:14" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A59" s="20"/>
       <c r="B59" s="20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" s="20"/>
       <c r="D59" s="20"/>
@@ -10275,7 +13046,9 @@
     </row>
     <row r="60" spans="1:14" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
+      <c r="B60" s="20" t="s">
+        <v>1</v>
+      </c>
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
@@ -10291,9 +13064,7 @@
     </row>
     <row r="61" spans="1:14" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A61" s="20"/>
-      <c r="B61" s="20" t="s">
-        <v>40</v>
-      </c>
+      <c r="B61" s="20"/>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
@@ -10309,12 +13080,14 @@
     </row>
     <row r="62" spans="1:14" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A62" s="20"/>
-      <c r="B62" s="20"/>
+      <c r="B62" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="C62" s="20"/>
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
+      <c r="G62" s="17"/>
       <c r="H62" s="37"/>
       <c r="I62" s="20"/>
       <c r="J62" s="20"/>
@@ -10357,9 +13130,7 @@
     </row>
     <row r="65" spans="1:14" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A65" s="20"/>
-      <c r="B65" s="20" t="s">
-        <v>41</v>
-      </c>
+      <c r="B65" s="20"/>
       <c r="C65" s="20"/>
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
@@ -10375,14 +13146,16 @@
     </row>
     <row r="66" spans="1:14" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A66" s="20"/>
-      <c r="B66" s="20"/>
+      <c r="B66" s="20" t="s">
+        <v>41</v>
+      </c>
       <c r="C66" s="20"/>
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
       <c r="G66" s="20"/>
       <c r="H66" s="37"/>
-      <c r="I66" s="49"/>
+      <c r="I66" s="20"/>
       <c r="J66" s="20"/>
       <c r="K66" s="20"/>
       <c r="L66" s="20"/>
@@ -10391,45 +13164,51 @@
     </row>
     <row r="67" spans="1:14" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A67" s="20"/>
-      <c r="B67" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="C67" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D67" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="E67" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="F67" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="G67" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="H67" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="I67" s="50" t="s">
-        <v>49</v>
-      </c>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="49"/>
       <c r="J67" s="20"/>
       <c r="K67" s="20"/>
       <c r="L67" s="20"/>
       <c r="M67" s="20"/>
       <c r="N67" s="20"/>
     </row>
-    <row r="68" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="B68" s="50"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="50"/>
-      <c r="G68" s="50"/>
-      <c r="H68" s="50"/>
-      <c r="I68" s="50"/>
+    <row r="68" spans="1:14" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A68" s="20"/>
+      <c r="B68" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D68" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E68" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="G68" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="H68" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="I68" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="J68" s="20"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="20"/>
     </row>
     <row r="69" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B69" s="50"/>
@@ -10452,7 +13231,6 @@
       <c r="I70" s="50"/>
     </row>
     <row r="71" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
       <c r="B71" s="50"/>
       <c r="C71" s="50"/>
       <c r="D71" s="50"/>
@@ -10461,11 +13239,6 @@
       <c r="G71" s="50"/>
       <c r="H71" s="50"/>
       <c r="I71" s="50"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
     </row>
     <row r="72" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
@@ -10595,47 +13368,105 @@
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
     </row>
-    <row r="81" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="50"/>
+      <c r="C80" s="50"/>
+      <c r="D80" s="50"/>
+      <c r="E80" s="50"/>
+      <c r="F80" s="50"/>
+      <c r="G80" s="50"/>
+      <c r="H80" s="50"/>
+      <c r="I80" s="50"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="B56 A53:A60 B53:B54 C53:F60 A1:XFD2 A61:F61 A62:XFD1048576 A30:F52 A29 C29:F29 G3:XFD61 I2:N46 A3:F28">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+  <conditionalFormatting sqref="B57 A54:A61 B54:B55 C54:F61 A1:XFD2 A62:F62 A63:XFD1048576 A30:F53 A29 C29:F29 G3:XFD62 I2:N47 A3:F28">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B58:B60">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+  <conditionalFormatting sqref="B59:B61">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>附录!$E$3:$E$24</xm:f>
-          </x14:formula1>
-          <xm:sqref>B84:B1048576 B30:B46 B1:B28</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>附录!$A$3:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C84:C1048576 C1:C46</xm:sqref>
+          <xm:sqref>C85:C1048576 C1:C47</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>附录!$G$3:$G$5</xm:f>
           </x14:formula1>
-          <xm:sqref>H84:H1048576 H1:H46</xm:sqref>
+          <xm:sqref>H85:H1048576 H1:H47</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>附录!$I$3:$I$17</xm:f>
           </x14:formula1>
-          <xm:sqref>F1:F46</xm:sqref>
+          <xm:sqref>F1:F47</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$E$3:$E$26</xm:f>
+          </x14:formula1>
+          <xm:sqref>B85:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$E$3:$E$26</xm:f>
+          </x14:formula1>
+          <xm:sqref>B30:B47</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$E$3:$E$26</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10647,8 +13478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView zoomScale="165" zoomScaleNormal="265" zoomScalePageLayoutView="265" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A2" zoomScale="165" zoomScaleNormal="265" zoomScalePageLayoutView="265" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -10699,7 +13530,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>342</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>18</v>
@@ -10730,8 +13561,8 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>60</v>
+      <c r="E6" s="30" t="s">
+        <v>312</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>12</v>
@@ -10740,8 +13571,8 @@
     <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>61</v>
+      <c r="E7" s="30" t="s">
+        <v>341</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>13</v>
@@ -10751,7 +13582,7 @@
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>50</v>
@@ -10761,7 +13592,7 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>63</v>
@@ -10771,7 +13602,7 @@
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>65</v>
@@ -10781,7 +13612,7 @@
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>67</v>
@@ -10791,7 +13622,7 @@
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>68</v>
@@ -10801,7 +13632,7 @@
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>70</v>
@@ -10811,7 +13642,7 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>71</v>
@@ -10821,7 +13652,7 @@
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>72</v>
@@ -10831,7 +13662,7 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>73</v>
@@ -10841,7 +13672,7 @@
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>75</v>
@@ -10851,7 +13682,7 @@
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="I18" s="4"/>
     </row>
@@ -10859,7 +13690,7 @@
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I19" s="4"/>
     </row>
@@ -10867,7 +13698,7 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I20" s="4"/>
     </row>
@@ -10875,7 +13706,7 @@
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I21" s="4"/>
     </row>
@@ -10883,7 +13714,7 @@
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I22" s="4"/>
     </row>
@@ -10891,7 +13722,7 @@
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I23" s="4"/>
     </row>
@@ -10899,23 +13730,29 @@
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="A2:C6 B7:C26 E2:E24 G2:G5 I1:I25">
-    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A2:C6 B7:C26 G2:G5 I1:I25 E2:E26">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/项目管理/进度计划/Demo-里程碑3/Demo-里程碑3-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑3/Demo-里程碑3-周版本.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/项目管理/进度计划/Demo-里程碑3/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="34700" windowHeight="16440" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="15040" yWindow="460" windowWidth="23360" windowHeight="19580" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="20150701" sheetId="16" r:id="rId1"/>
@@ -7533,6 +7538,112 @@
     </xf>
   </cellXfs>
   <cellStyles count="225">
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 10 2 2 2" xfId="1"/>
     <cellStyle name="常规 10 2 2 2 2" xfId="14"/>
     <cellStyle name="常规 12" xfId="2"/>
@@ -7652,124 +7763,8 @@
     <cellStyle name="超链接" xfId="219" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="221" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="223" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="175">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="174">
     <dxf>
       <font>
         <color indexed="60"/>
@@ -9521,7 +9516,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="附录"/>
@@ -9534,7 +9529,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="附录"/>
@@ -9885,13 +9880,13 @@
   <dimension ref="A1:R103"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="G21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D43" sqref="D43"/>
+      <selection pane="bottomRight" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.1640625" style="30" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="30" customWidth="1"/>
@@ -9902,7 +9897,7 @@
     <col min="8" max="16384" width="10.1640625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16">
+    <row r="1" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
       <c r="B1" s="26" t="s">
         <v>2</v>
@@ -9944,7 +9939,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16">
+    <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>14</v>
       </c>
@@ -9962,7 +9957,7 @@
       <c r="M2" s="29"/>
       <c r="N2" s="29"/>
     </row>
-    <row r="3" spans="1:14" ht="16">
+    <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
       <c r="B3" s="27" t="s">
         <v>125</v>
@@ -9994,7 +9989,7 @@
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
     </row>
-    <row r="4" spans="1:14" ht="16">
+    <row r="4" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="26"/>
       <c r="B4" s="26"/>
       <c r="C4" s="27" t="s">
@@ -10024,7 +10019,7 @@
       </c>
       <c r="N4" s="29"/>
     </row>
-    <row r="5" spans="1:14" ht="16">
+    <row r="5" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="26"/>
       <c r="B5" s="26"/>
       <c r="C5" s="27" t="s">
@@ -10054,7 +10049,7 @@
       </c>
       <c r="N5" s="29"/>
     </row>
-    <row r="6" spans="1:14" ht="16">
+    <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" s="26"/>
       <c r="B6" s="26"/>
       <c r="C6" s="27" t="s">
@@ -10084,7 +10079,7 @@
       </c>
       <c r="N6" s="29"/>
     </row>
-    <row r="7" spans="1:14" ht="16">
+    <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" s="26"/>
       <c r="B7" s="26"/>
       <c r="C7" s="27"/>
@@ -10100,7 +10095,7 @@
       <c r="M7" s="29"/>
       <c r="N7" s="29"/>
     </row>
-    <row r="8" spans="1:14" ht="16">
+    <row r="8" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="27" t="s">
         <v>124</v>
@@ -10133,7 +10128,7 @@
       <c r="M8" s="29"/>
       <c r="N8" s="29"/>
     </row>
-    <row r="9" spans="1:14" ht="16">
+    <row r="9" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" s="26"/>
       <c r="B9" s="28"/>
       <c r="C9" s="27" t="s">
@@ -10162,7 +10157,7 @@
       <c r="M9" s="29"/>
       <c r="N9" s="29"/>
     </row>
-    <row r="10" spans="1:14" ht="16">
+    <row r="10" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
       <c r="B10" s="28"/>
       <c r="C10" s="27" t="s">
@@ -10191,7 +10186,7 @@
       <c r="M10" s="29"/>
       <c r="N10" s="29"/>
     </row>
-    <row r="11" spans="1:14" ht="16">
+    <row r="11" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="28"/>
       <c r="C11" s="27" t="s">
@@ -10220,7 +10215,7 @@
       <c r="M11" s="29"/>
       <c r="N11" s="29"/>
     </row>
-    <row r="12" spans="1:14" ht="16">
+    <row r="12" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="28"/>
       <c r="C12" s="27" t="s">
@@ -10248,7 +10243,7 @@
       <c r="M12" s="29"/>
       <c r="N12" s="29"/>
     </row>
-    <row r="13" spans="1:14" ht="16">
+    <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="28"/>
       <c r="C13" s="27" t="s">
@@ -10276,7 +10271,7 @@
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
     </row>
-    <row r="14" spans="1:14" ht="16">
+    <row r="14" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="28"/>
       <c r="C14" s="27" t="s">
@@ -10306,7 +10301,7 @@
       </c>
       <c r="N14" s="29"/>
     </row>
-    <row r="15" spans="1:14" ht="16">
+    <row r="15" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="28"/>
       <c r="C15" s="27" t="s">
@@ -10336,7 +10331,7 @@
       </c>
       <c r="N15" s="29"/>
     </row>
-    <row r="16" spans="1:14" ht="32">
+    <row r="16" spans="1:14" ht="34" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="28"/>
       <c r="C16" s="27" t="s">
@@ -10362,7 +10357,7 @@
       <c r="M16" s="29"/>
       <c r="N16" s="29"/>
     </row>
-    <row r="17" spans="1:18" ht="16">
+    <row r="17" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="28"/>
       <c r="F17" s="31"/>
@@ -10375,7 +10370,7 @@
       <c r="M17" s="29"/>
       <c r="N17" s="29"/>
     </row>
-    <row r="18" spans="1:18" ht="16">
+    <row r="18" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="28" t="s">
         <v>123</v>
@@ -10404,7 +10399,7 @@
       <c r="M18" s="29"/>
       <c r="N18" s="29"/>
     </row>
-    <row r="19" spans="1:18" ht="16">
+    <row r="19" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
       <c r="C19" s="27" t="s">
         <v>16</v>
@@ -10433,7 +10428,7 @@
       <c r="M19" s="29"/>
       <c r="N19" s="29"/>
     </row>
-    <row r="20" spans="1:18" ht="32">
+    <row r="20" spans="1:18" ht="34" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="C20" s="27" t="s">
         <v>16</v>
@@ -10464,7 +10459,7 @@
       <c r="Q20" s="29"/>
       <c r="R20" s="29"/>
     </row>
-    <row r="21" spans="1:18" ht="16">
+    <row r="21" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
       <c r="B21" s="28"/>
       <c r="C21" s="25" t="s">
@@ -10496,7 +10491,7 @@
       <c r="Q21" s="29"/>
       <c r="R21" s="29"/>
     </row>
-    <row r="22" spans="1:18" ht="16">
+    <row r="22" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="27"/>
       <c r="C22" s="25"/>
@@ -10515,7 +10510,7 @@
       <c r="Q22" s="29"/>
       <c r="R22" s="29"/>
     </row>
-    <row r="23" spans="1:18" ht="16">
+    <row r="23" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>23</v>
       </c>
@@ -10533,7 +10528,7 @@
       <c r="Q23" s="29"/>
       <c r="R23" s="29"/>
     </row>
-    <row r="24" spans="1:18" ht="16">
+    <row r="24" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>64</v>
       </c>
@@ -10568,7 +10563,7 @@
       <c r="Q24" s="29"/>
       <c r="R24" s="29"/>
     </row>
-    <row r="25" spans="1:18" ht="16">
+    <row r="25" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="C25" s="8" t="s">
         <v>162</v>
@@ -10599,7 +10594,7 @@
       <c r="Q25" s="29"/>
       <c r="R25" s="29"/>
     </row>
-    <row r="26" spans="1:18" ht="16">
+    <row r="26" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
       <c r="C26" s="30" t="s">
         <v>140</v>
@@ -10626,7 +10621,7 @@
       <c r="Q26" s="29"/>
       <c r="R26" s="29"/>
     </row>
-    <row r="27" spans="1:18" ht="16">
+    <row r="27" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="7"/>
       <c r="C27" s="8" t="s">
@@ -10654,7 +10649,7 @@
       <c r="Q27" s="29"/>
       <c r="R27" s="29"/>
     </row>
-    <row r="28" spans="1:18" ht="16">
+    <row r="28" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="F28" s="31"/>
       <c r="G28" s="19"/>
@@ -10670,7 +10665,7 @@
       <c r="Q28" s="29"/>
       <c r="R28" s="29"/>
     </row>
-    <row r="29" spans="1:18" ht="16">
+    <row r="29" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>24</v>
       </c>
@@ -10705,7 +10700,7 @@
       <c r="Q29" s="29"/>
       <c r="R29" s="29"/>
     </row>
-    <row r="30" spans="1:18" ht="16">
+    <row r="30" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
       <c r="C30" s="8" t="s">
         <v>16</v>
@@ -10738,7 +10733,7 @@
       <c r="Q30" s="29"/>
       <c r="R30" s="29"/>
     </row>
-    <row r="31" spans="1:18" ht="16">
+    <row r="31" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A31" s="32"/>
       <c r="C31" s="30" t="s">
         <v>158</v>
@@ -10770,7 +10765,7 @@
       <c r="Q31" s="29"/>
       <c r="R31" s="29"/>
     </row>
-    <row r="32" spans="1:18" ht="16">
+    <row r="32" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A32" s="32"/>
       <c r="B32" s="7"/>
       <c r="C32" s="30" t="s">
@@ -10804,7 +10799,7 @@
       <c r="Q32" s="29"/>
       <c r="R32" s="29"/>
     </row>
-    <row r="33" spans="1:18" ht="16">
+    <row r="33" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A33" s="32"/>
       <c r="B33" s="7"/>
       <c r="C33" s="30" t="s">
@@ -10836,7 +10831,7 @@
       <c r="Q33" s="29"/>
       <c r="R33" s="29"/>
     </row>
-    <row r="34" spans="1:18" ht="16">
+    <row r="34" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A34" s="32"/>
       <c r="B34" s="7"/>
       <c r="C34" s="30" t="s">
@@ -10868,7 +10863,7 @@
       <c r="Q34" s="29"/>
       <c r="R34" s="29"/>
     </row>
-    <row r="35" spans="1:18" ht="16">
+    <row r="35" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" s="32"/>
       <c r="B35" s="7"/>
       <c r="C35" s="30" t="s">
@@ -10902,7 +10897,7 @@
       <c r="Q35" s="29"/>
       <c r="R35" s="29"/>
     </row>
-    <row r="36" spans="1:18" ht="16">
+    <row r="36" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A36" s="32"/>
       <c r="B36" s="7"/>
       <c r="C36" s="30" t="s">
@@ -10936,7 +10931,7 @@
       <c r="Q36" s="29"/>
       <c r="R36" s="29"/>
     </row>
-    <row r="37" spans="1:18" ht="16">
+    <row r="37" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="C37" s="8" t="s">
         <v>158</v>
@@ -10967,7 +10962,7 @@
       <c r="Q37" s="29"/>
       <c r="R37" s="29"/>
     </row>
-    <row r="38" spans="1:18" ht="16">
+    <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="C38" s="8" t="s">
         <v>163</v>
       </c>
@@ -10995,7 +10990,7 @@
       <c r="Q38" s="29"/>
       <c r="R38" s="29"/>
     </row>
-    <row r="39" spans="1:18" ht="16">
+    <row r="39" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="10" t="s">
         <v>25</v>
@@ -11033,7 +11028,7 @@
       <c r="Q39" s="29"/>
       <c r="R39" s="29"/>
     </row>
-    <row r="40" spans="1:18" ht="16">
+    <row r="40" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="27"/>
       <c r="C40" s="8" t="s">
@@ -11067,7 +11062,7 @@
       <c r="Q40" s="29"/>
       <c r="R40" s="29"/>
     </row>
-    <row r="41" spans="1:18" ht="16">
+    <row r="41" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="27"/>
       <c r="C41" s="8" t="s">
@@ -11095,7 +11090,7 @@
       <c r="Q41" s="29"/>
       <c r="R41" s="29"/>
     </row>
-    <row r="42" spans="1:18" ht="16">
+    <row r="42" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="27"/>
       <c r="C42" s="8" t="s">
@@ -11127,7 +11122,7 @@
       <c r="Q42" s="29"/>
       <c r="R42" s="29"/>
     </row>
-    <row r="43" spans="1:18" ht="16">
+    <row r="43" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="27"/>
       <c r="C43" s="8" t="s">
@@ -11160,7 +11155,7 @@
       <c r="Q43" s="29"/>
       <c r="R43" s="29"/>
     </row>
-    <row r="44" spans="1:18" ht="16">
+    <row r="44" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A44" s="32" t="s">
         <v>275</v>
       </c>
@@ -11179,7 +11174,7 @@
       <c r="Q44" s="29"/>
       <c r="R44" s="29"/>
     </row>
-    <row r="45" spans="1:18" ht="16">
+    <row r="45" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="27" t="s">
         <v>173</v>
@@ -11215,7 +11210,7 @@
       <c r="Q45" s="29"/>
       <c r="R45" s="29"/>
     </row>
-    <row r="46" spans="1:18" ht="16">
+    <row r="46" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="27"/>
       <c r="C46" s="25" t="s">
@@ -11247,7 +11242,7 @@
       <c r="Q46" s="29"/>
       <c r="R46" s="29"/>
     </row>
-    <row r="47" spans="1:18" ht="16">
+    <row r="47" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="27"/>
       <c r="C47" s="25" t="s">
@@ -11279,7 +11274,7 @@
       <c r="Q47" s="29"/>
       <c r="R47" s="29"/>
     </row>
-    <row r="48" spans="1:18" ht="16">
+    <row r="48" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="27" t="s">
         <v>174</v>
@@ -11315,7 +11310,7 @@
       <c r="Q48" s="29"/>
       <c r="R48" s="29"/>
     </row>
-    <row r="49" spans="1:18" ht="16">
+    <row r="49" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A49" s="32"/>
       <c r="C49" s="25" t="s">
         <v>163</v>
@@ -11346,7 +11341,7 @@
       <c r="Q49" s="29"/>
       <c r="R49" s="29"/>
     </row>
-    <row r="50" spans="1:18" ht="15" customHeight="1">
+    <row r="50" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" s="25" t="s">
         <v>20</v>
       </c>
@@ -11376,7 +11371,7 @@
       <c r="Q50" s="29"/>
       <c r="R50" s="29"/>
     </row>
-    <row r="51" spans="1:18" ht="16">
+    <row r="51" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="27" t="s">
         <v>21</v>
@@ -11412,7 +11407,7 @@
       <c r="Q51" s="29"/>
       <c r="R51" s="29"/>
     </row>
-    <row r="52" spans="1:18" ht="16">
+    <row r="52" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="27"/>
       <c r="C52" s="25" t="s">
@@ -11446,7 +11441,7 @@
       <c r="Q52" s="29"/>
       <c r="R52" s="29"/>
     </row>
-    <row r="53" spans="1:18" ht="16">
+    <row r="53" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="27"/>
       <c r="C53" s="25" t="s">
@@ -11480,7 +11475,7 @@
       <c r="Q53" s="29"/>
       <c r="R53" s="29"/>
     </row>
-    <row r="54" spans="1:18" ht="16">
+    <row r="54" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="27"/>
       <c r="C54" s="25" t="s">
@@ -11512,7 +11507,7 @@
       <c r="Q54" s="29"/>
       <c r="R54" s="29"/>
     </row>
-    <row r="55" spans="1:18" ht="16">
+    <row r="55" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="C55" s="25" t="s">
         <v>158</v>
       </c>
@@ -11544,7 +11539,7 @@
       <c r="Q55" s="29"/>
       <c r="R55" s="29"/>
     </row>
-    <row r="56" spans="1:18" ht="15" customHeight="1">
+    <row r="56" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56" s="25" t="s">
         <v>158</v>
       </c>
@@ -11576,7 +11571,7 @@
       <c r="Q56" s="29"/>
       <c r="R56" s="29"/>
     </row>
-    <row r="57" spans="1:18" ht="15" customHeight="1">
+    <row r="57" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="27"/>
       <c r="C57" s="25"/>
       <c r="D57" s="31"/>
@@ -11595,7 +11590,7 @@
       <c r="Q57" s="29"/>
       <c r="R57" s="29"/>
     </row>
-    <row r="58" spans="1:18" ht="16">
+    <row r="58" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
         <v>28</v>
       </c>
@@ -11617,7 +11612,7 @@
       <c r="Q58" s="29"/>
       <c r="R58" s="29"/>
     </row>
-    <row r="59" spans="1:18" ht="16">
+    <row r="59" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A59" s="32"/>
       <c r="B59" s="14" t="s">
         <v>21</v>
@@ -11653,7 +11648,7 @@
       <c r="Q59" s="29"/>
       <c r="R59" s="29"/>
     </row>
-    <row r="60" spans="1:18" ht="16">
+    <row r="60" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A60" s="32"/>
       <c r="B60" s="14"/>
       <c r="C60" s="27" t="s">
@@ -11685,7 +11680,7 @@
       <c r="Q60" s="29"/>
       <c r="R60" s="29"/>
     </row>
-    <row r="61" spans="1:18" ht="16">
+    <row r="61" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A61" s="32"/>
       <c r="C61" s="27" t="s">
         <v>20</v>
@@ -11716,7 +11711,7 @@
       <c r="Q61" s="29"/>
       <c r="R61" s="29"/>
     </row>
-    <row r="62" spans="1:18" ht="16">
+    <row r="62" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A62" s="32"/>
       <c r="B62" s="14"/>
       <c r="C62" s="27" t="s">
@@ -11748,7 +11743,7 @@
       <c r="Q62" s="29"/>
       <c r="R62" s="29"/>
     </row>
-    <row r="63" spans="1:18" ht="16">
+    <row r="63" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A63" s="32"/>
       <c r="B63" s="14"/>
       <c r="C63" s="27"/>
@@ -11764,7 +11759,7 @@
       <c r="M63" s="29"/>
       <c r="N63" s="29"/>
     </row>
-    <row r="64" spans="1:18" ht="16">
+    <row r="64" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="C64" s="27"/>
       <c r="G64" s="27"/>
       <c r="H64" s="31"/>
@@ -11775,7 +11770,7 @@
       <c r="M64" s="29"/>
       <c r="N64" s="29"/>
     </row>
-    <row r="65" spans="1:13" s="27" customFormat="1" ht="16">
+    <row r="65" spans="1:13" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
         <v>30</v>
       </c>
@@ -11790,7 +11785,7 @@
       <c r="L65" s="30"/>
       <c r="M65" s="30"/>
     </row>
-    <row r="66" spans="1:13" s="27" customFormat="1" ht="32">
+    <row r="66" spans="1:13" s="27" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A66" s="18"/>
       <c r="B66" s="19" t="s">
         <v>31</v>
@@ -11802,7 +11797,7 @@
       <c r="H66" s="31"/>
       <c r="I66" s="16"/>
     </row>
-    <row r="67" spans="1:13" s="27" customFormat="1" ht="32">
+    <row r="67" spans="1:13" s="27" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="B67" s="19" t="s">
         <v>33</v>
       </c>
@@ -11813,7 +11808,7 @@
       <c r="H67" s="31"/>
       <c r="I67" s="16"/>
     </row>
-    <row r="68" spans="1:13" s="27" customFormat="1" ht="32">
+    <row r="68" spans="1:13" s="27" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A68" s="26"/>
       <c r="B68" s="19" t="s">
         <v>34</v>
@@ -11825,7 +11820,7 @@
       <c r="H68" s="31"/>
       <c r="I68" s="16"/>
     </row>
-    <row r="69" spans="1:13" s="27" customFormat="1" ht="16">
+    <row r="69" spans="1:13" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B69" s="27" t="s">
         <v>39</v>
       </c>
@@ -11833,7 +11828,7 @@
       <c r="H69" s="31"/>
       <c r="I69" s="16"/>
     </row>
-    <row r="70" spans="1:13" s="27" customFormat="1" ht="16">
+    <row r="70" spans="1:13" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B70" s="19" t="s">
         <v>35</v>
       </c>
@@ -11841,7 +11836,7 @@
       <c r="H70" s="31"/>
       <c r="I70" s="16"/>
     </row>
-    <row r="71" spans="1:13" s="27" customFormat="1" ht="16">
+    <row r="71" spans="1:13" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B71" s="19" t="s">
         <v>37</v>
       </c>
@@ -11850,7 +11845,7 @@
       <c r="H71" s="31"/>
       <c r="I71" s="16"/>
     </row>
-    <row r="72" spans="1:13" s="27" customFormat="1" ht="16">
+    <row r="72" spans="1:13" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B72" s="14" t="s">
         <v>38</v>
       </c>
@@ -11859,13 +11854,13 @@
       <c r="H72" s="31"/>
       <c r="I72" s="16"/>
     </row>
-    <row r="73" spans="1:13" s="27" customFormat="1" ht="16">
+    <row r="73" spans="1:13" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="F73" s="16"/>
       <c r="G73" s="19"/>
       <c r="H73" s="31"/>
       <c r="I73" s="16"/>
     </row>
-    <row r="74" spans="1:13" s="27" customFormat="1" ht="16">
+    <row r="74" spans="1:13" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B74" s="19" t="s">
         <v>36</v>
       </c>
@@ -11880,7 +11875,7 @@
       <c r="H74" s="31"/>
       <c r="I74" s="16"/>
     </row>
-    <row r="75" spans="1:13" s="27" customFormat="1" ht="16">
+    <row r="75" spans="1:13" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B75" s="19"/>
       <c r="C75" s="27" t="s">
         <v>180</v>
@@ -11896,7 +11891,7 @@
       <c r="H75" s="31"/>
       <c r="I75" s="16"/>
     </row>
-    <row r="76" spans="1:13" s="27" customFormat="1" ht="16">
+    <row r="76" spans="1:13" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B76" s="19"/>
       <c r="D76" s="31" t="s">
         <v>117</v>
@@ -11909,7 +11904,7 @@
       <c r="H76" s="31"/>
       <c r="I76" s="16"/>
     </row>
-    <row r="77" spans="1:13" s="27" customFormat="1" ht="16">
+    <row r="77" spans="1:13" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B77" s="19"/>
       <c r="D77" s="31" t="s">
         <v>118</v>
@@ -11922,7 +11917,7 @@
       <c r="H77" s="31"/>
       <c r="I77" s="16"/>
     </row>
-    <row r="78" spans="1:13" s="27" customFormat="1" ht="16">
+    <row r="78" spans="1:13" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B78" s="19"/>
       <c r="D78" s="31" t="s">
         <v>127</v>
@@ -11935,13 +11930,13 @@
       <c r="H78" s="31"/>
       <c r="I78" s="16"/>
     </row>
-    <row r="79" spans="1:13" s="27" customFormat="1" ht="16">
+    <row r="79" spans="1:13" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="F79" s="16"/>
       <c r="G79" s="19"/>
       <c r="H79" s="31"/>
       <c r="I79" s="16"/>
     </row>
-    <row r="80" spans="1:13" s="27" customFormat="1" ht="16">
+    <row r="80" spans="1:13" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B80" s="27" t="s">
         <v>0</v>
       </c>
@@ -11956,7 +11951,7 @@
       <c r="H80" s="31"/>
       <c r="I80" s="16"/>
     </row>
-    <row r="81" spans="2:9" s="27" customFormat="1" ht="16">
+    <row r="81" spans="2:9" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B81" s="27" t="s">
         <v>1</v>
       </c>
@@ -11965,13 +11960,13 @@
       <c r="H81" s="31"/>
       <c r="I81" s="16"/>
     </row>
-    <row r="82" spans="2:9" s="27" customFormat="1" ht="16">
+    <row r="82" spans="2:9" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="F82" s="16"/>
       <c r="G82" s="19"/>
       <c r="H82" s="31"/>
       <c r="I82" s="16"/>
     </row>
-    <row r="83" spans="2:9" s="27" customFormat="1" ht="16">
+    <row r="83" spans="2:9" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B83" s="27" t="s">
         <v>40</v>
       </c>
@@ -11983,7 +11978,7 @@
       <c r="H83" s="31"/>
       <c r="I83" s="16"/>
     </row>
-    <row r="84" spans="2:9" s="27" customFormat="1" ht="16">
+    <row r="84" spans="2:9" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="D84" s="27" t="s">
         <v>104</v>
       </c>
@@ -11992,7 +11987,7 @@
       <c r="H84" s="31"/>
       <c r="I84" s="16"/>
     </row>
-    <row r="85" spans="2:9" s="27" customFormat="1" ht="16">
+    <row r="85" spans="2:9" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B85" s="27" t="s">
         <v>41</v>
       </c>
@@ -12001,13 +11996,13 @@
       <c r="H85" s="31"/>
       <c r="I85" s="16"/>
     </row>
-    <row r="86" spans="2:9" s="27" customFormat="1" ht="16">
+    <row r="86" spans="2:9" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="F86" s="16"/>
       <c r="G86" s="20"/>
       <c r="H86" s="31"/>
       <c r="I86" s="24"/>
     </row>
-    <row r="87" spans="2:9" s="27" customFormat="1" ht="16">
+    <row r="87" spans="2:9" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B87" s="21" t="s">
         <v>42</v>
       </c>
@@ -12033,7 +12028,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="2:9" ht="16">
+    <row r="88" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B88" s="33"/>
       <c r="C88" s="33"/>
       <c r="D88" s="33" t="s">
@@ -12051,7 +12046,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="16">
+    <row r="89" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B89" s="33"/>
       <c r="C89" s="33"/>
       <c r="D89" s="33" t="s">
@@ -12071,7 +12066,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="16">
+    <row r="90" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B90" s="33"/>
       <c r="C90" s="33"/>
       <c r="D90" s="33" t="s">
@@ -12089,7 +12084,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="91" spans="2:9" ht="16">
+    <row r="91" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B91" s="33"/>
       <c r="C91" s="33"/>
       <c r="D91" s="33" t="s">
@@ -12107,7 +12102,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="16">
+    <row r="92" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B92" s="33"/>
       <c r="C92" s="33"/>
       <c r="D92" s="33" t="s">
@@ -12125,7 +12120,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="2:9" ht="16">
+    <row r="93" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B93" s="34"/>
       <c r="C93" s="33"/>
       <c r="D93" s="33" t="s">
@@ -12143,7 +12138,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="2:9" ht="16">
+    <row r="94" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B94" s="33"/>
       <c r="C94" s="33"/>
       <c r="D94" s="33" t="s">
@@ -12159,7 +12154,7 @@
       <c r="H94" s="33"/>
       <c r="I94" s="34"/>
     </row>
-    <row r="95" spans="2:9" ht="16">
+    <row r="95" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B95" s="33"/>
       <c r="C95" s="33"/>
       <c r="D95" s="33" t="s">
@@ -12177,7 +12172,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="96" spans="2:9" ht="16">
+    <row r="96" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B96" s="33"/>
       <c r="C96" s="33"/>
       <c r="D96" s="33" t="s">
@@ -12195,7 +12190,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="16">
+    <row r="97" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B97" s="33"/>
       <c r="C97" s="33"/>
       <c r="D97" s="33" t="s">
@@ -12213,7 +12208,7 @@
       </c>
       <c r="I97" s="34"/>
     </row>
-    <row r="98" spans="2:9" ht="16">
+    <row r="98" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B98" s="33"/>
       <c r="C98" s="33"/>
       <c r="D98" s="33" t="s">
@@ -12229,7 +12224,7 @@
       <c r="H98" s="33"/>
       <c r="I98" s="34"/>
     </row>
-    <row r="99" spans="2:9" ht="16">
+    <row r="99" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B99" s="33"/>
       <c r="C99" s="33"/>
       <c r="D99" s="33"/>
@@ -12239,7 +12234,7 @@
       <c r="H99" s="33"/>
       <c r="I99" s="34"/>
     </row>
-    <row r="100" spans="2:9" ht="16">
+    <row r="100" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B100" s="33"/>
       <c r="C100" s="33"/>
       <c r="D100" s="33"/>
@@ -12249,7 +12244,7 @@
       <c r="H100" s="33"/>
       <c r="I100" s="34"/>
     </row>
-    <row r="101" spans="2:9" ht="16">
+    <row r="101" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B101" s="33"/>
       <c r="C101" s="33"/>
       <c r="D101" s="33"/>
@@ -12259,7 +12254,7 @@
       <c r="H101" s="33"/>
       <c r="I101" s="34"/>
     </row>
-    <row r="102" spans="2:9" ht="16">
+    <row r="102" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B102" s="33"/>
       <c r="C102" s="33"/>
       <c r="D102" s="33"/>
@@ -12269,7 +12264,7 @@
       <c r="H102" s="33"/>
       <c r="I102" s="34"/>
     </row>
-    <row r="103" spans="2:9" ht="16">
+    <row r="103" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B103" s="33"/>
       <c r="C103" s="33"/>
       <c r="D103" s="33"/>
@@ -12282,87 +12277,87 @@
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="C73:F74 J91:XFD93 E83:F83 E84:XFD84 A83:D84 I91:I92 B80:B82 A91:H93 A94:XFD94 B8:B18 C3:E11 C11:F11 F14:F17 C12:C15 A69:D70 B71:D72 F69:F72 C75:C78 C37 A44:C44 F8:F12 E75:F78 E31:E33 C38:E38 B39:E40 E37 E44 A51:E55 A45:E48 A49:A50 A56 C49:E50 C56:E56 A65:F68 A64:C64 F64 B74:B78 A71:A82 C79:F82 G71:XFD83 A85:XFD90 A96:XFD1048576 A95:H95 J95:XFD95 A57:F58 G19:G21 B32:C33 C31 B21:B28 G26:H28 C18:E27 B29:E30 A8:A43 H25 H63:XFD70 B34:E36 A63:F63 A59:E62 J8:XFD11 S20:XFD62 J43:K43 L31:R31 J31 A1:XFD7 G8:H10 G11:G17 I12:XFD16 H11:H16 H17:XFD19 H19:H23 B42:E43 E41 B41:C41 H29:H62">
-    <cfRule type="cellIs" dxfId="174" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="33" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="173" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="17" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:D78">
-    <cfRule type="cellIs" dxfId="172" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="16" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D33">
-    <cfRule type="cellIs" dxfId="171" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="14" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="170" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="13" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="169" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="12" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="168" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="11" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="167" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="10" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G70">
-    <cfRule type="cellIs" dxfId="166" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="9" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:F34">
-    <cfRule type="cellIs" dxfId="165" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="8" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:F56">
-    <cfRule type="cellIs" dxfId="164" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="7" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59:F62">
-    <cfRule type="cellIs" dxfId="163" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="6" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:R62 L43:R43 I20:R30 I31 I32:R34 I37:R38 J35:R36 I40:R42 J39:R39">
-    <cfRule type="cellIs" dxfId="162" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="5" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="161" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="4" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:I36">
-    <cfRule type="cellIs" dxfId="160" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="3" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="cellIs" dxfId="159" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="158" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12397,9 +12392,6 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -12412,7 +12404,7 @@
       <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.1640625" style="40" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="40" customWidth="1"/>
@@ -12424,7 +12416,7 @@
     <col min="15" max="16384" width="10.1640625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16">
+    <row r="1" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A1" s="20"/>
       <c r="B1" s="36" t="s">
         <v>2</v>
@@ -12466,7 +12458,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16">
+    <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>14</v>
       </c>
@@ -12500,7 +12492,7 @@
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
     </row>
-    <row r="3" spans="1:14" ht="16">
+    <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="38"/>
       <c r="C3" s="20" t="s">
@@ -12530,7 +12522,7 @@
       <c r="M3" s="20"/>
       <c r="N3" s="20"/>
     </row>
-    <row r="4" spans="1:14" ht="16">
+    <row r="4" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="36"/>
       <c r="B4" s="38"/>
       <c r="C4" s="20" t="s">
@@ -12560,7 +12552,7 @@
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
     </row>
-    <row r="5" spans="1:14" ht="16">
+    <row r="5" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="B5" s="38"/>
       <c r="C5" s="20" t="s">
@@ -12590,7 +12582,7 @@
       <c r="M5" s="20"/>
       <c r="N5" s="20"/>
     </row>
-    <row r="6" spans="1:14" ht="16">
+    <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="38"/>
       <c r="C6" s="20" t="s">
@@ -12618,7 +12610,7 @@
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
     </row>
-    <row r="7" spans="1:14" ht="16">
+    <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="B7" s="38"/>
       <c r="C7" s="20"/>
@@ -12633,7 +12625,7 @@
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
     </row>
-    <row r="8" spans="1:14" ht="16">
+    <row r="8" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
       <c r="B8" s="38" t="s">
         <v>312</v>
@@ -12665,7 +12657,7 @@
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
     </row>
-    <row r="9" spans="1:14" ht="16">
+    <row r="9" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" s="36"/>
       <c r="B9" s="38"/>
       <c r="C9" s="20" t="s">
@@ -12697,7 +12689,7 @@
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
     </row>
-    <row r="10" spans="1:14" ht="16">
+    <row r="10" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="38"/>
       <c r="C10" s="20" t="s">
@@ -12728,7 +12720,7 @@
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
     </row>
-    <row r="11" spans="1:14" ht="16">
+    <row r="11" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" s="36"/>
       <c r="B11" s="38"/>
       <c r="C11" s="20" t="s">
@@ -12759,7 +12751,7 @@
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
     </row>
-    <row r="12" spans="1:14" ht="16">
+    <row r="12" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="38"/>
       <c r="C12" s="20"/>
@@ -12775,7 +12767,7 @@
       <c r="M12" s="20"/>
       <c r="N12" s="20"/>
     </row>
-    <row r="13" spans="1:14" ht="16">
+    <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A13" s="36"/>
       <c r="B13" s="38" t="s">
         <v>19</v>
@@ -12809,7 +12801,7 @@
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
     </row>
-    <row r="14" spans="1:14" ht="16">
+    <row r="14" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="38"/>
       <c r="C14" s="20" t="s">
@@ -12839,7 +12831,7 @@
       <c r="M14" s="20"/>
       <c r="N14" s="20"/>
     </row>
-    <row r="15" spans="1:14" ht="16">
+    <row r="15" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" s="36"/>
       <c r="B15" s="38"/>
       <c r="C15" s="25" t="s">
@@ -12869,7 +12861,7 @@
       <c r="M15" s="20"/>
       <c r="N15" s="20"/>
     </row>
-    <row r="16" spans="1:14" ht="16">
+    <row r="16" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="B16" s="38"/>
       <c r="C16" s="25" t="s">
@@ -12899,7 +12891,7 @@
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
     </row>
-    <row r="17" spans="1:14" ht="16">
+    <row r="17" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" s="36"/>
       <c r="B17" s="38"/>
       <c r="C17" s="25"/>
@@ -12915,7 +12907,7 @@
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
     </row>
-    <row r="18" spans="1:14" ht="16">
+    <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="B18" s="38" t="s">
         <v>338</v>
@@ -12947,7 +12939,7 @@
       <c r="M18" s="20"/>
       <c r="N18" s="20"/>
     </row>
-    <row r="19" spans="1:14" ht="16">
+    <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" s="36"/>
       <c r="B19" s="38"/>
       <c r="C19" s="25" t="s">
@@ -12978,7 +12970,7 @@
       <c r="M19" s="20"/>
       <c r="N19" s="20"/>
     </row>
-    <row r="20" spans="1:14" ht="16">
+    <row r="20" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
       <c r="B20" s="38"/>
       <c r="C20" s="25"/>
@@ -12994,7 +12986,7 @@
       <c r="M20" s="20"/>
       <c r="N20" s="20"/>
     </row>
-    <row r="21" spans="1:14" ht="16">
+    <row r="21" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" s="36"/>
       <c r="B21" s="38" t="s">
         <v>22</v>
@@ -13024,7 +13016,7 @@
       <c r="M21" s="20"/>
       <c r="N21" s="20"/>
     </row>
-    <row r="22" spans="1:14" ht="16">
+    <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" s="36"/>
       <c r="B22" s="38"/>
       <c r="C22" s="25" t="s">
@@ -13052,7 +13044,7 @@
       <c r="M22" s="20"/>
       <c r="N22" s="20"/>
     </row>
-    <row r="23" spans="1:14" ht="16">
+    <row r="23" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" s="36"/>
       <c r="B23" s="38"/>
       <c r="C23" s="25"/>
@@ -13065,7 +13057,7 @@
       <c r="M23" s="20"/>
       <c r="N23" s="20"/>
     </row>
-    <row r="24" spans="1:14" ht="16">
+    <row r="24" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" s="36"/>
       <c r="B24" s="38" t="s">
         <v>21</v>
@@ -13097,7 +13089,7 @@
       <c r="M24" s="20"/>
       <c r="N24" s="20"/>
     </row>
-    <row r="25" spans="1:14" ht="16">
+    <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
       <c r="B25" s="38"/>
       <c r="C25" s="25" t="s">
@@ -13119,7 +13111,7 @@
       <c r="M25" s="20"/>
       <c r="N25" s="20"/>
     </row>
-    <row r="26" spans="1:14" ht="16">
+    <row r="26" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
       <c r="B26" s="38"/>
       <c r="C26" s="25" t="s">
@@ -13149,7 +13141,7 @@
       <c r="M26" s="20"/>
       <c r="N26" s="20"/>
     </row>
-    <row r="27" spans="1:14" ht="16">
+    <row r="27" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A27" s="36"/>
       <c r="B27" s="38"/>
       <c r="C27" s="25" t="s">
@@ -13177,7 +13169,7 @@
       <c r="M27" s="20"/>
       <c r="N27" s="20"/>
     </row>
-    <row r="28" spans="1:14" ht="16">
+    <row r="28" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
       <c r="B28" s="38"/>
       <c r="C28" s="25" t="s">
@@ -13205,7 +13197,7 @@
       <c r="M28" s="20"/>
       <c r="N28" s="20"/>
     </row>
-    <row r="29" spans="1:14" ht="16">
+    <row r="29" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A29" s="36"/>
       <c r="B29" s="20"/>
       <c r="C29" s="25"/>
@@ -13221,7 +13213,7 @@
       <c r="M29" s="20"/>
       <c r="N29" s="20"/>
     </row>
-    <row r="30" spans="1:14" ht="16">
+    <row r="30" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>23</v>
       </c>
@@ -13236,7 +13228,7 @@
       <c r="M30" s="20"/>
       <c r="N30" s="20"/>
     </row>
-    <row r="31" spans="1:14" ht="16">
+    <row r="31" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>64</v>
       </c>
@@ -13269,7 +13261,7 @@
       <c r="M31" s="20"/>
       <c r="N31" s="20"/>
     </row>
-    <row r="32" spans="1:14" ht="16">
+    <row r="32" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="C32" s="41" t="s">
         <v>16</v>
@@ -13298,7 +13290,7 @@
       <c r="M32" s="20"/>
       <c r="N32" s="20"/>
     </row>
-    <row r="33" spans="1:14" ht="16">
+    <row r="33" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
       <c r="C33" s="41" t="s">
         <v>20</v>
@@ -13325,7 +13317,7 @@
       <c r="M33" s="20"/>
       <c r="N33" s="20"/>
     </row>
-    <row r="34" spans="1:14" ht="16">
+    <row r="34" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
       <c r="C34" s="41" t="s">
         <v>16</v>
@@ -13354,7 +13346,7 @@
       <c r="M34" s="20"/>
       <c r="N34" s="20"/>
     </row>
-    <row r="35" spans="1:14" ht="16">
+    <row r="35" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
       <c r="C35" s="41" t="s">
         <v>16</v>
@@ -13381,7 +13373,7 @@
       <c r="M35" s="20"/>
       <c r="N35" s="20"/>
     </row>
-    <row r="36" spans="1:14" ht="16">
+    <row r="36" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
       <c r="C36" s="41" t="s">
         <v>20</v>
@@ -13408,7 +13400,7 @@
       <c r="M36" s="20"/>
       <c r="N36" s="20"/>
     </row>
-    <row r="37" spans="1:14" ht="16">
+    <row r="37" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
       <c r="C37" s="41" t="s">
         <v>20</v>
@@ -13435,7 +13427,7 @@
       <c r="M37" s="20"/>
       <c r="N37" s="20"/>
     </row>
-    <row r="38" spans="1:14" ht="16">
+    <row r="38" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
       <c r="C38" s="41"/>
       <c r="D38" s="37"/>
@@ -13450,7 +13442,7 @@
       <c r="M38" s="20"/>
       <c r="N38" s="20"/>
     </row>
-    <row r="39" spans="1:14" ht="16">
+    <row r="39" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A39" s="39"/>
       <c r="B39" s="7" t="s">
         <v>350</v>
@@ -13482,7 +13474,7 @@
       <c r="M39" s="20"/>
       <c r="N39" s="20"/>
     </row>
-    <row r="40" spans="1:14" ht="16">
+    <row r="40" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A40" s="39"/>
       <c r="B40" s="7"/>
       <c r="C40" s="41" t="s">
@@ -13514,7 +13506,7 @@
       <c r="M40" s="20"/>
       <c r="N40" s="20"/>
     </row>
-    <row r="41" spans="1:14" ht="16">
+    <row r="41" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A41" s="39"/>
       <c r="B41" s="7"/>
       <c r="C41" s="41" t="s">
@@ -13542,7 +13534,7 @@
       <c r="M41" s="20"/>
       <c r="N41" s="20"/>
     </row>
-    <row r="42" spans="1:14" ht="16">
+    <row r="42" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A42" s="39"/>
       <c r="B42" s="7"/>
       <c r="C42" s="41" t="s">
@@ -13570,7 +13562,7 @@
       <c r="M42" s="20"/>
       <c r="N42" s="20"/>
     </row>
-    <row r="43" spans="1:14" ht="16">
+    <row r="43" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A43" s="39"/>
       <c r="B43" s="7"/>
       <c r="C43" s="41"/>
@@ -13586,7 +13578,7 @@
       <c r="M43" s="20"/>
       <c r="N43" s="20"/>
     </row>
-    <row r="44" spans="1:14" ht="16">
+    <row r="44" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A44" s="42"/>
       <c r="B44" s="43" t="s">
         <v>25</v>
@@ -13618,7 +13610,7 @@
       <c r="M44" s="20"/>
       <c r="N44" s="20"/>
     </row>
-    <row r="45" spans="1:14" ht="16">
+    <row r="45" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A45" s="42"/>
       <c r="C45" s="41"/>
       <c r="D45" s="37"/>
@@ -13632,7 +13624,7 @@
       <c r="M45" s="20"/>
       <c r="N45" s="20"/>
     </row>
-    <row r="46" spans="1:14" ht="16">
+    <row r="46" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A46" s="39" t="s">
         <v>26</v>
       </c>
@@ -13647,7 +13639,7 @@
       <c r="M46" s="20"/>
       <c r="N46" s="20"/>
     </row>
-    <row r="47" spans="1:14" ht="16">
+    <row r="47" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B47" s="20" t="s">
         <v>53</v>
       </c>
@@ -13678,7 +13670,7 @@
       <c r="M47" s="20"/>
       <c r="N47" s="20"/>
     </row>
-    <row r="48" spans="1:14" ht="16">
+    <row r="48" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A48" s="39"/>
       <c r="B48" s="20"/>
       <c r="C48" s="25" t="s">
@@ -13708,7 +13700,7 @@
       <c r="M48" s="20"/>
       <c r="N48" s="20"/>
     </row>
-    <row r="49" spans="1:14" ht="16">
+    <row r="49" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A49" s="42"/>
       <c r="B49" s="20"/>
       <c r="C49" s="25" t="s">
@@ -13738,7 +13730,7 @@
       <c r="M49" s="20"/>
       <c r="N49" s="20"/>
     </row>
-    <row r="50" spans="1:14" ht="16">
+    <row r="50" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A50" s="42"/>
       <c r="B50" s="20"/>
       <c r="C50" s="25" t="s">
@@ -13766,7 +13758,7 @@
       <c r="M50" s="20"/>
       <c r="N50" s="20"/>
     </row>
-    <row r="51" spans="1:14" ht="16">
+    <row r="51" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A51" s="42"/>
       <c r="B51" s="20"/>
       <c r="C51" s="25" t="s">
@@ -13794,7 +13786,7 @@
       <c r="M51" s="20"/>
       <c r="N51" s="20"/>
     </row>
-    <row r="52" spans="1:14" ht="16">
+    <row r="52" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A52" s="42"/>
       <c r="B52" s="20"/>
       <c r="C52" s="25" t="s">
@@ -13822,7 +13814,7 @@
       <c r="M52" s="20"/>
       <c r="N52" s="20"/>
     </row>
-    <row r="53" spans="1:14" ht="16">
+    <row r="53" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A53" s="42"/>
       <c r="B53" s="20"/>
       <c r="C53" s="25"/>
@@ -13838,7 +13830,7 @@
       <c r="M53" s="20"/>
       <c r="N53" s="20"/>
     </row>
-    <row r="54" spans="1:14" ht="16">
+    <row r="54" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A54" s="42"/>
       <c r="B54" s="20" t="s">
         <v>51</v>
@@ -13868,7 +13860,7 @@
       <c r="M54" s="20"/>
       <c r="N54" s="20"/>
     </row>
-    <row r="55" spans="1:14" ht="16">
+    <row r="55" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A55" s="39"/>
       <c r="B55" s="20"/>
       <c r="C55" s="25" t="s">
@@ -13896,7 +13888,7 @@
       <c r="M55" s="20"/>
       <c r="N55" s="20"/>
     </row>
-    <row r="56" spans="1:14" ht="16">
+    <row r="56" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A56" s="39"/>
       <c r="B56" s="20"/>
       <c r="C56" s="25" t="s">
@@ -13924,7 +13916,7 @@
       <c r="M56" s="20"/>
       <c r="N56" s="20"/>
     </row>
-    <row r="57" spans="1:14" ht="16">
+    <row r="57" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A57" s="42"/>
       <c r="B57" s="20"/>
       <c r="C57" s="25" t="s">
@@ -13952,7 +13944,7 @@
       <c r="M57" s="20"/>
       <c r="N57" s="20"/>
     </row>
-    <row r="58" spans="1:14" ht="16">
+    <row r="58" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A58" s="39"/>
       <c r="B58" s="20"/>
       <c r="C58" s="25" t="s">
@@ -13980,7 +13972,7 @@
       <c r="M58" s="20"/>
       <c r="N58" s="20"/>
     </row>
-    <row r="59" spans="1:14" ht="16">
+    <row r="59" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A59" s="39"/>
       <c r="B59" s="20"/>
       <c r="C59" s="25" t="s">
@@ -14008,7 +14000,7 @@
       <c r="M59" s="20"/>
       <c r="N59" s="20"/>
     </row>
-    <row r="60" spans="1:14" ht="16">
+    <row r="60" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A60" s="39"/>
       <c r="B60" s="20"/>
       <c r="C60" s="25" t="s">
@@ -14036,7 +14028,7 @@
       <c r="M60" s="20"/>
       <c r="N60" s="20"/>
     </row>
-    <row r="61" spans="1:14" ht="16">
+    <row r="61" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A61" s="39"/>
       <c r="B61" s="20"/>
       <c r="C61" s="25"/>
@@ -14052,7 +14044,7 @@
       <c r="M61" s="20"/>
       <c r="N61" s="20"/>
     </row>
-    <row r="62" spans="1:14" ht="16">
+    <row r="62" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A62" s="39"/>
       <c r="B62" s="20" t="s">
         <v>52</v>
@@ -14084,7 +14076,7 @@
       <c r="M62" s="20"/>
       <c r="N62" s="20"/>
     </row>
-    <row r="63" spans="1:14" ht="16">
+    <row r="63" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A63" s="39"/>
       <c r="B63" s="20"/>
       <c r="C63" s="25"/>
@@ -14100,7 +14092,7 @@
       <c r="M63" s="20"/>
       <c r="N63" s="20"/>
     </row>
-    <row r="64" spans="1:14" ht="16">
+    <row r="64" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A64" s="39"/>
       <c r="B64" s="20" t="s">
         <v>21</v>
@@ -14128,7 +14120,7 @@
       <c r="M64" s="20"/>
       <c r="N64" s="20"/>
     </row>
-    <row r="65" spans="1:14" ht="16">
+    <row r="65" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="C65" s="25" t="s">
         <v>16</v>
       </c>
@@ -14154,7 +14146,7 @@
       <c r="M65" s="20"/>
       <c r="N65" s="20"/>
     </row>
-    <row r="66" spans="1:14" ht="16">
+    <row r="66" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A66" s="39" t="s">
         <v>28</v>
       </c>
@@ -14172,7 +14164,7 @@
       <c r="M66" s="20"/>
       <c r="N66" s="20"/>
     </row>
-    <row r="67" spans="1:14" ht="16">
+    <row r="67" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A67" s="39"/>
       <c r="B67" s="46" t="s">
         <v>21</v>
@@ -14204,7 +14196,7 @@
       <c r="M67" s="20"/>
       <c r="N67" s="20"/>
     </row>
-    <row r="68" spans="1:14" ht="16">
+    <row r="68" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
       <c r="C68" s="20" t="s">
         <v>16</v>
@@ -14233,7 +14225,7 @@
       <c r="M68" s="20"/>
       <c r="N68" s="20"/>
     </row>
-    <row r="69" spans="1:14" ht="16">
+    <row r="69" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A69" s="39"/>
       <c r="B69" s="46"/>
       <c r="C69" s="20" t="s">
@@ -14255,7 +14247,7 @@
       <c r="M69" s="20"/>
       <c r="N69" s="20"/>
     </row>
-    <row r="70" spans="1:14" ht="16">
+    <row r="70" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A70" s="39"/>
       <c r="B70" s="46"/>
       <c r="C70" s="20" t="s">
@@ -14277,7 +14269,7 @@
       <c r="M70" s="20"/>
       <c r="N70" s="20"/>
     </row>
-    <row r="71" spans="1:14" ht="16">
+    <row r="71" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="C71" s="20" t="s">
         <v>533</v>
       </c>
@@ -14290,7 +14282,7 @@
       <c r="M71" s="20"/>
       <c r="N71" s="20"/>
     </row>
-    <row r="72" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="72" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
         <v>30</v>
       </c>
@@ -14308,7 +14300,7 @@
       <c r="M72" s="40"/>
       <c r="N72" s="20"/>
     </row>
-    <row r="73" spans="1:14" s="27" customFormat="1" ht="32">
+    <row r="73" spans="1:14" s="27" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A73" s="36"/>
       <c r="B73" s="19" t="s">
         <v>31</v>
@@ -14328,7 +14320,7 @@
       <c r="M73" s="20"/>
       <c r="N73" s="20"/>
     </row>
-    <row r="74" spans="1:14" s="27" customFormat="1" ht="32">
+    <row r="74" spans="1:14" s="27" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A74" s="20"/>
       <c r="B74" s="19" t="s">
         <v>33</v>
@@ -14348,7 +14340,7 @@
       <c r="M74" s="20"/>
       <c r="N74" s="20"/>
     </row>
-    <row r="75" spans="1:14" s="27" customFormat="1" ht="32">
+    <row r="75" spans="1:14" s="27" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A75" s="36"/>
       <c r="B75" s="19" t="s">
         <v>34</v>
@@ -14368,7 +14360,7 @@
       <c r="M75" s="20"/>
       <c r="N75" s="20"/>
     </row>
-    <row r="76" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="76" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A76" s="20"/>
       <c r="B76" s="20" t="s">
         <v>39</v>
@@ -14386,7 +14378,7 @@
       <c r="M76" s="20"/>
       <c r="N76" s="20"/>
     </row>
-    <row r="77" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="77" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A77" s="20"/>
       <c r="B77" s="19" t="s">
         <v>35</v>
@@ -14404,7 +14396,7 @@
       <c r="M77" s="20"/>
       <c r="N77" s="20"/>
     </row>
-    <row r="78" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="78" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A78" s="20"/>
       <c r="B78" s="19" t="s">
         <v>37</v>
@@ -14422,7 +14414,7 @@
       <c r="M78" s="20"/>
       <c r="N78" s="20"/>
     </row>
-    <row r="79" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="79" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A79" s="20"/>
       <c r="B79" s="46" t="s">
         <v>38</v>
@@ -14440,7 +14432,7 @@
       <c r="M79" s="20"/>
       <c r="N79" s="20"/>
     </row>
-    <row r="80" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="80" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A80" s="20"/>
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
@@ -14456,7 +14448,7 @@
       <c r="M80" s="20"/>
       <c r="N80" s="20"/>
     </row>
-    <row r="81" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="81" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A81" s="20"/>
       <c r="B81" s="19" t="s">
         <v>36</v>
@@ -14480,7 +14472,7 @@
       <c r="M81" s="20"/>
       <c r="N81" s="20"/>
     </row>
-    <row r="82" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="82" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A82" s="20"/>
       <c r="B82" s="19"/>
       <c r="C82" s="20"/>
@@ -14499,7 +14491,7 @@
       <c r="M82" s="20"/>
       <c r="N82" s="20"/>
     </row>
-    <row r="83" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="83" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A83" s="20"/>
       <c r="B83" s="19"/>
       <c r="C83" s="20"/>
@@ -14519,7 +14511,7 @@
       <c r="M83" s="20"/>
       <c r="N83" s="20"/>
     </row>
-    <row r="84" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="84" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A84" s="20"/>
       <c r="B84" s="19"/>
       <c r="C84" s="20"/>
@@ -14539,7 +14531,7 @@
       <c r="M84" s="20"/>
       <c r="N84" s="20"/>
     </row>
-    <row r="85" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="85" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A85" s="20"/>
       <c r="B85" s="19"/>
       <c r="C85" s="20"/>
@@ -14559,7 +14551,7 @@
       <c r="M85" s="20"/>
       <c r="N85" s="20"/>
     </row>
-    <row r="86" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="86" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A86" s="20"/>
       <c r="B86" s="19"/>
       <c r="C86" s="20"/>
@@ -14579,7 +14571,7 @@
       <c r="M86" s="20"/>
       <c r="N86" s="20"/>
     </row>
-    <row r="87" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="87" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A87" s="20"/>
       <c r="B87" s="19"/>
       <c r="C87" s="20"/>
@@ -14595,7 +14587,7 @@
       <c r="M87" s="20"/>
       <c r="N87" s="20"/>
     </row>
-    <row r="88" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="88" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A88" s="20"/>
       <c r="B88" s="20"/>
       <c r="C88" s="20"/>
@@ -14611,7 +14603,7 @@
       <c r="M88" s="20"/>
       <c r="N88" s="20"/>
     </row>
-    <row r="89" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="89" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A89" s="20"/>
       <c r="B89" s="20" t="s">
         <v>0</v>
@@ -14631,7 +14623,7 @@
       <c r="M89" s="20"/>
       <c r="N89" s="20"/>
     </row>
-    <row r="90" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="90" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A90" s="20"/>
       <c r="B90" s="20" t="s">
         <v>1</v>
@@ -14651,7 +14643,7 @@
       <c r="M90" s="20"/>
       <c r="N90" s="20"/>
     </row>
-    <row r="91" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="91" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A91" s="20"/>
       <c r="B91" s="20"/>
       <c r="C91" s="20"/>
@@ -14669,7 +14661,7 @@
       <c r="M91" s="20"/>
       <c r="N91" s="20"/>
     </row>
-    <row r="92" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="92" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A92" s="20"/>
       <c r="C92" s="20"/>
       <c r="D92" s="20" t="s">
@@ -14686,7 +14678,7 @@
       <c r="M92" s="20"/>
       <c r="N92" s="20"/>
     </row>
-    <row r="93" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="93" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A93" s="20"/>
       <c r="C93" s="20"/>
       <c r="D93" s="20" t="s">
@@ -14703,7 +14695,7 @@
       <c r="M93" s="20"/>
       <c r="N93" s="20"/>
     </row>
-    <row r="94" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="94" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A94" s="20"/>
       <c r="C94" s="20"/>
       <c r="D94" s="20" t="s">
@@ -14720,7 +14712,7 @@
       <c r="M94" s="20"/>
       <c r="N94" s="20"/>
     </row>
-    <row r="95" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="95" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A95" s="20"/>
       <c r="B95" s="20" t="s">
         <v>40</v>
@@ -14738,7 +14730,7 @@
       <c r="M95" s="20"/>
       <c r="N95" s="20"/>
     </row>
-    <row r="96" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="96" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A96" s="20"/>
       <c r="B96" s="20"/>
       <c r="C96" s="20"/>
@@ -14754,7 +14746,7 @@
       <c r="M96" s="20"/>
       <c r="N96" s="20"/>
     </row>
-    <row r="97" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="97" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A97" s="20"/>
       <c r="B97" s="20" t="s">
         <v>41</v>
@@ -14772,7 +14764,7 @@
       <c r="M97" s="20"/>
       <c r="N97" s="20"/>
     </row>
-    <row r="98" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="98" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A98" s="20"/>
       <c r="B98" s="20"/>
       <c r="C98" s="20"/>
@@ -14788,7 +14780,7 @@
       <c r="M98" s="20"/>
       <c r="N98" s="20"/>
     </row>
-    <row r="99" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="99" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A99" s="20"/>
       <c r="B99" s="49" t="s">
         <v>42</v>
@@ -14820,7 +14812,7 @@
       <c r="M99" s="20"/>
       <c r="N99" s="20"/>
     </row>
-    <row r="100" spans="1:14" ht="16">
+    <row r="100" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A100" s="30"/>
       <c r="B100" s="33"/>
       <c r="C100" s="33"/>
@@ -14844,7 +14836,7 @@
       <c r="M100" s="30"/>
       <c r="N100" s="30"/>
     </row>
-    <row r="101" spans="1:14" ht="16">
+    <row r="101" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A101" s="30"/>
       <c r="B101" s="33"/>
       <c r="C101" s="33"/>
@@ -14870,7 +14862,7 @@
       <c r="M101" s="30"/>
       <c r="N101" s="30"/>
     </row>
-    <row r="102" spans="1:14" ht="16">
+    <row r="102" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A102" s="30"/>
       <c r="B102" s="33"/>
       <c r="C102" s="33"/>
@@ -14892,7 +14884,7 @@
       <c r="M102" s="30"/>
       <c r="N102" s="30"/>
     </row>
-    <row r="103" spans="1:14" ht="16">
+    <row r="103" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A103" s="30"/>
       <c r="B103" s="49"/>
       <c r="C103" s="49"/>
@@ -14914,7 +14906,7 @@
       <c r="M103" s="30"/>
       <c r="N103" s="30"/>
     </row>
-    <row r="104" spans="1:14" ht="16">
+    <row r="104" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B104" s="49"/>
       <c r="C104" s="49"/>
       <c r="D104" s="49" t="s">
@@ -14930,7 +14922,7 @@
       <c r="H104" s="49"/>
       <c r="I104" s="49"/>
     </row>
-    <row r="105" spans="1:14" ht="16">
+    <row r="105" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A105" s="30"/>
       <c r="B105" s="49"/>
       <c r="C105" s="49"/>
@@ -14950,7 +14942,7 @@
       <c r="M105" s="30"/>
       <c r="N105" s="30"/>
     </row>
-    <row r="106" spans="1:14" ht="16">
+    <row r="106" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A106" s="30"/>
       <c r="B106" s="49"/>
       <c r="C106" s="49"/>
@@ -14970,7 +14962,7 @@
       <c r="M106" s="30"/>
       <c r="N106" s="30"/>
     </row>
-    <row r="107" spans="1:14" ht="16">
+    <row r="107" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B107" s="49"/>
       <c r="C107" s="49"/>
       <c r="D107" s="49"/>
@@ -14980,7 +14972,7 @@
       <c r="H107" s="49"/>
       <c r="I107" s="49"/>
     </row>
-    <row r="108" spans="1:14" ht="16">
+    <row r="108" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B108" s="49"/>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -14993,227 +14985,227 @@
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B81:B87 B78:B79 C78:F80 A1:XFD1 A46:F46 A45 C45:E45 A29:F30 A2:C28 A31:C38 A39:A43 C39:C43 A44:C44 A62:C62 A63:E63 A66:E66 A64:C65 A72:F77 G74:XFD80 G87:XFD94 H81:XFD86 C87:F88 C81:C86 E89:F94 C89:C94 A78:A94 A95:XFD99 A105:XFD1048576 A100:C104 I100:XFD104 A47:C54 D54:E54 F47:F54 A55:F61 I20:XFD28 I19 K19:XFD19 I10:I11 K10:K11 I12:XFD18 I9:K9 L9:XFD11 I2:XFD8 H29:XFD73 A67:C71">
-    <cfRule type="cellIs" dxfId="157" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="51" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89:B91">
-    <cfRule type="cellIs" dxfId="156" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="50" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D3 D5:D7 F2:G7">
-    <cfRule type="cellIs" dxfId="155" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="48" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="154" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="47" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:G12">
-    <cfRule type="cellIs" dxfId="153" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="46" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:G14 D13:F15 D16:H17 H13:H16">
-    <cfRule type="cellIs" dxfId="152" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="45" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="151" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="44" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="150" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="42" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25 D25:D28 D18:F22 F25:F28 H18:H28">
-    <cfRule type="cellIs" dxfId="149" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="43" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:E38">
-    <cfRule type="cellIs" dxfId="148" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="41" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39:B43">
-    <cfRule type="cellIs" dxfId="147" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="40" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:E43">
-    <cfRule type="cellIs" dxfId="146" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="39" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:E44">
-    <cfRule type="cellIs" dxfId="145" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="38" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:E53">
-    <cfRule type="cellIs" dxfId="144" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="37" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:D53">
-    <cfRule type="cellIs" dxfId="143" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="36" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:E62">
-    <cfRule type="cellIs" dxfId="142" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="34" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31:F45">
-    <cfRule type="cellIs" dxfId="141" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="33" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65:E65">
-    <cfRule type="cellIs" dxfId="140" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="31" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:D70 F70">
-    <cfRule type="cellIs" dxfId="139" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="30" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:E68">
-    <cfRule type="cellIs" dxfId="138" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="29" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="137" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="26" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="136" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="25" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81:F81 D82 F82 D83:F86 G81:G86">
-    <cfRule type="cellIs" dxfId="135" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="24" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89 D91:D94">
-    <cfRule type="cellIs" dxfId="134" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="23" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100:H104">
-    <cfRule type="cellIs" dxfId="133" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="22" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F69">
-    <cfRule type="cellIs" dxfId="132" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="21" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:G73">
-    <cfRule type="cellIs" dxfId="131" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="20" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H12">
-    <cfRule type="cellIs" dxfId="130" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="18" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H16">
-    <cfRule type="cellIs" dxfId="129" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="17" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="128" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="16" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="127" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="15" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="126" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="14" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="125" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="13" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="124" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="12" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="123" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="11" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="122" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="10" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="121" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="9" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="120" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="8" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="119" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="7" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="118" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="6" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="117" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="5" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="116" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="4" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="115" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="3" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="114" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="113" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15248,9 +15240,6 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -15263,7 +15252,7 @@
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.1640625" style="40" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="40" customWidth="1"/>
@@ -15275,7 +15264,7 @@
     <col min="15" max="16384" width="10.1640625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16">
+    <row r="1" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A1" s="20"/>
       <c r="B1" s="36" t="s">
         <v>2</v>
@@ -15317,7 +15306,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16">
+    <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>14</v>
       </c>
@@ -15335,7 +15324,7 @@
       <c r="M2" s="19"/>
       <c r="N2" s="19"/>
     </row>
-    <row r="3" spans="1:14" ht="16">
+    <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="20" t="s">
         <v>15</v>
@@ -15369,7 +15358,7 @@
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
     </row>
-    <row r="4" spans="1:14" ht="16">
+    <row r="4" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="36"/>
       <c r="B4" s="20"/>
       <c r="C4" s="20" t="s">
@@ -15401,7 +15390,7 @@
       <c r="M4" s="19"/>
       <c r="N4" s="19"/>
     </row>
-    <row r="5" spans="1:14" ht="16">
+    <row r="5" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="B5" s="20"/>
       <c r="C5" s="20" t="s">
@@ -15431,7 +15420,7 @@
       <c r="M5" s="19"/>
       <c r="N5" s="19"/>
     </row>
-    <row r="6" spans="1:14" ht="16">
+    <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20" t="s">
@@ -15461,7 +15450,7 @@
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
     </row>
-    <row r="7" spans="1:14" ht="16">
+    <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="B7" s="38"/>
       <c r="H7" s="37"/>
@@ -15472,7 +15461,7 @@
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
     </row>
-    <row r="8" spans="1:14" ht="16">
+    <row r="8" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
       <c r="B8" s="38" t="s">
         <v>451</v>
@@ -15504,7 +15493,7 @@
       <c r="M8" s="19"/>
       <c r="N8" s="19"/>
     </row>
-    <row r="9" spans="1:14" ht="16">
+    <row r="9" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" s="36"/>
       <c r="B9" s="38"/>
       <c r="C9" s="20"/>
@@ -15520,7 +15509,7 @@
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
     </row>
-    <row r="10" spans="1:14" ht="16">
+    <row r="10" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="38" t="s">
         <v>441</v>
@@ -15552,7 +15541,7 @@
       <c r="M10" s="19"/>
       <c r="N10" s="19"/>
     </row>
-    <row r="11" spans="1:14" ht="16">
+    <row r="11" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" s="36"/>
       <c r="B11" s="30"/>
       <c r="C11" s="20" t="s">
@@ -15582,7 +15571,7 @@
       </c>
       <c r="N11" s="19"/>
     </row>
-    <row r="12" spans="1:14" ht="16">
+    <row r="12" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="C12" s="20" t="s">
         <v>498</v>
@@ -15609,7 +15598,7 @@
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
     </row>
-    <row r="13" spans="1:14" ht="16">
+    <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A13" s="36"/>
       <c r="B13" s="38"/>
       <c r="C13" s="20"/>
@@ -15624,7 +15613,7 @@
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
     </row>
-    <row r="14" spans="1:14" ht="16">
+    <row r="14" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="38" t="s">
         <v>21</v>
@@ -15660,7 +15649,7 @@
       </c>
       <c r="N14" s="19"/>
     </row>
-    <row r="15" spans="1:14" ht="16">
+    <row r="15" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" s="36"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20" t="s">
@@ -15698,7 +15687,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="16">
+    <row r="16" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="C16" s="20" t="s">
         <v>16</v>
@@ -15727,7 +15716,7 @@
       <c r="M16" s="19"/>
       <c r="N16" s="19"/>
     </row>
-    <row r="17" spans="1:14" ht="16">
+    <row r="17" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" s="36"/>
       <c r="B17" s="38"/>
       <c r="C17" s="20" t="s">
@@ -15756,7 +15745,7 @@
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
     </row>
-    <row r="18" spans="1:14" ht="16">
+    <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="B18" s="30"/>
       <c r="C18" s="20" t="s">
@@ -15786,7 +15775,7 @@
       </c>
       <c r="N18" s="19"/>
     </row>
-    <row r="19" spans="1:14" ht="16">
+    <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" s="36"/>
       <c r="B19" s="38"/>
       <c r="C19" s="20" t="s">
@@ -15814,7 +15803,7 @@
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
     </row>
-    <row r="20" spans="1:14" ht="16">
+    <row r="20" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
       <c r="B20" s="38"/>
       <c r="C20" s="20" t="s">
@@ -15844,7 +15833,7 @@
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
     </row>
-    <row r="21" spans="1:14" ht="48">
+    <row r="21" spans="1:14" ht="51" x14ac:dyDescent="0.25">
       <c r="A21" s="36"/>
       <c r="B21" s="38"/>
       <c r="C21" s="20" t="s">
@@ -15874,7 +15863,7 @@
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
     </row>
-    <row r="22" spans="1:14" ht="16">
+    <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" s="36"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20" t="s">
@@ -15902,7 +15891,7 @@
       <c r="M22" s="19"/>
       <c r="N22" s="19"/>
     </row>
-    <row r="23" spans="1:14" ht="16">
+    <row r="23" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" s="36"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20" t="s">
@@ -15932,7 +15921,7 @@
       <c r="M23" s="19"/>
       <c r="N23" s="19"/>
     </row>
-    <row r="24" spans="1:14" ht="16">
+    <row r="24" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" s="36"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20" t="s">
@@ -15962,7 +15951,7 @@
       <c r="M24" s="19"/>
       <c r="N24" s="19"/>
     </row>
-    <row r="25" spans="1:14" ht="16">
+    <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20" t="s">
@@ -15992,7 +15981,7 @@
       <c r="M25" s="19"/>
       <c r="N25" s="19"/>
     </row>
-    <row r="26" spans="1:14" ht="16">
+    <row r="26" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20" t="s">
@@ -16022,7 +16011,7 @@
       <c r="M26" s="19"/>
       <c r="N26" s="19"/>
     </row>
-    <row r="27" spans="1:14" ht="16">
+    <row r="27" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A27" s="36"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20" t="s">
@@ -16052,7 +16041,7 @@
       <c r="M27" s="19"/>
       <c r="N27" s="19"/>
     </row>
-    <row r="28" spans="1:14" ht="16">
+    <row r="28" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
@@ -16068,7 +16057,7 @@
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
     </row>
-    <row r="29" spans="1:14" ht="16">
+    <row r="29" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>23</v>
       </c>
@@ -16083,7 +16072,7 @@
       <c r="M29" s="19"/>
       <c r="N29" s="19"/>
     </row>
-    <row r="30" spans="1:14" ht="16">
+    <row r="30" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>64</v>
       </c>
@@ -16114,7 +16103,7 @@
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
     </row>
-    <row r="31" spans="1:14" ht="16">
+    <row r="31" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
       <c r="C31" s="41" t="s">
         <v>16</v>
@@ -16143,7 +16132,7 @@
       <c r="M31" s="19"/>
       <c r="N31" s="19"/>
     </row>
-    <row r="32" spans="1:14" ht="16">
+    <row r="32" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="C32" s="41" t="s">
         <v>16</v>
@@ -16172,7 +16161,7 @@
       <c r="M32" s="19"/>
       <c r="N32" s="19"/>
     </row>
-    <row r="33" spans="2:14" ht="16">
+    <row r="33" spans="2:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
       <c r="C33" s="41" t="s">
         <v>16</v>
@@ -16201,7 +16190,7 @@
       <c r="M33" s="19"/>
       <c r="N33" s="19"/>
     </row>
-    <row r="34" spans="2:14" ht="16">
+    <row r="34" spans="2:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
       <c r="C34" s="41" t="s">
         <v>16</v>
@@ -16232,7 +16221,7 @@
       </c>
       <c r="N34" s="19"/>
     </row>
-    <row r="35" spans="2:14" ht="16">
+    <row r="35" spans="2:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
       <c r="C35" s="41" t="s">
         <v>16</v>
@@ -16261,7 +16250,7 @@
       <c r="M35" s="19"/>
       <c r="N35" s="19"/>
     </row>
-    <row r="36" spans="2:14" ht="16">
+    <row r="36" spans="2:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
       <c r="C36" s="41" t="s">
         <v>16</v>
@@ -16290,7 +16279,7 @@
       <c r="M36" s="19"/>
       <c r="N36" s="19"/>
     </row>
-    <row r="37" spans="2:14" ht="32">
+    <row r="37" spans="2:14" ht="34" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
       <c r="C37" s="41" t="s">
         <v>16</v>
@@ -16319,7 +16308,7 @@
       <c r="M37" s="19"/>
       <c r="N37" s="19"/>
     </row>
-    <row r="38" spans="2:14" ht="16">
+    <row r="38" spans="2:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
       <c r="C38" s="41" t="s">
         <v>16</v>
@@ -16348,7 +16337,7 @@
       <c r="M38" s="19"/>
       <c r="N38" s="19"/>
     </row>
-    <row r="39" spans="2:14" ht="16">
+    <row r="39" spans="2:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
       <c r="C39" s="41" t="s">
         <v>16</v>
@@ -16379,7 +16368,7 @@
       <c r="M39" s="19"/>
       <c r="N39" s="19"/>
     </row>
-    <row r="40" spans="2:14" ht="16">
+    <row r="40" spans="2:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
       <c r="C40" s="41" t="s">
         <v>16</v>
@@ -16406,7 +16395,7 @@
       <c r="M40" s="19"/>
       <c r="N40" s="19"/>
     </row>
-    <row r="41" spans="2:14" ht="16">
+    <row r="41" spans="2:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B41" s="7"/>
       <c r="C41" s="41" t="s">
         <v>277</v>
@@ -16433,7 +16422,7 @@
       <c r="M41" s="19"/>
       <c r="N41" s="19"/>
     </row>
-    <row r="42" spans="2:14" ht="16">
+    <row r="42" spans="2:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B42" s="7"/>
       <c r="C42" s="41" t="s">
         <v>16</v>
@@ -16462,7 +16451,7 @@
       <c r="M42" s="19"/>
       <c r="N42" s="19"/>
     </row>
-    <row r="43" spans="2:14" ht="16">
+    <row r="43" spans="2:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B43" s="7"/>
       <c r="C43" s="41" t="s">
         <v>16</v>
@@ -16491,7 +16480,7 @@
       <c r="M43" s="19"/>
       <c r="N43" s="19"/>
     </row>
-    <row r="44" spans="2:14" ht="16">
+    <row r="44" spans="2:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
       <c r="C44" s="41" t="s">
         <v>277</v>
@@ -16518,7 +16507,7 @@
       <c r="M44" s="19"/>
       <c r="N44" s="19"/>
     </row>
-    <row r="45" spans="2:14" ht="16">
+    <row r="45" spans="2:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
       <c r="C45" s="41" t="s">
         <v>16</v>
@@ -16547,7 +16536,7 @@
       <c r="M45" s="19"/>
       <c r="N45" s="19"/>
     </row>
-    <row r="46" spans="2:14" ht="16">
+    <row r="46" spans="2:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
       <c r="C46" s="41" t="s">
         <v>277</v>
@@ -16576,7 +16565,7 @@
       <c r="M46" s="19"/>
       <c r="N46" s="19"/>
     </row>
-    <row r="47" spans="2:14" ht="16">
+    <row r="47" spans="2:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
       <c r="C47" s="41" t="s">
         <v>20</v>
@@ -16605,7 +16594,7 @@
       <c r="M47" s="19"/>
       <c r="N47" s="19"/>
     </row>
-    <row r="48" spans="2:14" ht="16">
+    <row r="48" spans="2:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
       <c r="C48" s="41" t="s">
         <v>20</v>
@@ -16634,7 +16623,7 @@
       <c r="M48" s="19"/>
       <c r="N48" s="19"/>
     </row>
-    <row r="49" spans="1:14" ht="16">
+    <row r="49" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
       <c r="C49" s="41"/>
       <c r="D49" s="37"/>
@@ -16649,7 +16638,7 @@
       <c r="M49" s="19"/>
       <c r="N49" s="19"/>
     </row>
-    <row r="50" spans="1:14" ht="16">
+    <row r="50" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
         <v>24</v>
       </c>
@@ -16678,7 +16667,7 @@
       <c r="M50" s="19"/>
       <c r="N50" s="19"/>
     </row>
-    <row r="51" spans="1:14" ht="16">
+    <row r="51" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B51" s="7"/>
       <c r="C51" s="41" t="s">
         <v>498</v>
@@ -16707,7 +16696,7 @@
       <c r="M51" s="19"/>
       <c r="N51" s="19"/>
     </row>
-    <row r="52" spans="1:14" ht="16">
+    <row r="52" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
       <c r="C52" s="41"/>
       <c r="D52" s="37"/>
@@ -16722,7 +16711,7 @@
       <c r="M52" s="19"/>
       <c r="N52" s="19"/>
     </row>
-    <row r="53" spans="1:14" ht="16">
+    <row r="53" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A53" s="42"/>
       <c r="B53" s="43" t="s">
         <v>25</v>
@@ -16754,7 +16743,7 @@
       <c r="M53" s="19"/>
       <c r="N53" s="19"/>
     </row>
-    <row r="54" spans="1:14" ht="16">
+    <row r="54" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A54" s="42"/>
       <c r="C54" s="41" t="s">
         <v>498</v>
@@ -16783,7 +16772,7 @@
       <c r="M54" s="19"/>
       <c r="N54" s="19"/>
     </row>
-    <row r="55" spans="1:14" ht="16">
+    <row r="55" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A55" s="42"/>
       <c r="C55" s="41" t="s">
         <v>498</v>
@@ -16812,7 +16801,7 @@
       <c r="M55" s="19"/>
       <c r="N55" s="19"/>
     </row>
-    <row r="56" spans="1:14" ht="16">
+    <row r="56" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A56" s="42"/>
       <c r="C56" s="41" t="s">
         <v>16</v>
@@ -16839,7 +16828,7 @@
       <c r="M56" s="19"/>
       <c r="N56" s="19"/>
     </row>
-    <row r="57" spans="1:14" ht="16">
+    <row r="57" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A57" s="42"/>
       <c r="C57" s="41"/>
       <c r="D57" s="37" t="s">
@@ -16860,7 +16849,7 @@
       <c r="M57" s="19"/>
       <c r="N57" s="19"/>
     </row>
-    <row r="58" spans="1:14" ht="16">
+    <row r="58" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A58" s="39" t="s">
         <v>26</v>
       </c>
@@ -16876,7 +16865,7 @@
       <c r="M58" s="19"/>
       <c r="N58" s="19"/>
     </row>
-    <row r="59" spans="1:14" ht="16">
+    <row r="59" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A59" s="42"/>
       <c r="B59" s="20" t="s">
         <v>52</v>
@@ -16908,7 +16897,7 @@
       <c r="M59" s="19"/>
       <c r="N59" s="19"/>
     </row>
-    <row r="60" spans="1:14" ht="16">
+    <row r="60" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A60" s="42"/>
       <c r="B60" s="20"/>
       <c r="C60" s="25" t="s">
@@ -16940,7 +16929,7 @@
       <c r="M60" s="19"/>
       <c r="N60" s="19"/>
     </row>
-    <row r="61" spans="1:14" ht="16">
+    <row r="61" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A61" s="42"/>
       <c r="B61" s="20"/>
       <c r="C61" s="25" t="s">
@@ -16970,7 +16959,7 @@
       <c r="M61" s="19"/>
       <c r="N61" s="19"/>
     </row>
-    <row r="62" spans="1:14" ht="32">
+    <row r="62" spans="1:14" ht="34" x14ac:dyDescent="0.25">
       <c r="A62" s="39"/>
       <c r="B62" s="20" t="s">
         <v>53</v>
@@ -17002,7 +16991,7 @@
       <c r="M62" s="19"/>
       <c r="N62" s="19"/>
     </row>
-    <row r="63" spans="1:14" ht="32">
+    <row r="63" spans="1:14" ht="34" x14ac:dyDescent="0.25">
       <c r="B63" s="30"/>
       <c r="C63" s="25" t="s">
         <v>16</v>
@@ -17033,7 +17022,7 @@
       <c r="M63" s="19"/>
       <c r="N63" s="19"/>
     </row>
-    <row r="64" spans="1:14" ht="32">
+    <row r="64" spans="1:14" ht="34" x14ac:dyDescent="0.25">
       <c r="A64" s="39"/>
       <c r="B64" s="20"/>
       <c r="C64" s="25" t="s">
@@ -17063,7 +17052,7 @@
       <c r="M64" s="19"/>
       <c r="N64" s="19"/>
     </row>
-    <row r="65" spans="1:14" ht="32">
+    <row r="65" spans="1:14" ht="34" x14ac:dyDescent="0.25">
       <c r="A65" s="39"/>
       <c r="B65" s="20"/>
       <c r="C65" s="25" t="s">
@@ -17093,7 +17082,7 @@
       <c r="M65" s="19"/>
       <c r="N65" s="19"/>
     </row>
-    <row r="66" spans="1:14" ht="16">
+    <row r="66" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A66" s="42"/>
       <c r="B66" s="20" t="s">
         <v>51</v>
@@ -17123,7 +17112,7 @@
       <c r="M66" s="19"/>
       <c r="N66" s="19"/>
     </row>
-    <row r="67" spans="1:14" ht="16">
+    <row r="67" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A67" s="42"/>
       <c r="B67" s="20"/>
       <c r="C67" s="25" t="s">
@@ -17153,7 +17142,7 @@
       <c r="M67" s="19"/>
       <c r="N67" s="19"/>
     </row>
-    <row r="68" spans="1:14" ht="16">
+    <row r="68" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
       <c r="B68" s="20"/>
       <c r="C68" s="25" t="s">
@@ -17181,7 +17170,7 @@
       <c r="M68" s="19"/>
       <c r="N68" s="19"/>
     </row>
-    <row r="69" spans="1:14" ht="16">
+    <row r="69" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A69" s="42"/>
       <c r="B69" s="20"/>
       <c r="C69" s="25" t="s">
@@ -17209,7 +17198,7 @@
       <c r="M69" s="19"/>
       <c r="N69" s="19"/>
     </row>
-    <row r="70" spans="1:14" ht="16">
+    <row r="70" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="C70" s="25"/>
       <c r="D70" s="37"/>
       <c r="E70" s="45"/>
@@ -17223,7 +17212,7 @@
       <c r="M70" s="19"/>
       <c r="N70" s="19"/>
     </row>
-    <row r="71" spans="1:14" ht="16">
+    <row r="71" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A71" s="39" t="s">
         <v>28</v>
       </c>
@@ -17241,7 +17230,7 @@
       <c r="M71" s="19"/>
       <c r="N71" s="19"/>
     </row>
-    <row r="72" spans="1:14" ht="16">
+    <row r="72" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A72" s="39"/>
       <c r="B72" s="46" t="s">
         <v>77</v>
@@ -17275,7 +17264,7 @@
       <c r="M72" s="19"/>
       <c r="N72" s="19"/>
     </row>
-    <row r="73" spans="1:14" ht="16">
+    <row r="73" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A73" s="39"/>
       <c r="C73" s="20" t="s">
         <v>16</v>
@@ -17304,7 +17293,7 @@
       <c r="M73" s="19"/>
       <c r="N73" s="19"/>
     </row>
-    <row r="74" spans="1:14" ht="16">
+    <row r="74" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A74" s="39"/>
       <c r="C74" s="20" t="s">
         <v>20</v>
@@ -17327,7 +17316,7 @@
       <c r="M74" s="19"/>
       <c r="N74" s="19"/>
     </row>
-    <row r="75" spans="1:14" ht="16">
+    <row r="75" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A75" s="39"/>
       <c r="B75" s="46" t="s">
         <v>78</v>
@@ -17353,7 +17342,7 @@
       <c r="M75" s="19"/>
       <c r="N75" s="19"/>
     </row>
-    <row r="76" spans="1:14" ht="16">
+    <row r="76" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A76" s="39"/>
       <c r="B76" s="46"/>
       <c r="C76" s="20" t="s">
@@ -17377,7 +17366,7 @@
       <c r="M76" s="19"/>
       <c r="N76" s="19"/>
     </row>
-    <row r="77" spans="1:14" ht="16">
+    <row r="77" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A77" s="39"/>
       <c r="B77" s="46" t="s">
         <v>21</v>
@@ -17409,7 +17398,7 @@
       <c r="M77" s="19"/>
       <c r="N77" s="19"/>
     </row>
-    <row r="78" spans="1:14" ht="16">
+    <row r="78" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="C78" s="20" t="s">
         <v>498</v>
       </c>
@@ -17437,7 +17426,7 @@
       <c r="M78" s="19"/>
       <c r="N78" s="19"/>
     </row>
-    <row r="79" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="79" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
         <v>30</v>
       </c>
@@ -17455,7 +17444,7 @@
       <c r="M79" s="40"/>
       <c r="N79" s="20"/>
     </row>
-    <row r="80" spans="1:14" s="27" customFormat="1" ht="32">
+    <row r="80" spans="1:14" s="27" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A80" s="36"/>
       <c r="B80" s="19" t="s">
         <v>31</v>
@@ -17475,7 +17464,7 @@
       <c r="M80" s="20"/>
       <c r="N80" s="20"/>
     </row>
-    <row r="81" spans="1:14" s="27" customFormat="1" ht="32">
+    <row r="81" spans="1:14" s="27" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A81" s="20"/>
       <c r="B81" s="19" t="s">
         <v>33</v>
@@ -17495,7 +17484,7 @@
       <c r="M81" s="20"/>
       <c r="N81" s="20"/>
     </row>
-    <row r="82" spans="1:14" s="27" customFormat="1" ht="32">
+    <row r="82" spans="1:14" s="27" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A82" s="36"/>
       <c r="B82" s="19" t="s">
         <v>34</v>
@@ -17515,7 +17504,7 @@
       <c r="M82" s="20"/>
       <c r="N82" s="20"/>
     </row>
-    <row r="83" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="83" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A83" s="20"/>
       <c r="B83" s="20" t="s">
         <v>39</v>
@@ -17533,7 +17522,7 @@
       <c r="M83" s="20"/>
       <c r="N83" s="20"/>
     </row>
-    <row r="84" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="84" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A84" s="20"/>
       <c r="B84" s="19" t="s">
         <v>35</v>
@@ -17551,7 +17540,7 @@
       <c r="M84" s="20"/>
       <c r="N84" s="20"/>
     </row>
-    <row r="85" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="85" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A85" s="20"/>
       <c r="B85" s="19" t="s">
         <v>37</v>
@@ -17569,7 +17558,7 @@
       <c r="M85" s="20"/>
       <c r="N85" s="20"/>
     </row>
-    <row r="86" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="86" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A86" s="20"/>
       <c r="B86" s="46" t="s">
         <v>38</v>
@@ -17587,7 +17576,7 @@
       <c r="M86" s="20"/>
       <c r="N86" s="20"/>
     </row>
-    <row r="87" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="87" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A87" s="20"/>
       <c r="B87" s="20"/>
       <c r="C87" s="20"/>
@@ -17603,7 +17592,7 @@
       <c r="M87" s="20"/>
       <c r="N87" s="20"/>
     </row>
-    <row r="88" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="88" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A88" s="20"/>
       <c r="B88" s="19" t="s">
         <v>36</v>
@@ -17625,7 +17614,7 @@
       <c r="M88" s="20"/>
       <c r="N88" s="20"/>
     </row>
-    <row r="89" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="89" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A89" s="20"/>
       <c r="B89" s="19"/>
       <c r="C89" s="20" t="s">
@@ -17647,7 +17636,7 @@
       <c r="M89" s="20"/>
       <c r="N89" s="20"/>
     </row>
-    <row r="90" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="90" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A90" s="20"/>
       <c r="B90" s="19"/>
       <c r="C90" s="20"/>
@@ -17667,7 +17656,7 @@
       <c r="M90" s="20"/>
       <c r="N90" s="20"/>
     </row>
-    <row r="91" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="91" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A91" s="20"/>
       <c r="B91" s="19"/>
       <c r="C91" s="20"/>
@@ -17687,7 +17676,7 @@
       <c r="M91" s="20"/>
       <c r="N91" s="20"/>
     </row>
-    <row r="92" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="92" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A92" s="20"/>
       <c r="B92" s="19"/>
       <c r="C92" s="20"/>
@@ -17703,7 +17692,7 @@
       <c r="M92" s="20"/>
       <c r="N92" s="20"/>
     </row>
-    <row r="93" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="93" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A93" s="20"/>
       <c r="B93" s="20" t="s">
         <v>0</v>
@@ -17723,7 +17712,7 @@
       <c r="M93" s="20"/>
       <c r="N93" s="20"/>
     </row>
-    <row r="94" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="94" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A94" s="20"/>
       <c r="B94" s="20" t="s">
         <v>1</v>
@@ -17743,7 +17732,7 @@
       <c r="M94" s="20"/>
       <c r="N94" s="20"/>
     </row>
-    <row r="95" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="95" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A95" s="20"/>
       <c r="B95" s="20"/>
       <c r="C95" s="20"/>
@@ -17759,7 +17748,7 @@
       <c r="M95" s="20"/>
       <c r="N95" s="20"/>
     </row>
-    <row r="96" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="96" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A96" s="20"/>
       <c r="B96" s="20" t="s">
         <v>40</v>
@@ -17777,7 +17766,7 @@
       <c r="M96" s="20"/>
       <c r="N96" s="20"/>
     </row>
-    <row r="97" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="97" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A97" s="20"/>
       <c r="B97" s="20"/>
       <c r="C97" s="20"/>
@@ -17793,7 +17782,7 @@
       <c r="M97" s="20"/>
       <c r="N97" s="20"/>
     </row>
-    <row r="98" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="98" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A98" s="20"/>
       <c r="B98" s="20"/>
       <c r="C98" s="20"/>
@@ -17809,7 +17798,7 @@
       <c r="M98" s="20"/>
       <c r="N98" s="20"/>
     </row>
-    <row r="99" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="99" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A99" s="20"/>
       <c r="B99" s="20"/>
       <c r="C99" s="20"/>
@@ -17825,7 +17814,7 @@
       <c r="M99" s="20"/>
       <c r="N99" s="20"/>
     </row>
-    <row r="100" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="100" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A100" s="20"/>
       <c r="B100" s="20" t="s">
         <v>41</v>
@@ -17843,7 +17832,7 @@
       <c r="M100" s="20"/>
       <c r="N100" s="20"/>
     </row>
-    <row r="101" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="101" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A101" s="20"/>
       <c r="B101" s="20"/>
       <c r="C101" s="20"/>
@@ -17859,7 +17848,7 @@
       <c r="M101" s="20"/>
       <c r="N101" s="20"/>
     </row>
-    <row r="102" spans="1:14" s="27" customFormat="1" ht="16">
+    <row r="102" spans="1:14" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A102" s="20"/>
       <c r="B102" s="49" t="s">
         <v>42</v>
@@ -17891,7 +17880,7 @@
       <c r="M102" s="20"/>
       <c r="N102" s="20"/>
     </row>
-    <row r="103" spans="1:14" ht="16">
+    <row r="103" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A103" s="30"/>
       <c r="B103" s="49"/>
       <c r="C103" s="49"/>
@@ -17913,7 +17902,7 @@
       <c r="M103" s="30"/>
       <c r="N103" s="30"/>
     </row>
-    <row r="104" spans="1:14" ht="16">
+    <row r="104" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A104" s="30"/>
       <c r="B104" s="49"/>
       <c r="C104" s="49"/>
@@ -17937,7 +17926,7 @@
       <c r="M104" s="30"/>
       <c r="N104" s="30"/>
     </row>
-    <row r="105" spans="1:14" ht="16">
+    <row r="105" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A105" s="30"/>
       <c r="B105" s="49"/>
       <c r="C105" s="49"/>
@@ -17959,7 +17948,7 @@
       <c r="M105" s="30"/>
       <c r="N105" s="30"/>
     </row>
-    <row r="106" spans="1:14" ht="16">
+    <row r="106" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A106" s="30"/>
       <c r="B106" s="49"/>
       <c r="C106" s="49"/>
@@ -17981,7 +17970,7 @@
       <c r="M106" s="30"/>
       <c r="N106" s="30"/>
     </row>
-    <row r="107" spans="1:14" ht="16">
+    <row r="107" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A107" s="30"/>
       <c r="B107" s="49"/>
       <c r="C107" s="49"/>
@@ -18001,7 +17990,7 @@
       <c r="M107" s="30"/>
       <c r="N107" s="30"/>
     </row>
-    <row r="108" spans="1:14" ht="16">
+    <row r="108" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B108" s="49"/>
       <c r="C108" s="49"/>
       <c r="D108" s="49" t="s">
@@ -18017,7 +18006,7 @@
       <c r="H108" s="49"/>
       <c r="I108" s="49"/>
     </row>
-    <row r="109" spans="1:14" ht="16">
+    <row r="109" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A109" s="30"/>
       <c r="B109" s="49"/>
       <c r="C109" s="49"/>
@@ -18033,7 +18022,7 @@
       <c r="M109" s="30"/>
       <c r="N109" s="30"/>
     </row>
-    <row r="110" spans="1:14" ht="16">
+    <row r="110" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A110" s="30"/>
       <c r="B110" s="49"/>
       <c r="C110" s="49"/>
@@ -18049,7 +18038,7 @@
       <c r="M110" s="30"/>
       <c r="N110" s="30"/>
     </row>
-    <row r="111" spans="1:14" ht="16">
+    <row r="111" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A111" s="30"/>
       <c r="B111" s="49"/>
       <c r="C111" s="49"/>
@@ -18065,7 +18054,7 @@
       <c r="M111" s="30"/>
       <c r="N111" s="30"/>
     </row>
-    <row r="112" spans="1:14" ht="16">
+    <row r="112" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A112" s="30"/>
       <c r="B112" s="49"/>
       <c r="C112" s="49"/>
@@ -18081,7 +18070,7 @@
       <c r="M112" s="30"/>
       <c r="N112" s="30"/>
     </row>
-    <row r="113" spans="1:14" ht="16">
+    <row r="113" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B113" s="49"/>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -18091,7 +18080,7 @@
       <c r="H113" s="49"/>
       <c r="I113" s="49"/>
     </row>
-    <row r="114" spans="1:14" ht="16">
+    <row r="114" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A114" s="30"/>
       <c r="B114" s="49"/>
       <c r="C114" s="49"/>
@@ -18107,7 +18096,7 @@
       <c r="M114" s="30"/>
       <c r="N114" s="30"/>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="30"/>
       <c r="B115" s="30"/>
       <c r="C115" s="30"/>
@@ -18126,187 +18115,187 @@
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B85:B86 C85:F87 A96:F96 A58:E58 A54:A57 C54:D57 C93:F95 A103:C107 J103:XFD107 D103:I105 A97:XFD102 A30:C30 A53:C53 A66:E71 A79:F84 B88:C92 E88:F92 A85:A95 D89:D92 A52:E52 A51:C51 E51 A50:D50 A65:B65 A72:C77 H53:XFD53 F30 A38:F41 A18 C18:F18 A28:XFD29 A11:A12 C11:F12 A1:XFD2 A3:B7 A31:F36 F42:F45 A64:C64 A63 C63 A59:C62 A78:E78 A42:C45 A47:C48 F49:F55 G49:XFD52 E48:G48 A49:E49 A46:F46 E47:F47 G45:G47 C3:G6 A8:XFD9 A10:G10 F10:XFD12 A13:F13 H13:XFD13 A14:XFD14 A15:F17 A19:F27 A37:XFD37 G54:XFD58 H3:XFD7 M17:XFD17 G17:K17 A108:XFD1048576 G15:XFD16 G18:XFD27 G59:G60 G69 I59:XFD69 G70:XFD96 F57:F76 H38:XFD48 H30:XFD36">
-    <cfRule type="cellIs" dxfId="112" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="46" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93:B95">
-    <cfRule type="cellIs" dxfId="111" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="45" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D106:I107">
-    <cfRule type="cellIs" dxfId="110" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="43" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:E13">
-    <cfRule type="cellIs" dxfId="109" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="41" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="108" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="39" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:E30">
-    <cfRule type="cellIs" dxfId="107" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="40" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="106" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="37" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:E44 E45">
-    <cfRule type="cellIs" dxfId="105" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="38" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:E64">
-    <cfRule type="cellIs" dxfId="104" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="36" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:D64 D66 D69">
-    <cfRule type="cellIs" dxfId="103" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="35" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="102" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="34" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:E62">
-    <cfRule type="cellIs" dxfId="101" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="33" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:E61">
-    <cfRule type="cellIs" dxfId="100" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="32" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:D61">
-    <cfRule type="cellIs" dxfId="99" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="31" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72:E74">
-    <cfRule type="cellIs" dxfId="98" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="26" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:E76">
-    <cfRule type="cellIs" dxfId="97" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="25" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="cellIs" dxfId="96" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="22" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65:E65">
-    <cfRule type="cellIs" dxfId="95" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="21" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77:E77">
-    <cfRule type="cellIs" dxfId="94" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="20" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30 G32">
-    <cfRule type="cellIs" dxfId="93" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="19" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53">
-    <cfRule type="cellIs" dxfId="92" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="18" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="91" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="17" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="cellIs" dxfId="90" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="16" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="89" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="15" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="88" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="14" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="cellIs" dxfId="87" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="13" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="86" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="12" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38:G39">
-    <cfRule type="cellIs" dxfId="85" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="11" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53:E55 E57">
-    <cfRule type="cellIs" dxfId="84" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="9" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40:G41">
-    <cfRule type="cellIs" dxfId="83" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="10" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:G44">
-    <cfRule type="cellIs" dxfId="82" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="8" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77:F78">
-    <cfRule type="cellIs" dxfId="81" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="7" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45 D47:D48">
-    <cfRule type="cellIs" dxfId="80" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="6" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G61:G68">
-    <cfRule type="cellIs" dxfId="79" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="4" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59:H69">
-    <cfRule type="cellIs" dxfId="78" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="3" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="77" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="76" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18347,9 +18336,6 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -18359,13 +18345,13 @@
   <dimension ref="A1:N131"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D70" sqref="D70:D77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.1640625" style="20" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="20" customWidth="1"/>
@@ -18377,7 +18363,7 @@
     <col min="15" max="16384" width="10.1640625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="36" t="s">
         <v>2</v>
       </c>
@@ -18418,7 +18404,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>14</v>
       </c>
@@ -18436,7 +18422,7 @@
       <c r="M2" s="19"/>
       <c r="N2" s="19"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="38" t="s">
         <v>62</v>
@@ -18466,7 +18452,7 @@
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="36"/>
       <c r="B4" s="38"/>
       <c r="C4" s="20" t="s">
@@ -18494,7 +18480,7 @@
       <c r="M4" s="19"/>
       <c r="N4" s="19"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="B5" s="38"/>
       <c r="D5" s="37"/>
@@ -18509,7 +18495,7 @@
       <c r="M5" s="19"/>
       <c r="N5" s="19"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="38" t="s">
         <v>338</v>
@@ -18539,7 +18525,7 @@
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="B7" s="38"/>
       <c r="C7" s="20" t="s">
@@ -18565,7 +18551,7 @@
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
       <c r="B8" s="38"/>
       <c r="D8" s="37"/>
@@ -18579,7 +18565,7 @@
       <c r="M8" s="19"/>
       <c r="N8" s="19"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="36"/>
       <c r="B9" s="38" t="s">
         <v>61</v>
@@ -18611,7 +18597,7 @@
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="38"/>
       <c r="D10" s="37"/>
@@ -18625,7 +18611,7 @@
       <c r="M10" s="19"/>
       <c r="N10" s="19"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="36"/>
       <c r="B11" s="38" t="s">
         <v>21</v>
@@ -18657,7 +18643,7 @@
       <c r="M11" s="19"/>
       <c r="N11" s="19"/>
     </row>
-    <row r="12" spans="1:14" ht="18" customHeight="1">
+    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="27"/>
       <c r="C12" s="20" t="s">
@@ -18691,7 +18677,7 @@
       </c>
       <c r="N12" s="19"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="36"/>
       <c r="B13" s="38"/>
       <c r="C13" s="20" t="s">
@@ -18721,7 +18707,7 @@
       </c>
       <c r="N13" s="19"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="38"/>
       <c r="C14" s="20" t="s">
@@ -18742,7 +18728,7 @@
       <c r="M14" s="19"/>
       <c r="N14" s="19"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="36"/>
       <c r="B15" s="38"/>
       <c r="C15" s="25" t="s">
@@ -18778,7 +18764,7 @@
       </c>
       <c r="N15" s="19"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="B16" s="38"/>
       <c r="C16" s="25" t="s">
@@ -18807,7 +18793,7 @@
       </c>
       <c r="N16" s="19"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="36"/>
       <c r="B17" s="38"/>
       <c r="C17" s="20" t="s">
@@ -18839,7 +18825,7 @@
       </c>
       <c r="N17" s="19"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="B18" s="38"/>
       <c r="C18" s="25" t="s">
@@ -18868,7 +18854,7 @@
       </c>
       <c r="N18" s="19"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="36"/>
       <c r="B19" s="38"/>
       <c r="C19" s="25" t="s">
@@ -18897,7 +18883,7 @@
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
       <c r="B20" s="38"/>
       <c r="C20" s="25" t="s">
@@ -18929,7 +18915,7 @@
       </c>
       <c r="N20" s="19"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="36"/>
       <c r="C21" s="25" t="s">
         <v>16</v>
@@ -18955,7 +18941,7 @@
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="36"/>
       <c r="B22" s="38"/>
       <c r="C22" s="25" t="s">
@@ -18981,7 +18967,7 @@
       <c r="M22" s="19"/>
       <c r="N22" s="19"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="36"/>
       <c r="B23" s="38"/>
       <c r="C23" s="25" t="s">
@@ -19007,7 +18993,7 @@
       <c r="M23" s="19"/>
       <c r="N23" s="19"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="36"/>
       <c r="B24" s="38"/>
       <c r="C24" s="20" t="s">
@@ -19031,7 +19017,7 @@
       <c r="M24" s="19"/>
       <c r="N24" s="19"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
       <c r="C25" s="25" t="s">
         <v>20</v>
@@ -19054,7 +19040,7 @@
       <c r="M25" s="19"/>
       <c r="N25" s="19"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
       <c r="C26" s="25" t="s">
         <v>20</v>
@@ -19077,7 +19063,7 @@
       <c r="M26" s="19"/>
       <c r="N26" s="19"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="36"/>
       <c r="C27" s="25" t="s">
         <v>277</v>
@@ -19100,7 +19086,7 @@
       <c r="M27" s="19"/>
       <c r="N27" s="19"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
       <c r="C28" s="25"/>
       <c r="D28" s="27"/>
@@ -19115,7 +19101,7 @@
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>23</v>
       </c>
@@ -19131,7 +19117,7 @@
       <c r="M29" s="19"/>
       <c r="N29" s="19"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>700</v>
       </c>
@@ -19160,7 +19146,7 @@
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
       <c r="C31" s="41" t="s">
         <v>16</v>
@@ -19187,7 +19173,7 @@
       <c r="M31" s="19"/>
       <c r="N31" s="19"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="C32" s="41" t="s">
         <v>277</v>
@@ -19214,7 +19200,7 @@
       <c r="M32" s="19"/>
       <c r="N32" s="19"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
       <c r="C33" s="41" t="s">
         <v>277</v>
@@ -19241,7 +19227,7 @@
       <c r="M33" s="19"/>
       <c r="N33" s="19"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
       <c r="C34" s="41"/>
       <c r="D34" s="37"/>
@@ -19254,7 +19240,7 @@
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>64</v>
       </c>
@@ -19287,7 +19273,7 @@
       <c r="M35" s="19"/>
       <c r="N35" s="19"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
       <c r="C36" s="41" t="s">
         <v>277</v>
@@ -19316,7 +19302,7 @@
       <c r="M36" s="19"/>
       <c r="N36" s="19"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
       <c r="C37" s="41" t="s">
         <v>277</v>
@@ -19347,7 +19333,7 @@
       <c r="M37" s="19"/>
       <c r="N37" s="19"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
       <c r="C38" s="41" t="s">
         <v>277</v>
@@ -19376,7 +19362,7 @@
       <c r="M38" s="19"/>
       <c r="N38" s="19"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
       <c r="C39" s="41" t="s">
         <v>20</v>
@@ -19399,7 +19385,7 @@
       <c r="M39" s="19"/>
       <c r="N39" s="19"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
       <c r="C40" s="41" t="s">
         <v>277</v>
@@ -19428,7 +19414,7 @@
       <c r="M40" s="19"/>
       <c r="N40" s="19"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" s="7"/>
       <c r="C41" s="41" t="s">
         <v>277</v>
@@ -19456,7 +19442,7 @@
       <c r="M41" s="19"/>
       <c r="N41" s="19"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" s="7"/>
       <c r="C42" s="41" t="s">
         <v>20</v>
@@ -19484,7 +19470,7 @@
       <c r="M42" s="19"/>
       <c r="N42" s="19"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="53"/>
       <c r="C43" s="41" t="s">
         <v>20</v>
@@ -19511,7 +19497,7 @@
       <c r="M43" s="19"/>
       <c r="N43" s="19"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="53"/>
       <c r="C44" s="41" t="s">
         <v>20</v>
@@ -19538,7 +19524,7 @@
       <c r="M44" s="19"/>
       <c r="N44" s="19"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
       <c r="C45" s="41" t="s">
         <v>20</v>
@@ -19567,7 +19553,7 @@
       <c r="M45" s="19"/>
       <c r="N45" s="19"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="39"/>
       <c r="B46" s="7"/>
       <c r="C46" s="41" t="s">
@@ -19597,7 +19583,7 @@
       <c r="M46" s="19"/>
       <c r="N46" s="19"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="39"/>
       <c r="B47" s="7"/>
       <c r="C47" s="41" t="s">
@@ -19627,7 +19613,7 @@
       <c r="M47" s="19"/>
       <c r="N47" s="19"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="39"/>
       <c r="B48" s="7"/>
       <c r="C48" s="41" t="s">
@@ -19655,7 +19641,7 @@
       <c r="M48" s="19"/>
       <c r="N48" s="19"/>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="39"/>
       <c r="B49" s="7"/>
       <c r="C49" s="41" t="s">
@@ -19685,7 +19671,7 @@
       <c r="M49" s="19"/>
       <c r="N49" s="19"/>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="39"/>
       <c r="B50" s="7"/>
       <c r="C50" s="41" t="s">
@@ -19715,7 +19701,7 @@
       <c r="M50" s="19"/>
       <c r="N50" s="19"/>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="39"/>
       <c r="B51" s="7"/>
       <c r="C51" s="41" t="s">
@@ -19745,7 +19731,7 @@
       <c r="M51" s="19"/>
       <c r="N51" s="19"/>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="39"/>
       <c r="B52" s="7"/>
       <c r="C52" s="41" t="s">
@@ -19779,7 +19765,7 @@
       </c>
       <c r="N52" s="19"/>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="39"/>
       <c r="B53" s="7"/>
       <c r="C53" s="41" t="s">
@@ -19811,7 +19797,7 @@
       </c>
       <c r="N53" s="19"/>
     </row>
-    <row r="54" spans="1:14" ht="32">
+    <row r="54" spans="1:14" ht="34" x14ac:dyDescent="0.25">
       <c r="A54" s="39"/>
       <c r="B54" s="7"/>
       <c r="C54" s="41" t="s">
@@ -19845,7 +19831,7 @@
       </c>
       <c r="N54" s="19"/>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="39"/>
       <c r="B55" s="7"/>
       <c r="C55" s="41" t="s">
@@ -19873,7 +19859,7 @@
       </c>
       <c r="N55" s="19"/>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="39"/>
       <c r="B56" s="7"/>
       <c r="C56" s="41"/>
@@ -19888,7 +19874,7 @@
       <c r="M56" s="19"/>
       <c r="N56" s="19"/>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="53"/>
       <c r="B57" s="43" t="s">
         <v>24</v>
@@ -19920,7 +19906,7 @@
       <c r="M57" s="19"/>
       <c r="N57" s="19"/>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="53"/>
       <c r="B58" s="43"/>
       <c r="C58" s="41" t="s">
@@ -19950,7 +19936,7 @@
       <c r="M58" s="19"/>
       <c r="N58" s="19"/>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="53"/>
       <c r="C59" s="41" t="s">
         <v>756</v>
@@ -19979,7 +19965,7 @@
       <c r="M59" s="19"/>
       <c r="N59" s="19"/>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="53"/>
       <c r="C60" s="41"/>
       <c r="D60" s="51"/>
@@ -19993,7 +19979,7 @@
       <c r="M60" s="19"/>
       <c r="N60" s="19"/>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="53"/>
       <c r="B61" s="20" t="s">
         <v>69</v>
@@ -20025,7 +20011,7 @@
       <c r="M61" s="19"/>
       <c r="N61" s="19"/>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="53"/>
       <c r="C62" s="41" t="s">
         <v>16</v>
@@ -20054,7 +20040,7 @@
       <c r="M62" s="19"/>
       <c r="N62" s="19"/>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="53"/>
       <c r="C63" s="41" t="s">
         <v>20</v>
@@ -20083,7 +20069,7 @@
       <c r="M63" s="19"/>
       <c r="N63" s="19"/>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="53"/>
       <c r="C64" s="41" t="s">
         <v>20</v>
@@ -20112,7 +20098,7 @@
       <c r="M64" s="19"/>
       <c r="N64" s="19"/>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="53"/>
       <c r="C65" s="41" t="s">
         <v>277</v>
@@ -20141,7 +20127,7 @@
       <c r="M65" s="19"/>
       <c r="N65" s="19"/>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="53"/>
       <c r="C66" s="41" t="s">
         <v>277</v>
@@ -20163,7 +20149,7 @@
       <c r="M66" s="19"/>
       <c r="N66" s="19"/>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="39" t="s">
         <v>26</v>
       </c>
@@ -20178,7 +20164,7 @@
       <c r="M67" s="19"/>
       <c r="N67" s="19"/>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B68" s="20" t="s">
         <v>51</v>
       </c>
@@ -20209,7 +20195,7 @@
       </c>
       <c r="N68" s="19"/>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="39"/>
       <c r="C69" s="25" t="s">
         <v>16</v>
@@ -20236,7 +20222,7 @@
       <c r="M69" s="19"/>
       <c r="N69" s="19"/>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="53"/>
       <c r="C70" s="25" t="s">
         <v>20</v>
@@ -20263,7 +20249,7 @@
       <c r="M70" s="19"/>
       <c r="N70" s="19"/>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="53"/>
       <c r="B71" s="20" t="s">
         <v>52</v>
@@ -20295,7 +20281,7 @@
       <c r="M71" s="19"/>
       <c r="N71" s="19"/>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="53"/>
       <c r="C72" s="25" t="s">
         <v>16</v>
@@ -20324,7 +20310,7 @@
       <c r="M72" s="19"/>
       <c r="N72" s="19"/>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="53"/>
       <c r="C73" s="25" t="s">
         <v>16</v>
@@ -20353,7 +20339,7 @@
       </c>
       <c r="N73" s="19"/>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="53"/>
       <c r="B74" s="20" t="s">
         <v>62</v>
@@ -20383,7 +20369,7 @@
       <c r="M74" s="19"/>
       <c r="N74" s="19"/>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="53"/>
       <c r="C75" s="25" t="s">
         <v>16</v>
@@ -20410,7 +20396,7 @@
       <c r="M75" s="19"/>
       <c r="N75" s="19"/>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="53"/>
       <c r="C76" s="25" t="s">
         <v>16</v>
@@ -20437,7 +20423,7 @@
       <c r="M76" s="19"/>
       <c r="N76" s="19"/>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C77" s="25"/>
       <c r="D77" s="37"/>
       <c r="E77" s="45"/>
@@ -20450,7 +20436,7 @@
       <c r="M77" s="19"/>
       <c r="N77" s="19"/>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="39" t="s">
         <v>28</v>
       </c>
@@ -20465,7 +20451,7 @@
       <c r="M78" s="19"/>
       <c r="N78" s="19"/>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="39"/>
       <c r="B79" s="46" t="s">
         <v>77</v>
@@ -20496,7 +20482,7 @@
       <c r="M79" s="19"/>
       <c r="N79" s="19"/>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="39"/>
       <c r="C80" s="20" t="s">
         <v>16</v>
@@ -20523,7 +20509,7 @@
       <c r="M80" s="19"/>
       <c r="N80" s="19"/>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="39"/>
       <c r="D81" s="37"/>
       <c r="G81" s="17"/>
@@ -20535,7 +20521,7 @@
       <c r="M81" s="19"/>
       <c r="N81" s="19"/>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="39"/>
       <c r="B82" s="46" t="s">
         <v>78</v>
@@ -20567,7 +20553,7 @@
       <c r="M82" s="19"/>
       <c r="N82" s="19"/>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="39"/>
       <c r="B83" s="46"/>
       <c r="C83" s="20" t="s">
@@ -20597,7 +20583,7 @@
       <c r="M83" s="19"/>
       <c r="N83" s="19"/>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="39"/>
       <c r="B84" s="46"/>
       <c r="C84" s="20" t="s">
@@ -20617,7 +20603,7 @@
       <c r="M84" s="19"/>
       <c r="N84" s="19"/>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="39"/>
       <c r="B85" s="46"/>
       <c r="D85" s="37"/>
@@ -20630,7 +20616,7 @@
       <c r="M85" s="19"/>
       <c r="N85" s="19"/>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="39"/>
       <c r="B86" s="46" t="s">
         <v>21</v>
@@ -20662,7 +20648,7 @@
       <c r="M86" s="19"/>
       <c r="N86" s="19"/>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="39"/>
       <c r="B87" s="46"/>
       <c r="C87" s="20" t="s">
@@ -20692,7 +20678,7 @@
       <c r="M87" s="19"/>
       <c r="N87" s="19"/>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="39"/>
       <c r="B88" s="46"/>
       <c r="C88" s="20" t="s">
@@ -20722,7 +20708,7 @@
       </c>
       <c r="N88" s="19"/>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G89" s="17"/>
       <c r="H89" s="37"/>
       <c r="I89" s="19"/>
@@ -20732,14 +20718,14 @@
       <c r="M89" s="19"/>
       <c r="N89" s="19"/>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="s">
         <v>30</v>
       </c>
       <c r="G90" s="17"/>
       <c r="H90" s="37"/>
     </row>
-    <row r="91" spans="1:14" ht="32">
+    <row r="91" spans="1:14" ht="34" x14ac:dyDescent="0.25">
       <c r="A91" s="36"/>
       <c r="B91" s="19" t="s">
         <v>31</v>
@@ -20750,7 +20736,7 @@
       <c r="G91" s="17"/>
       <c r="H91" s="37"/>
     </row>
-    <row r="92" spans="1:14" ht="32">
+    <row r="92" spans="1:14" ht="34" x14ac:dyDescent="0.25">
       <c r="B92" s="19" t="s">
         <v>33</v>
       </c>
@@ -20760,7 +20746,7 @@
       <c r="G92" s="17"/>
       <c r="H92" s="37"/>
     </row>
-    <row r="93" spans="1:14" ht="32">
+    <row r="93" spans="1:14" ht="34" x14ac:dyDescent="0.25">
       <c r="A93" s="36"/>
       <c r="B93" s="19" t="s">
         <v>34</v>
@@ -20771,39 +20757,39 @@
       <c r="G93" s="17"/>
       <c r="H93" s="37"/>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B94" s="20" t="s">
         <v>39</v>
       </c>
       <c r="G94" s="17"/>
       <c r="H94" s="37"/>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B95" s="19" t="s">
         <v>35</v>
       </c>
       <c r="G95" s="17"/>
       <c r="H95" s="37"/>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B96" s="19" t="s">
         <v>37</v>
       </c>
       <c r="G96" s="17"/>
       <c r="H96" s="37"/>
     </row>
-    <row r="97" spans="2:9">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="46" t="s">
         <v>38</v>
       </c>
       <c r="G97" s="17"/>
       <c r="H97" s="37"/>
     </row>
-    <row r="98" spans="2:9">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G98" s="17"/>
       <c r="H98" s="37"/>
     </row>
-    <row r="99" spans="2:9">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="19" t="s">
         <v>36</v>
       </c>
@@ -20816,22 +20802,22 @@
       <c r="G99" s="17"/>
       <c r="H99" s="37"/>
     </row>
-    <row r="100" spans="2:9">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G100" s="17"/>
       <c r="H100" s="37"/>
     </row>
-    <row r="101" spans="2:9">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="20" t="s">
         <v>0</v>
       </c>
       <c r="G101" s="17"/>
       <c r="H101" s="37"/>
     </row>
-    <row r="102" spans="2:9">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G102" s="17"/>
       <c r="H102" s="37"/>
     </row>
-    <row r="103" spans="2:9">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="20" t="s">
         <v>1</v>
       </c>
@@ -20844,7 +20830,7 @@
       <c r="G103" s="17"/>
       <c r="H103" s="37"/>
     </row>
-    <row r="104" spans="2:9">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D104" s="20" t="s">
         <v>738</v>
       </c>
@@ -20854,7 +20840,7 @@
       <c r="G104" s="17"/>
       <c r="H104" s="37"/>
     </row>
-    <row r="105" spans="2:9">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D105" s="20" t="s">
         <v>739</v>
       </c>
@@ -20864,18 +20850,18 @@
       <c r="G105" s="17"/>
       <c r="H105" s="37"/>
     </row>
-    <row r="106" spans="2:9">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G106" s="17"/>
       <c r="H106" s="37"/>
     </row>
-    <row r="107" spans="2:9">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G107" s="17"/>
       <c r="H107" s="37"/>
     </row>
-    <row r="108" spans="2:9">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C108" s="16">
         <v>1</v>
       </c>
@@ -20884,23 +20870,23 @@
       </c>
       <c r="H108" s="37"/>
     </row>
-    <row r="109" spans="2:9">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H109" s="37"/>
     </row>
-    <row r="110" spans="2:9">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H110" s="37"/>
     </row>
-    <row r="111" spans="2:9">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="20" t="s">
         <v>41</v>
       </c>
       <c r="H111" s="37"/>
     </row>
-    <row r="112" spans="2:9">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H112" s="37"/>
       <c r="I112" s="48"/>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B113" s="49" t="s">
         <v>42</v>
       </c>
@@ -20926,7 +20912,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B114" s="49"/>
       <c r="C114" s="49"/>
       <c r="D114" s="33" t="s">
@@ -20942,7 +20928,7 @@
       <c r="H114" s="49"/>
       <c r="I114" s="49"/>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B115" s="49"/>
       <c r="C115" s="49"/>
       <c r="D115" s="49" t="s">
@@ -20958,7 +20944,7 @@
       <c r="H115" s="49"/>
       <c r="I115" s="49"/>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="27"/>
       <c r="B116" s="49"/>
       <c r="C116" s="49"/>
@@ -20980,7 +20966,7 @@
       <c r="M116" s="27"/>
       <c r="N116" s="27"/>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="27"/>
       <c r="B117" s="49"/>
       <c r="C117" s="49"/>
@@ -21000,7 +20986,7 @@
       <c r="M117" s="27"/>
       <c r="N117" s="27"/>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="27"/>
       <c r="B118" s="49"/>
       <c r="C118" s="49"/>
@@ -21024,7 +21010,7 @@
       <c r="M118" s="27"/>
       <c r="N118" s="27"/>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="27"/>
       <c r="B119" s="49"/>
       <c r="C119" s="49"/>
@@ -21044,7 +21030,7 @@
       <c r="M119" s="27"/>
       <c r="N119" s="27"/>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="27"/>
       <c r="B120" s="49"/>
       <c r="C120" s="49"/>
@@ -21066,7 +21052,7 @@
       <c r="M120" s="27"/>
       <c r="N120" s="27"/>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="27"/>
       <c r="B121" s="49"/>
       <c r="C121" s="49"/>
@@ -21086,7 +21072,7 @@
       <c r="M121" s="27"/>
       <c r="N121" s="27"/>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="27"/>
       <c r="B122" s="49"/>
       <c r="C122" s="49"/>
@@ -21108,7 +21094,7 @@
       <c r="M122" s="27"/>
       <c r="N122" s="27"/>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="27"/>
       <c r="B123" s="49"/>
       <c r="C123" s="49"/>
@@ -21128,7 +21114,7 @@
       <c r="M123" s="27"/>
       <c r="N123" s="27"/>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="27"/>
       <c r="B124" s="49"/>
       <c r="C124" s="49"/>
@@ -21150,7 +21136,7 @@
       <c r="M124" s="27"/>
       <c r="N124" s="27"/>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="27"/>
       <c r="B125" s="49"/>
       <c r="C125" s="49"/>
@@ -21172,7 +21158,7 @@
       <c r="M125" s="27"/>
       <c r="N125" s="27"/>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B126" s="49"/>
       <c r="C126" s="49"/>
       <c r="D126" s="49" t="s">
@@ -21188,7 +21174,7 @@
       <c r="H126" s="49"/>
       <c r="I126" s="49"/>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="27"/>
       <c r="B127" s="49"/>
       <c r="C127" s="49"/>
@@ -21208,7 +21194,7 @@
       <c r="M127" s="27"/>
       <c r="N127" s="27"/>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B128" s="34"/>
       <c r="C128" s="34"/>
       <c r="D128" s="34" t="s">
@@ -21222,7 +21208,7 @@
       <c r="H128" s="34"/>
       <c r="I128" s="34"/>
     </row>
-    <row r="129" spans="2:9">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B129" s="34"/>
       <c r="C129" s="34"/>
       <c r="D129" s="34"/>
@@ -21232,7 +21218,7 @@
       <c r="H129" s="34"/>
       <c r="I129" s="34"/>
     </row>
-    <row r="130" spans="2:9">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B130" s="34"/>
       <c r="C130" s="34"/>
       <c r="D130" s="34"/>
@@ -21242,7 +21228,7 @@
       <c r="H130" s="34"/>
       <c r="I130" s="34"/>
     </row>
-    <row r="131" spans="2:9">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B131" s="34"/>
       <c r="C131" s="34"/>
       <c r="D131" s="34"/>
@@ -21255,137 +21241,137 @@
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B99 B96:B97 A107:F107 A108:XFD113 A67:F67 A65:A66 C65:F65 A114:C121 H114:XFD121 D114:G115 H124:XFD124 A124:C124 A125:XFD1048576 A122:XFD123 C103:F106 C101:C102 E101:F102 A68:A76 A34:G34 A1:XFD2 A77:F86 A87:C87 E87:F87 A88:F95 E12:F14 A21:C24 E17:E20 A96:A106 C96:F100 E35:E64 H56:XFD56 A13:D20 A12 C12:D12 A11:B11 A10:F10 A9:E9 A35:C64 A3:F8 A30:F33 H26:XFD29 A26:C29 H3:XFD24 G19:G21 A25:XFD25 G57:G59 G61:G62 H84:XFD84 F74:F89 F18:F23 J79:XFD79 F68:F72 G85:XFD107 G79:H79 G80:XFD83 G68:XFD78 I30:XFD40 G65:G67 I57:XFD57 I59:XFD67 J58:XFD58 F66 I42:XFD55 K41:XFD41 I41">
-    <cfRule type="cellIs" dxfId="75" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="35" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B106">
-    <cfRule type="cellIs" dxfId="74" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="34" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="73" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="32" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:F16 F17">
-    <cfRule type="cellIs" dxfId="72" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="31" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:F15">
-    <cfRule type="cellIs" dxfId="71" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="30" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D118:G121 D124:G124">
-    <cfRule type="cellIs" dxfId="70" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="29" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D116:G117">
-    <cfRule type="cellIs" dxfId="69" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="28" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D101:D102">
-    <cfRule type="cellIs" dxfId="68" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="27" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74:F76 B73:E73 B68:F72">
-    <cfRule type="cellIs" dxfId="67" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="26" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:D56">
-    <cfRule type="cellIs" dxfId="66" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="25" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:D64">
-    <cfRule type="cellIs" dxfId="65" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="23" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G63:G64">
-    <cfRule type="cellIs" dxfId="64" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="19" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48 G56">
-    <cfRule type="cellIs" dxfId="63" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="22" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="62" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="16" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D24 D26:D27">
-    <cfRule type="cellIs" dxfId="61" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="15" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:E24 E26:E28">
-    <cfRule type="cellIs" dxfId="60" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="14" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:F11">
-    <cfRule type="cellIs" dxfId="59" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="12" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="58" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="11" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22 G18 G3:G7 G9 G11:G13 G15">
-    <cfRule type="cellIs" dxfId="57" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="10" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="56" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="9" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="55" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="8" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:G24 G26:G28">
-    <cfRule type="cellIs" dxfId="54" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="6" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H27">
-    <cfRule type="cellIs" dxfId="53" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="5" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:H55">
-    <cfRule type="cellIs" dxfId="52" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="4" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57:H67">
-    <cfRule type="cellIs" dxfId="51" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="3" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58">
-    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66:E66">
-    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21438,9 +21424,6 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -21449,14 +21432,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="89" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.1640625" style="20" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="20" customWidth="1"/>
@@ -21470,7 +21453,7 @@
     <col min="17" max="16384" width="10.1640625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="36" t="s">
         <v>2</v>
       </c>
@@ -21515,7 +21498,7 @@
       </c>
       <c r="P1" s="27"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>14</v>
       </c>
@@ -21529,7 +21512,7 @@
       <c r="O2" s="19"/>
       <c r="P2" s="27"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="38" t="s">
         <v>338</v>
@@ -21563,7 +21546,7 @@
       <c r="O3" s="19"/>
       <c r="P3" s="27"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="36"/>
       <c r="B4" s="38"/>
       <c r="C4" s="20" t="s">
@@ -21595,7 +21578,7 @@
       <c r="O4" s="19"/>
       <c r="P4" s="27"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="B5" s="38"/>
       <c r="C5" s="20" t="s">
@@ -21627,7 +21610,7 @@
       <c r="O5" s="19"/>
       <c r="P5" s="27"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="38"/>
       <c r="D6" s="37"/>
@@ -21643,7 +21626,7 @@
       <c r="O6" s="19"/>
       <c r="P6" s="27"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="B7" s="20" t="s">
         <v>914</v>
@@ -21677,7 +21660,7 @@
       <c r="O7" s="19"/>
       <c r="P7" s="27"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
       <c r="C8" s="20" t="s">
         <v>1012</v>
@@ -21708,7 +21691,7 @@
       <c r="O8" s="19"/>
       <c r="P8" s="27"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="36"/>
       <c r="F9" s="19"/>
       <c r="G9" s="29"/>
@@ -21722,7 +21705,7 @@
       <c r="O9" s="19"/>
       <c r="P9" s="27"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="20" t="s">
         <v>917</v>
@@ -21756,7 +21739,7 @@
       <c r="O10" s="19"/>
       <c r="P10" s="27"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
@@ -21773,7 +21756,7 @@
       <c r="O11" s="19"/>
       <c r="P11" s="27"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="20" t="s">
         <v>994</v>
@@ -21805,7 +21788,7 @@
       <c r="O12" s="19"/>
       <c r="P12" s="27"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="20" t="s">
@@ -21837,7 +21820,7 @@
       <c r="O13" s="19"/>
       <c r="P13" s="27"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="20" t="s">
@@ -21867,7 +21850,7 @@
       <c r="O14" s="19"/>
       <c r="P14" s="27"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="20" t="s">
@@ -21897,7 +21880,7 @@
       <c r="O15" s="19"/>
       <c r="P15" s="27"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="20" t="s">
@@ -21921,7 +21904,7 @@
       <c r="O16" s="19"/>
       <c r="P16" s="27"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="I17" s="37"/>
@@ -21933,7 +21916,7 @@
       <c r="O17" s="19"/>
       <c r="P17" s="27"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="B18" s="38" t="s">
         <v>919</v>
@@ -21973,7 +21956,7 @@
       <c r="O18" s="19"/>
       <c r="P18" s="27"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="36"/>
       <c r="B19" s="38"/>
       <c r="C19" s="20" t="s">
@@ -22007,7 +21990,7 @@
       <c r="O19" s="19"/>
       <c r="P19" s="27"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
       <c r="B20" s="38"/>
       <c r="C20" s="20" t="s">
@@ -22045,7 +22028,7 @@
       <c r="O20" s="19"/>
       <c r="P20" s="27"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="36"/>
       <c r="B21" s="38"/>
       <c r="C21" s="20" t="s">
@@ -22081,7 +22064,7 @@
       <c r="O21" s="19"/>
       <c r="P21" s="27"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="36"/>
       <c r="B22" s="38"/>
       <c r="C22" s="20" t="s">
@@ -22117,11 +22100,11 @@
       <c r="O22" s="19"/>
       <c r="P22" s="27"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I23" s="37"/>
       <c r="P23" s="27"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="36"/>
       <c r="B24" s="38"/>
       <c r="C24" s="20" t="s">
@@ -22159,7 +22142,7 @@
       <c r="O24" s="19"/>
       <c r="P24" s="27"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
       <c r="B25" s="38"/>
       <c r="C25" s="20" t="s">
@@ -22195,11 +22178,11 @@
       <c r="O25" s="19"/>
       <c r="P25" s="27"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I26" s="37"/>
       <c r="P26" s="27"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="36"/>
       <c r="B27" s="38"/>
       <c r="C27" s="20" t="s">
@@ -22233,7 +22216,7 @@
       <c r="O27" s="19"/>
       <c r="P27" s="27"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
       <c r="B28" s="38"/>
       <c r="C28" s="20" t="s">
@@ -22263,7 +22246,7 @@
       <c r="O28" s="19"/>
       <c r="P28" s="27"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="36"/>
       <c r="B29" s="38"/>
       <c r="C29" s="25" t="s">
@@ -22291,7 +22274,7 @@
       <c r="O29" s="19"/>
       <c r="P29" s="27"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="36"/>
       <c r="B30" s="38"/>
       <c r="C30" s="25"/>
@@ -22309,7 +22292,7 @@
       <c r="O30" s="19"/>
       <c r="P30" s="27"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="36"/>
       <c r="B31" s="38"/>
       <c r="C31" s="20" t="s">
@@ -22343,7 +22326,7 @@
       <c r="O31" s="19"/>
       <c r="P31" s="27"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="36"/>
       <c r="B32" s="38"/>
       <c r="C32" s="20" t="s">
@@ -22377,7 +22360,7 @@
       <c r="O32" s="19"/>
       <c r="P32" s="27"/>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="36"/>
       <c r="B33" s="38"/>
       <c r="C33" s="20" t="s">
@@ -22411,7 +22394,7 @@
       <c r="O33" s="19"/>
       <c r="P33" s="27"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="36"/>
       <c r="B34" s="38"/>
       <c r="C34" s="20" t="s">
@@ -22443,7 +22426,7 @@
       <c r="O34" s="19"/>
       <c r="P34" s="27"/>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="36"/>
       <c r="B35" s="38"/>
       <c r="C35" s="20" t="s">
@@ -22475,7 +22458,7 @@
       <c r="O35" s="19"/>
       <c r="P35" s="27"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="36"/>
       <c r="B36" s="38"/>
       <c r="C36" s="20" t="s">
@@ -22505,7 +22488,7 @@
       <c r="O36" s="19"/>
       <c r="P36" s="27"/>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="36"/>
       <c r="B37" s="38"/>
       <c r="C37" s="20" t="s">
@@ -22535,7 +22518,7 @@
       <c r="O37" s="19"/>
       <c r="P37" s="27"/>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="36"/>
       <c r="B38" s="38"/>
       <c r="F38" s="37"/>
@@ -22548,7 +22531,7 @@
       <c r="O38" s="19"/>
       <c r="P38" s="27"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="36"/>
       <c r="B39" s="38"/>
       <c r="C39" s="25" t="s">
@@ -22582,7 +22565,7 @@
       <c r="O39" s="19"/>
       <c r="P39" s="27"/>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="36"/>
       <c r="B40" s="38"/>
       <c r="C40" s="25" t="s">
@@ -22616,7 +22599,7 @@
       <c r="O40" s="19"/>
       <c r="P40" s="27"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="36"/>
       <c r="B41" s="38"/>
       <c r="C41" s="25" t="s">
@@ -22644,7 +22627,7 @@
       <c r="O41" s="19"/>
       <c r="P41" s="27"/>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="36"/>
       <c r="B42" s="38"/>
       <c r="C42" s="25"/>
@@ -22662,7 +22645,7 @@
       <c r="O42" s="19"/>
       <c r="P42" s="27"/>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="36"/>
       <c r="C43" s="25" t="s">
         <v>16</v>
@@ -22697,7 +22680,7 @@
       <c r="O43" s="19"/>
       <c r="P43" s="27"/>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="36"/>
       <c r="C44" s="25"/>
       <c r="D44" s="37"/>
@@ -22714,7 +22697,7 @@
       <c r="O44" s="19"/>
       <c r="P44" s="27"/>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="39" t="s">
         <v>23</v>
       </c>
@@ -22731,7 +22714,7 @@
       <c r="O45" s="19"/>
       <c r="P45" s="27"/>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="39"/>
       <c r="B46" s="20" t="s">
         <v>62</v>
@@ -22763,7 +22746,7 @@
       <c r="O46" s="19"/>
       <c r="P46" s="27"/>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="39"/>
       <c r="C47" s="20" t="s">
         <v>277</v>
@@ -22792,7 +22775,7 @@
       <c r="O47" s="19"/>
       <c r="P47" s="27"/>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="39"/>
       <c r="C48" s="20" t="s">
         <v>277</v>
@@ -22820,7 +22803,7 @@
       <c r="O48" s="19"/>
       <c r="P48" s="27"/>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="39"/>
       <c r="C49" s="20" t="s">
         <v>876</v>
@@ -22845,7 +22828,7 @@
       <c r="O49" s="19"/>
       <c r="P49" s="27"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="39"/>
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
@@ -22861,7 +22844,7 @@
       <c r="O50" s="19"/>
       <c r="P50" s="27"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
         <v>64</v>
       </c>
@@ -22896,7 +22879,7 @@
       <c r="O51" s="19"/>
       <c r="P51" s="27"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
       <c r="C52" s="41" t="s">
         <v>16</v>
@@ -22929,7 +22912,7 @@
       <c r="O52" s="19"/>
       <c r="P52" s="27"/>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
       <c r="C53" s="41" t="s">
         <v>16</v>
@@ -22964,7 +22947,7 @@
       <c r="O53" s="19"/>
       <c r="P53" s="27"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
       <c r="C54" s="41" t="s">
         <v>16</v>
@@ -22997,7 +22980,7 @@
       <c r="O54" s="19"/>
       <c r="P54" s="27"/>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
       <c r="C55" s="27" t="s">
         <v>876</v>
@@ -23028,7 +23011,7 @@
       <c r="O55" s="19"/>
       <c r="P55" s="27"/>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
       <c r="C56" s="27"/>
       <c r="D56" s="27"/>
@@ -23044,7 +23027,7 @@
       <c r="O56" s="19"/>
       <c r="P56" s="27"/>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
         <v>24</v>
       </c>
@@ -23081,7 +23064,7 @@
       <c r="O57" s="19"/>
       <c r="P57" s="27"/>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B58" s="7"/>
       <c r="C58" s="41" t="s">
         <v>16</v>
@@ -23112,7 +23095,7 @@
       <c r="O58" s="19"/>
       <c r="P58" s="27"/>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B59" s="7"/>
       <c r="C59" s="41" t="s">
         <v>16</v>
@@ -23143,7 +23126,7 @@
       <c r="O59" s="19"/>
       <c r="P59" s="27"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="39"/>
       <c r="B60" s="7"/>
       <c r="C60" s="41" t="s">
@@ -23179,7 +23162,7 @@
       <c r="O60" s="19"/>
       <c r="P60" s="27"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="39"/>
       <c r="B61" s="7"/>
       <c r="C61" s="41" t="s">
@@ -23215,7 +23198,7 @@
       <c r="O61" s="19"/>
       <c r="P61" s="27"/>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B62" s="7"/>
       <c r="C62" s="41" t="s">
         <v>876</v>
@@ -23250,7 +23233,7 @@
       <c r="O62" s="19"/>
       <c r="P62" s="27"/>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="39"/>
       <c r="B63" s="7"/>
       <c r="C63" s="41" t="s">
@@ -23282,7 +23265,7 @@
       <c r="O63" s="19"/>
       <c r="P63" s="27"/>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="39"/>
       <c r="B64" s="7"/>
       <c r="C64" s="41"/>
@@ -23297,7 +23280,7 @@
       <c r="O64" s="19"/>
       <c r="P64" s="27"/>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="41"/>
       <c r="B65" s="43" t="s">
         <v>25</v>
@@ -23333,7 +23316,7 @@
       <c r="O65" s="19"/>
       <c r="P65" s="27"/>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="41"/>
       <c r="C66" s="41" t="s">
         <v>16</v>
@@ -23366,7 +23349,7 @@
       <c r="O66" s="19"/>
       <c r="P66" s="27"/>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="41"/>
       <c r="C67" s="41" t="s">
         <v>16</v>
@@ -23397,7 +23380,7 @@
       <c r="O67" s="19"/>
       <c r="P67" s="27"/>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="41"/>
       <c r="C68" s="41"/>
       <c r="D68" s="37"/>
@@ -23412,7 +23395,7 @@
       <c r="O68" s="19"/>
       <c r="P68" s="27"/>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="39" t="s">
         <v>26</v>
       </c>
@@ -23429,7 +23412,7 @@
       <c r="O69" s="19"/>
       <c r="P69" s="27"/>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="39"/>
       <c r="B70" s="20" t="s">
         <v>53</v>
@@ -23461,7 +23444,7 @@
       <c r="O70" s="19"/>
       <c r="P70" s="27"/>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="39"/>
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
@@ -23477,7 +23460,7 @@
       <c r="O71" s="19"/>
       <c r="P71" s="27"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B72" s="20" t="s">
         <v>52</v>
       </c>
@@ -23512,7 +23495,7 @@
       <c r="O72" s="19"/>
       <c r="P72" s="27"/>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="39"/>
       <c r="C73" s="25" t="s">
         <v>16</v>
@@ -23543,7 +23526,7 @@
       <c r="O73" s="19"/>
       <c r="P73" s="27"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="41"/>
       <c r="C74" s="25" t="s">
         <v>16</v>
@@ -23574,7 +23557,7 @@
       <c r="O74" s="19"/>
       <c r="P74" s="27"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="41"/>
       <c r="C75" s="25" t="s">
         <v>16</v>
@@ -23605,7 +23588,7 @@
       <c r="O75" s="19"/>
       <c r="P75" s="27"/>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="41"/>
       <c r="C76" s="25" t="s">
         <v>16</v>
@@ -23636,7 +23619,7 @@
       <c r="O76" s="19"/>
       <c r="P76" s="27"/>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="41"/>
       <c r="C77" s="25" t="s">
         <v>16</v>
@@ -23669,7 +23652,7 @@
       <c r="O77" s="19"/>
       <c r="P77" s="27"/>
     </row>
-    <row r="78" spans="1:16" ht="32">
+    <row r="78" spans="1:16" ht="34" x14ac:dyDescent="0.25">
       <c r="A78" s="41"/>
       <c r="B78" s="20" t="s">
         <v>62</v>
@@ -23701,7 +23684,7 @@
       <c r="O78" s="19"/>
       <c r="P78" s="27"/>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="41"/>
       <c r="C79" s="25" t="s">
         <v>16</v>
@@ -23730,7 +23713,7 @@
       <c r="O79" s="19"/>
       <c r="P79" s="27"/>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="41"/>
       <c r="C80" s="25" t="s">
         <v>16</v>
@@ -23759,7 +23742,7 @@
       <c r="O80" s="19"/>
       <c r="P80" s="27"/>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="41"/>
       <c r="B81" s="20" t="s">
         <v>51</v>
@@ -23793,7 +23776,7 @@
       <c r="O81" s="19"/>
       <c r="P81" s="27"/>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="39"/>
       <c r="C82" s="25"/>
       <c r="D82" s="37"/>
@@ -23810,7 +23793,7 @@
       <c r="O82" s="19"/>
       <c r="P82" s="27"/>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C83" s="25"/>
       <c r="D83" s="37"/>
       <c r="E83" s="45"/>
@@ -23825,7 +23808,7 @@
       <c r="O83" s="19"/>
       <c r="P83" s="27"/>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="39" t="s">
         <v>28</v>
       </c>
@@ -23842,7 +23825,7 @@
       <c r="O84" s="19"/>
       <c r="P84" s="27"/>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="39"/>
       <c r="B85" s="46" t="s">
         <v>77</v>
@@ -23878,7 +23861,7 @@
       <c r="O85" s="19"/>
       <c r="P85" s="27"/>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="39"/>
       <c r="B86" s="46"/>
       <c r="C86" s="20" t="s">
@@ -23912,7 +23895,7 @@
       <c r="O86" s="19"/>
       <c r="P86" s="27"/>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="39"/>
       <c r="B87" s="46"/>
       <c r="C87" s="20" t="s">
@@ -23944,7 +23927,7 @@
       <c r="O87" s="19"/>
       <c r="P87" s="27"/>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="39"/>
       <c r="B88" s="46"/>
       <c r="C88" s="20" t="s">
@@ -23978,7 +23961,7 @@
       <c r="O88" s="19"/>
       <c r="P88" s="27"/>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="39"/>
       <c r="C89" s="20" t="s">
         <v>16</v>
@@ -24011,7 +23994,7 @@
       <c r="O89" s="19"/>
       <c r="P89" s="27"/>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="39"/>
       <c r="B90" s="46" t="s">
         <v>78</v>
@@ -24031,7 +24014,7 @@
       <c r="O90" s="19"/>
       <c r="P90" s="27"/>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="39"/>
       <c r="B91" s="46" t="s">
         <v>21</v>
@@ -24067,7 +24050,7 @@
       <c r="O91" s="19"/>
       <c r="P91" s="27"/>
     </row>
-    <row r="92" spans="1:16" ht="32">
+    <row r="92" spans="1:16" ht="34" x14ac:dyDescent="0.25">
       <c r="C92" s="20" t="s">
         <v>20</v>
       </c>
@@ -24099,7 +24082,7 @@
       <c r="O92" s="19"/>
       <c r="P92" s="27"/>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C93" s="20" t="s">
         <v>16</v>
       </c>
@@ -24133,7 +24116,7 @@
       <c r="O93" s="19"/>
       <c r="P93" s="27"/>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C94" s="20" t="s">
         <v>16</v>
       </c>
@@ -24167,14 +24150,14 @@
       <c r="O94" s="19"/>
       <c r="P94" s="27"/>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="17" t="s">
         <v>30</v>
       </c>
       <c r="I95" s="17"/>
       <c r="J95" s="37"/>
     </row>
-    <row r="96" spans="1:16" ht="32">
+    <row r="96" spans="1:16" ht="34" x14ac:dyDescent="0.25">
       <c r="A96" s="36"/>
       <c r="B96" s="19" t="s">
         <v>31</v>
@@ -24187,7 +24170,7 @@
       <c r="I96" s="17"/>
       <c r="J96" s="37"/>
     </row>
-    <row r="97" spans="1:10" ht="32">
+    <row r="97" spans="1:10" ht="34" x14ac:dyDescent="0.25">
       <c r="B97" s="19" t="s">
         <v>33</v>
       </c>
@@ -24199,7 +24182,7 @@
       <c r="I97" s="17"/>
       <c r="J97" s="37"/>
     </row>
-    <row r="98" spans="1:10" ht="32">
+    <row r="98" spans="1:10" ht="34" x14ac:dyDescent="0.25">
       <c r="A98" s="36"/>
       <c r="B98" s="19" t="s">
         <v>34</v>
@@ -24212,7 +24195,7 @@
       <c r="I98" s="17"/>
       <c r="J98" s="37"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B99" s="20" t="s">
         <v>39</v>
       </c>
@@ -24221,7 +24204,7 @@
       <c r="I99" s="17"/>
       <c r="J99" s="37"/>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B100" s="19" t="s">
         <v>35</v>
       </c>
@@ -24230,7 +24213,7 @@
       <c r="I100" s="17"/>
       <c r="J100" s="37"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B101" s="19" t="s">
         <v>37</v>
       </c>
@@ -24239,7 +24222,7 @@
       <c r="I101" s="17"/>
       <c r="J101" s="37"/>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B102" s="46" t="s">
         <v>38</v>
       </c>
@@ -24248,13 +24231,13 @@
       <c r="I102" s="17"/>
       <c r="J102" s="37"/>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G103" s="6"/>
       <c r="H103" s="64"/>
       <c r="I103" s="17"/>
       <c r="J103" s="37"/>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B104" s="19" t="s">
         <v>36</v>
       </c>
@@ -24269,7 +24252,7 @@
       <c r="I104" s="17"/>
       <c r="J104" s="37"/>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B105" s="19"/>
       <c r="D105" s="27" t="s">
         <v>986</v>
@@ -24282,7 +24265,7 @@
       <c r="I105" s="17"/>
       <c r="J105" s="37"/>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B106" s="19"/>
       <c r="D106" s="27" t="s">
         <v>987</v>
@@ -24295,7 +24278,7 @@
       <c r="I106" s="17"/>
       <c r="J106" s="37"/>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B107" s="19"/>
       <c r="D107" s="27" t="s">
         <v>988</v>
@@ -24308,7 +24291,7 @@
       <c r="I107" s="17"/>
       <c r="J107" s="37"/>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B108" s="19"/>
       <c r="D108" s="27" t="s">
         <v>989</v>
@@ -24321,7 +24304,7 @@
       <c r="I108" s="17"/>
       <c r="J108" s="37"/>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B109" s="19"/>
       <c r="D109" s="20" t="s">
         <v>667</v>
@@ -24334,7 +24317,7 @@
       <c r="I109" s="17"/>
       <c r="J109" s="37"/>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B110" s="19"/>
       <c r="D110" s="20" t="s">
         <v>885</v>
@@ -24347,13 +24330,13 @@
       <c r="I110" s="17"/>
       <c r="J110" s="37"/>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G111" s="6"/>
       <c r="H111" s="64"/>
       <c r="I111" s="17"/>
       <c r="J111" s="37"/>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B112" s="20" t="s">
         <v>0</v>
       </c>
@@ -24362,7 +24345,7 @@
       <c r="I112" s="17"/>
       <c r="J112" s="37"/>
     </row>
-    <row r="113" spans="2:16">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B113" s="20" t="s">
         <v>1</v>
       </c>
@@ -24371,13 +24354,13 @@
       <c r="I113" s="17"/>
       <c r="J113" s="37"/>
     </row>
-    <row r="114" spans="2:16">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G114" s="6"/>
       <c r="H114" s="64"/>
       <c r="I114" s="17"/>
       <c r="J114" s="37"/>
     </row>
-    <row r="115" spans="2:16">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B115" s="20" t="s">
         <v>40</v>
       </c>
@@ -24392,19 +24375,19 @@
       <c r="I115" s="17"/>
       <c r="J115" s="37"/>
     </row>
-    <row r="116" spans="2:16">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D116" s="20" t="s">
         <v>860</v>
       </c>
       <c r="J116" s="37"/>
     </row>
-    <row r="117" spans="2:16">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D117" s="20" t="s">
         <v>861</v>
       </c>
       <c r="J117" s="37"/>
     </row>
-    <row r="118" spans="2:16">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C118" s="20">
         <v>2</v>
       </c>
@@ -24413,39 +24396,39 @@
       </c>
       <c r="J118" s="37"/>
     </row>
-    <row r="119" spans="2:16">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D119" s="20" t="s">
         <v>1016</v>
       </c>
       <c r="J119" s="37"/>
     </row>
-    <row r="120" spans="2:16">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D120" s="20" t="s">
         <v>1017</v>
       </c>
       <c r="J120" s="37"/>
     </row>
-    <row r="121" spans="2:16">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B121" s="27"/>
       <c r="D121" s="20" t="s">
         <v>859</v>
       </c>
       <c r="J121" s="37"/>
     </row>
-    <row r="122" spans="2:16">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J122" s="37"/>
     </row>
-    <row r="123" spans="2:16">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J123" s="37"/>
     </row>
-    <row r="124" spans="2:16">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B124" s="20" t="s">
         <v>41</v>
       </c>
       <c r="J124" s="37"/>
       <c r="K124" s="48"/>
     </row>
-    <row r="125" spans="2:16" ht="32">
+    <row r="125" spans="2:16" ht="34" x14ac:dyDescent="0.25">
       <c r="B125" s="49" t="s">
         <v>42</v>
       </c>
@@ -24473,7 +24456,7 @@
       <c r="O125" s="27"/>
       <c r="P125" s="27"/>
     </row>
-    <row r="126" spans="2:16">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B126" s="49"/>
       <c r="C126" s="49"/>
       <c r="D126" s="33" t="s">
@@ -24491,7 +24474,7 @@
       <c r="O126" s="27"/>
       <c r="P126" s="27"/>
     </row>
-    <row r="127" spans="2:16">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B127" s="49"/>
       <c r="C127" s="49"/>
       <c r="D127" s="49" t="s">
@@ -24509,7 +24492,7 @@
       <c r="O127" s="27"/>
       <c r="P127" s="27"/>
     </row>
-    <row r="128" spans="2:16">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B128" s="49"/>
       <c r="C128" s="49"/>
       <c r="D128" s="49" t="s">
@@ -24527,7 +24510,7 @@
       <c r="O128" s="27"/>
       <c r="P128" s="27"/>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="27"/>
       <c r="B129" s="49"/>
       <c r="C129" s="49"/>
@@ -24549,7 +24532,7 @@
       <c r="O129" s="27"/>
       <c r="P129" s="27"/>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="27"/>
       <c r="B130" s="49"/>
       <c r="C130" s="49"/>
@@ -24575,7 +24558,7 @@
       <c r="O130" s="27"/>
       <c r="P130" s="27"/>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="27"/>
       <c r="B131" s="49"/>
       <c r="C131" s="49"/>
@@ -24599,7 +24582,7 @@
       <c r="O131" s="27"/>
       <c r="P131" s="27"/>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="27"/>
       <c r="B132" s="49"/>
       <c r="C132" s="49"/>
@@ -24625,7 +24608,7 @@
       <c r="O132" s="27"/>
       <c r="P132" s="27"/>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="27"/>
       <c r="B133" s="49"/>
       <c r="C133" s="49"/>
@@ -24647,7 +24630,7 @@
       <c r="O133" s="27"/>
       <c r="P133" s="27"/>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="27"/>
       <c r="B134" s="49"/>
       <c r="C134" s="49"/>
@@ -24669,7 +24652,7 @@
       <c r="O134" s="27"/>
       <c r="P134" s="27"/>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="27"/>
       <c r="B135" s="49"/>
       <c r="C135" s="49"/>
@@ -24691,7 +24674,7 @@
       <c r="O135" s="27"/>
       <c r="P135" s="27"/>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="27"/>
       <c r="B136" s="49"/>
       <c r="C136" s="49"/>
@@ -24715,7 +24698,7 @@
       <c r="O136" s="27"/>
       <c r="P136" s="27"/>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="27"/>
       <c r="B137" s="49"/>
       <c r="C137" s="49"/>
@@ -24743,7 +24726,7 @@
       <c r="O137" s="27"/>
       <c r="P137" s="27"/>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B138" s="49"/>
       <c r="C138" s="49"/>
       <c r="D138" s="49" t="s">
@@ -24763,7 +24746,7 @@
       <c r="O138" s="27"/>
       <c r="P138" s="27"/>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="27"/>
       <c r="B139" s="49"/>
       <c r="C139" s="49"/>
@@ -24785,7 +24768,7 @@
       <c r="O139" s="27"/>
       <c r="P139" s="27"/>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="27"/>
       <c r="B140" s="34"/>
       <c r="C140" s="34"/>
@@ -24807,7 +24790,7 @@
       <c r="O140" s="27"/>
       <c r="P140" s="27"/>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B141" s="34"/>
       <c r="C141" s="34"/>
       <c r="D141" s="34" t="s">
@@ -24827,7 +24810,7 @@
       <c r="O141" s="27"/>
       <c r="P141" s="27"/>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B142" s="34"/>
       <c r="C142" s="34"/>
       <c r="D142" s="34" t="s">
@@ -24847,7 +24830,7 @@
       <c r="O142" s="27"/>
       <c r="P142" s="27"/>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B143" s="34"/>
       <c r="C143" s="34"/>
       <c r="D143" s="34" t="s">
@@ -24869,7 +24852,7 @@
       <c r="O143" s="27"/>
       <c r="P143" s="27"/>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B144" s="34"/>
       <c r="C144" s="34"/>
       <c r="D144" s="20" t="s">
@@ -24889,7 +24872,7 @@
       <c r="O144" s="27"/>
       <c r="P144" s="27"/>
     </row>
-    <row r="145" spans="2:16">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B145" s="34"/>
       <c r="C145" s="34"/>
       <c r="D145" s="34" t="s">
@@ -24909,7 +24892,7 @@
       <c r="O145" s="27"/>
       <c r="P145" s="27"/>
     </row>
-    <row r="146" spans="2:16">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B146" s="34"/>
       <c r="C146" s="34"/>
       <c r="D146" s="34" t="s">
@@ -24929,7 +24912,7 @@
       <c r="O146" s="27"/>
       <c r="P146" s="27"/>
     </row>
-    <row r="147" spans="2:16">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B147" s="34"/>
       <c r="C147" s="34"/>
       <c r="D147" s="34" t="s">
@@ -24949,7 +24932,7 @@
       <c r="O147" s="27"/>
       <c r="P147" s="27"/>
     </row>
-    <row r="148" spans="2:16">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B148" s="34"/>
       <c r="C148" s="34"/>
       <c r="D148" s="34" t="s">
@@ -24967,7 +24950,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="149" spans="2:16">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B149" s="34"/>
       <c r="C149" s="34"/>
       <c r="D149" s="34"/>
@@ -24980,227 +24963,227 @@
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="A101:A114 B101:B102 C101:F103 A69:F69 A68 C68:F68 A121 A115:B120 A126:A140 J126:XFD140 B104:C110 E104:F110 E85:F88 A85:C89 A82:F84 A72:A81 A96:F100 A122:F125 C111:F121 A67:F67 D136:G136 D126:G133 B134:I135 B137:I140 G125:XFD125 E89 A1:H1 A9:H9 A70:D70 A48:F48 H68:XFD70 A10:G15 A16:H16 A28:G28 I28:XFD28 C19:H22 A17:B22 C18:E18 A6:G8 A2:B5 C3:G5 A50:B52 C51:H52 D54:H54 J73:XFD73 I71:XFD72 G72:H73 B72:E77 A71:B71 G96:G147 H96:XFD124 A90:E90 F89:F90 A91:XFD92 A93:B95 I93:XFD95 C93:H94 A59:E59 G59:H59 A23:XFD27 H126:H149 A141:XFD1048576 G74:XFD90 A29:XFD47 H48:XFD48 A49:XFD49 I50:XFD52 A57:H58 A60:H61 J57:XFD61 A64:XFD64 A63:H63 J63:XFD63 H67 J67:XFD67 I1:XFD21 I7:I43 A62:XFD62">
-    <cfRule type="cellIs" dxfId="48" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="51" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126:C133 H126:I133 H136:I136 B136:C136">
-    <cfRule type="cellIs" dxfId="46" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="49" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D109:D110">
-    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85:D89">
-    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:F81">
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76">
-    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77">
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43 D39 D24:E24 C23:C26 C31:F31 E25:E26 E38:F38">
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:C54 A53:F53 I56:XFD56 A65:C66 A55:B56 J53:XFD55 J65:XFD66">
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:XFD22">
-    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67:G70">
-    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53">
-    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="24" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65">
-    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72">
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74">
-    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="18" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70:F70">
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I73">
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55">
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I65">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I67">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25247,9 +25230,6 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -25262,7 +25242,7 @@
       <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.1640625" style="20" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="20" customWidth="1"/>
@@ -25274,7 +25254,7 @@
     <col min="16" max="16384" width="10.1640625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="36" t="s">
         <v>2</v>
       </c>
@@ -25318,7 +25298,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>14</v>
       </c>
@@ -25337,7 +25317,7 @@
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="20" t="s">
         <v>15</v>
@@ -25358,7 +25338,7 @@
       <c r="N3" s="19"/>
       <c r="O3" s="19"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="36"/>
       <c r="B4" s="38"/>
       <c r="C4" s="20" t="s">
@@ -25377,7 +25357,7 @@
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="B5" s="38" t="s">
         <v>19</v>
@@ -25398,7 +25378,7 @@
       <c r="N5" s="19"/>
       <c r="O5" s="19"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="38"/>
       <c r="C6" s="20" t="s">
@@ -25417,7 +25397,7 @@
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="B7" s="38"/>
       <c r="C7" s="20" t="s">
@@ -25436,7 +25416,7 @@
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
       <c r="B8" s="38" t="s">
         <v>61</v>
@@ -25457,7 +25437,7 @@
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="36"/>
       <c r="B9" s="38"/>
       <c r="C9" s="20" t="s">
@@ -25476,7 +25456,7 @@
       <c r="N9" s="19"/>
       <c r="O9" s="19"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="38"/>
       <c r="C10" s="20" t="s">
@@ -25495,7 +25475,7 @@
       <c r="N10" s="19"/>
       <c r="O10" s="19"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="36"/>
       <c r="B11" s="38" t="s">
         <v>21</v>
@@ -25516,7 +25496,7 @@
       <c r="N11" s="19"/>
       <c r="O11" s="19"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="38"/>
       <c r="C12" s="20" t="s">
@@ -25535,7 +25515,7 @@
       <c r="N12" s="19"/>
       <c r="O12" s="19"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="36"/>
       <c r="B13" s="38"/>
       <c r="C13" s="20" t="s">
@@ -25554,7 +25534,7 @@
       <c r="N13" s="19"/>
       <c r="O13" s="19"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="38"/>
       <c r="C14" s="25" t="s">
@@ -25573,7 +25553,7 @@
       <c r="N14" s="19"/>
       <c r="O14" s="19"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="36"/>
       <c r="B15" s="38"/>
       <c r="C15" s="25" t="s">
@@ -25592,7 +25572,7 @@
       <c r="N15" s="19"/>
       <c r="O15" s="19"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="C16" s="25"/>
       <c r="D16" s="37"/>
@@ -25608,7 +25588,7 @@
       <c r="N16" s="19"/>
       <c r="O16" s="19"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
         <v>23</v>
       </c>
@@ -25624,7 +25604,7 @@
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>64</v>
       </c>
@@ -25642,7 +25622,7 @@
       <c r="N18" s="19"/>
       <c r="O18" s="19"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
       <c r="C19" s="41" t="s">
         <v>16</v>
@@ -25658,7 +25638,7 @@
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="C20" s="41" t="s">
         <v>16</v>
@@ -25674,7 +25654,7 @@
       <c r="N20" s="19"/>
       <c r="O20" s="19"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" s="41" t="s">
         <v>16</v>
@@ -25690,7 +25670,7 @@
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>24</v>
       </c>
@@ -25708,7 +25688,7 @@
       <c r="N22" s="19"/>
       <c r="O22" s="19"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="41" t="s">
         <v>20</v>
@@ -25724,7 +25704,7 @@
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="39"/>
       <c r="B24" s="7"/>
       <c r="C24" s="41" t="s">
@@ -25741,7 +25721,7 @@
       <c r="N24" s="19"/>
       <c r="O24" s="19"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="53"/>
       <c r="B25" s="43" t="s">
         <v>25</v>
@@ -25760,7 +25740,7 @@
       <c r="N25" s="19"/>
       <c r="O25" s="19"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="53"/>
       <c r="C26" s="41" t="s">
         <v>16</v>
@@ -25776,7 +25756,7 @@
       <c r="N26" s="19"/>
       <c r="O26" s="19"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="53"/>
       <c r="C27" s="41" t="s">
         <v>16</v>
@@ -25792,7 +25772,7 @@
       <c r="N27" s="19"/>
       <c r="O27" s="19"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="53"/>
       <c r="C28" s="41" t="s">
         <v>16</v>
@@ -25808,7 +25788,7 @@
       <c r="N28" s="19"/>
       <c r="O28" s="19"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="53"/>
       <c r="C29" s="41"/>
       <c r="D29" s="37"/>
@@ -25822,7 +25802,7 @@
       <c r="N29" s="19"/>
       <c r="O29" s="19"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>26</v>
       </c>
@@ -25838,7 +25818,7 @@
       <c r="N30" s="19"/>
       <c r="O30" s="19"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31" s="20" t="s">
         <v>53</v>
       </c>
@@ -25858,7 +25838,7 @@
       <c r="N31" s="19"/>
       <c r="O31" s="19"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="39"/>
       <c r="C32" s="25" t="s">
         <v>16</v>
@@ -25876,7 +25856,7 @@
       <c r="N32" s="19"/>
       <c r="O32" s="19"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="53"/>
       <c r="B33" s="20" t="s">
         <v>51</v>
@@ -25897,7 +25877,7 @@
       <c r="N33" s="19"/>
       <c r="O33" s="19"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="53"/>
       <c r="C34" s="25" t="s">
         <v>16</v>
@@ -25915,7 +25895,7 @@
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="53"/>
       <c r="B35" s="20" t="s">
         <v>52</v>
@@ -25936,7 +25916,7 @@
       <c r="N35" s="19"/>
       <c r="O35" s="19"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="53"/>
       <c r="C36" s="25" t="s">
         <v>16</v>
@@ -25954,7 +25934,7 @@
       <c r="N36" s="19"/>
       <c r="O36" s="19"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="53"/>
       <c r="B37" s="20" t="s">
         <v>21</v>
@@ -25975,7 +25955,7 @@
       <c r="N37" s="19"/>
       <c r="O37" s="19"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="53"/>
       <c r="C38" s="25" t="s">
         <v>16</v>
@@ -25993,7 +25973,7 @@
       <c r="N38" s="19"/>
       <c r="O38" s="19"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="53"/>
       <c r="C39" s="25" t="s">
         <v>20</v>
@@ -26010,7 +25990,7 @@
       <c r="N39" s="19"/>
       <c r="O39" s="19"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="39"/>
       <c r="C40" s="25" t="s">
         <v>27</v>
@@ -26028,7 +26008,7 @@
       <c r="N40" s="19"/>
       <c r="O40" s="19"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C41" s="25"/>
       <c r="D41" s="37"/>
       <c r="E41" s="45"/>
@@ -26042,7 +26022,7 @@
       <c r="N41" s="19"/>
       <c r="O41" s="19"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="39" t="s">
         <v>28</v>
       </c>
@@ -26059,7 +26039,7 @@
       <c r="N42" s="19"/>
       <c r="O42" s="19"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="39"/>
       <c r="B43" s="46" t="s">
         <v>77</v>
@@ -26078,7 +26058,7 @@
       <c r="N43" s="19"/>
       <c r="O43" s="19"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="39"/>
       <c r="C44" s="20" t="s">
         <v>16</v>
@@ -26095,7 +26075,7 @@
       <c r="N44" s="19"/>
       <c r="O44" s="19"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="39"/>
       <c r="B45" s="46" t="s">
         <v>78</v>
@@ -26115,7 +26095,7 @@
       <c r="N45" s="19"/>
       <c r="O45" s="19"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="39"/>
       <c r="B46" s="46" t="s">
         <v>21</v>
@@ -26135,7 +26115,7 @@
       <c r="N46" s="19"/>
       <c r="O46" s="19"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
       <c r="I47" s="37"/>
@@ -26146,7 +26126,7 @@
       <c r="N47" s="19"/>
       <c r="O47" s="19"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>30</v>
       </c>
@@ -26154,7 +26134,7 @@
       <c r="H48" s="17"/>
       <c r="I48" s="37"/>
     </row>
-    <row r="49" spans="1:9" ht="32">
+    <row r="49" spans="1:9" ht="34" x14ac:dyDescent="0.25">
       <c r="A49" s="36"/>
       <c r="B49" s="19" t="s">
         <v>31</v>
@@ -26166,7 +26146,7 @@
       <c r="H49" s="17"/>
       <c r="I49" s="37"/>
     </row>
-    <row r="50" spans="1:9" ht="32">
+    <row r="50" spans="1:9" ht="34" x14ac:dyDescent="0.25">
       <c r="B50" s="19" t="s">
         <v>33</v>
       </c>
@@ -26177,7 +26157,7 @@
       <c r="H50" s="17"/>
       <c r="I50" s="37"/>
     </row>
-    <row r="51" spans="1:9" ht="32">
+    <row r="51" spans="1:9" ht="34" x14ac:dyDescent="0.25">
       <c r="A51" s="36"/>
       <c r="B51" s="19" t="s">
         <v>34</v>
@@ -26189,7 +26169,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="37"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>39</v>
       </c>
@@ -26197,7 +26177,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="37"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
         <v>35</v>
       </c>
@@ -26205,7 +26185,7 @@
       <c r="H53" s="17"/>
       <c r="I53" s="37"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B54" s="19" t="s">
         <v>37</v>
       </c>
@@ -26213,7 +26193,7 @@
       <c r="H54" s="17"/>
       <c r="I54" s="37"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B55" s="46" t="s">
         <v>38</v>
       </c>
@@ -26221,12 +26201,12 @@
       <c r="H55" s="17"/>
       <c r="I55" s="37"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G56" s="17"/>
       <c r="H56" s="17"/>
       <c r="I56" s="37"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B57" s="19" t="s">
         <v>36</v>
       </c>
@@ -26234,12 +26214,12 @@
       <c r="H57" s="17"/>
       <c r="I57" s="37"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G58" s="17"/>
       <c r="H58" s="17"/>
       <c r="I58" s="37"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B59" s="20" t="s">
         <v>0</v>
       </c>
@@ -26247,7 +26227,7 @@
       <c r="H59" s="17"/>
       <c r="I59" s="37"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B60" s="20" t="s">
         <v>1</v>
       </c>
@@ -26255,12 +26235,12 @@
       <c r="H60" s="17"/>
       <c r="I60" s="37"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G61" s="17"/>
       <c r="H61" s="17"/>
       <c r="I61" s="37"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B62" s="20" t="s">
         <v>40</v>
       </c>
@@ -26268,26 +26248,26 @@
       <c r="H62" s="17"/>
       <c r="I62" s="37"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I63" s="37"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I64" s="37"/>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I65" s="37"/>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B66" s="20" t="s">
         <v>41</v>
       </c>
       <c r="I66" s="37"/>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I67" s="37"/>
       <c r="J67" s="48"/>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B68" s="49" t="s">
         <v>42</v>
       </c>
@@ -26314,7 +26294,7 @@
       </c>
       <c r="O68" s="27"/>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B69" s="49"/>
       <c r="C69" s="49"/>
       <c r="D69" s="49"/>
@@ -26325,7 +26305,7 @@
       <c r="I69" s="49"/>
       <c r="O69" s="27"/>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B70" s="49"/>
       <c r="C70" s="49"/>
       <c r="D70" s="49"/>
@@ -26336,7 +26316,7 @@
       <c r="I70" s="49"/>
       <c r="O70" s="27"/>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B71" s="49"/>
       <c r="C71" s="49"/>
       <c r="D71" s="49"/>
@@ -26347,7 +26327,7 @@
       <c r="I71" s="49"/>
       <c r="O71" s="27"/>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="27"/>
       <c r="B72" s="49"/>
       <c r="C72" s="49"/>
@@ -26364,7 +26344,7 @@
       <c r="N72" s="27"/>
       <c r="O72" s="27"/>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="27"/>
       <c r="B73" s="49"/>
       <c r="C73" s="49"/>
@@ -26381,7 +26361,7 @@
       <c r="N73" s="27"/>
       <c r="O73" s="27"/>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="27"/>
       <c r="B74" s="49"/>
       <c r="C74" s="49"/>
@@ -26398,7 +26378,7 @@
       <c r="N74" s="27"/>
       <c r="O74" s="27"/>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="27"/>
       <c r="B75" s="49"/>
       <c r="C75" s="49"/>
@@ -26415,7 +26395,7 @@
       <c r="N75" s="27"/>
       <c r="O75" s="27"/>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="27"/>
       <c r="B76" s="49"/>
       <c r="C76" s="49"/>
@@ -26432,7 +26412,7 @@
       <c r="N76" s="27"/>
       <c r="O76" s="27"/>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="27"/>
       <c r="B77" s="49"/>
       <c r="C77" s="49"/>
@@ -26449,7 +26429,7 @@
       <c r="N77" s="27"/>
       <c r="O77" s="27"/>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="27"/>
       <c r="B78" s="49"/>
       <c r="C78" s="49"/>
@@ -26466,7 +26446,7 @@
       <c r="N78" s="27"/>
       <c r="O78" s="27"/>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="27"/>
       <c r="B79" s="49"/>
       <c r="C79" s="49"/>
@@ -26483,7 +26463,7 @@
       <c r="N79" s="27"/>
       <c r="O79" s="27"/>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="27"/>
       <c r="B80" s="49"/>
       <c r="C80" s="49"/>
@@ -26500,7 +26480,7 @@
       <c r="N80" s="27"/>
       <c r="O80" s="27"/>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="27"/>
       <c r="B82" s="27"/>
       <c r="C82" s="27"/>
@@ -26517,7 +26497,7 @@
       <c r="N82" s="27"/>
       <c r="O82" s="27"/>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="27"/>
       <c r="B83" s="27"/>
       <c r="C83" s="27"/>
@@ -26537,12 +26517,12 @@
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B57 A54:A61 B54:B55 C54:F61 A62:F1048576 A30:F53 A29 C29:F29 A1:F28 G1:XFD1048576">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B61">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26576,9 +26556,6 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -26591,12 +26568,12 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="16">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>54</v>
       </c>
@@ -26612,7 +26589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16">
+    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -26630,7 +26607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16">
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -26648,7 +26625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16">
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>27</v>
       </c>
@@ -26666,7 +26643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -26677,7 +26654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="E7" s="30" t="s">
@@ -26687,7 +26664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="E8" s="4" t="s">
@@ -26697,7 +26674,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="E9" s="4" t="s">
@@ -26707,7 +26684,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="E10" s="4" t="s">
@@ -26717,7 +26694,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="E11" s="4" t="s">
@@ -26727,7 +26704,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="E12" s="4" t="s">
@@ -26737,7 +26714,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="E13" s="4" t="s">
@@ -26747,7 +26724,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="E14" s="4" t="s">
@@ -26757,7 +26734,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="E15" s="4" t="s">
@@ -26767,7 +26744,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="E16" s="4" t="s">
@@ -26777,7 +26754,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="E17" s="4" t="s">
@@ -26787,7 +26764,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="E18" s="4" t="s">
@@ -26795,7 +26772,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="E19" s="4" t="s">
@@ -26803,7 +26780,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="E20" s="4" t="s">
@@ -26811,7 +26788,7 @@
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="E21" s="4" t="s">
@@ -26819,7 +26796,7 @@
       </c>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="E22" s="4" t="s">
@@ -26827,7 +26804,7 @@
       </c>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="E23" s="4" t="s">
@@ -26835,7 +26812,7 @@
       </c>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="E24" s="4" t="s">
@@ -26843,7 +26820,7 @@
       </c>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="E25" s="4" t="s">
@@ -26851,7 +26828,7 @@
       </c>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="E26" s="4" t="s">
@@ -26861,15 +26838,10 @@
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="A2:C6 B7:C26 G2:G5 I1:I25 E2:E26">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>